--- a/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624D013-131C-435C-BA18-A78D9ED1CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA7F69-617D-45B2-BBB8-5D9BD4FC130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9936" yWindow="3084" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 trees" sheetId="1" r:id="rId1"/>
-    <sheet name="500 trees" sheetId="2" r:id="rId2"/>
-    <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -132,6 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
@@ -3083,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,11 +3208,11 @@
         <v>6792.1478748321497</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K62" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
         <v>119670.60303688014</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L62" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
         <v>119.67060303688015</v>
       </c>
     </row>
@@ -3413,51 +3417,16 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>100</v>
-      </c>
       <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>124811.327457427</v>
-      </c>
-      <c r="F9">
-        <v>165.87066650390599</v>
-      </c>
-      <c r="G9">
-        <v>1771.94809913635</v>
-      </c>
-      <c r="H9">
-        <v>50.290346145629798</v>
-      </c>
-      <c r="I9">
-        <v>7941.0285949707004</v>
-      </c>
-      <c r="J9">
-        <v>9763.3171081542896</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>126633.56590270899</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>126.63356590270899</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -3466,38 +3435,38 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>119024.295568466</v>
+        <v>124811.327457427</v>
       </c>
       <c r="F10">
-        <v>166.801691055297</v>
+        <v>165.87066650390599</v>
       </c>
       <c r="G10">
-        <v>4061.16676330566</v>
+        <v>1771.94809913635</v>
       </c>
       <c r="H10">
-        <v>50.520896911621001</v>
+        <v>50.290346145629798</v>
       </c>
       <c r="I10">
-        <v>5255.5713653564399</v>
+        <v>7941.0285949707004</v>
       </c>
       <c r="J10">
-        <v>9367.3124313354492</v>
+        <v>9763.3171081542896</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>123135.98322868328</v>
+        <v>126633.56590270899</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>123.13598322868329</v>
+        <v>126.63356590270899</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -3506,38 +3475,38 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>120860.260725021</v>
+        <v>119024.295568466</v>
       </c>
       <c r="F11">
-        <v>162.583827972412</v>
+        <v>166.801691055297</v>
       </c>
       <c r="G11">
-        <v>5237.9448413848804</v>
+        <v>4061.16676330566</v>
       </c>
       <c r="H11">
-        <v>61.283111572265597</v>
+        <v>50.520896911621001</v>
       </c>
       <c r="I11">
-        <v>5220.3681468963596</v>
+        <v>5255.5713653564399</v>
       </c>
       <c r="J11">
-        <v>10519.652128219601</v>
+        <v>9367.3124313354492</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>126159.48867797814</v>
+        <v>123135.98322868328</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>126.15948867797815</v>
+        <v>123.13598322868329</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3546,78 +3515,78 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>118698.01139831499</v>
+        <v>120860.260725021</v>
       </c>
       <c r="F12">
-        <v>164.73937034606899</v>
+        <v>162.583827972412</v>
       </c>
       <c r="G12">
-        <v>6289.0160083770697</v>
+        <v>5237.9448413848804</v>
       </c>
       <c r="H12">
-        <v>49.228429794311502</v>
+        <v>61.283111572265597</v>
       </c>
       <c r="I12">
-        <v>5234.1120243072501</v>
+        <v>5220.3681468963596</v>
       </c>
       <c r="J12">
-        <v>11572.4103450775</v>
+        <v>10519.652128219601</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>125036.25583648638</v>
+        <v>126159.48867797814</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>125.03625583648638</v>
+        <v>126.15948867797815</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>119843.768596649</v>
+        <v>118698.01139831499</v>
       </c>
       <c r="F13">
-        <v>164.294958114624</v>
+        <v>164.73937034606899</v>
       </c>
       <c r="G13">
-        <v>892.70210266113202</v>
+        <v>6289.0160083770697</v>
       </c>
       <c r="H13">
-        <v>53.8101196289062</v>
+        <v>49.228429794311502</v>
       </c>
       <c r="I13">
-        <v>19206.968784332199</v>
+        <v>5234.1120243072501</v>
       </c>
       <c r="J13">
-        <v>20153.5408496856</v>
+        <v>11572.4103450775</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>120790.28081893903</v>
+        <v>125036.25583648638</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>120.79028081893904</v>
+        <v>125.03625583648638</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -3626,38 +3595,38 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>119712.884664535</v>
+        <v>119843.768596649</v>
       </c>
       <c r="F14">
-        <v>162.78481483459399</v>
+        <v>164.294958114624</v>
       </c>
       <c r="G14">
-        <v>2409.1236591339102</v>
+        <v>892.70210266113202</v>
       </c>
       <c r="H14">
-        <v>52.013158798217702</v>
+        <v>53.8101196289062</v>
       </c>
       <c r="I14">
-        <v>16471.621036529501</v>
+        <v>19206.968784332199</v>
       </c>
       <c r="J14">
-        <v>18932.824134826598</v>
+        <v>20153.5408496856</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>122174.02148246713</v>
+        <v>120790.28081893903</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>122.17402148246713</v>
+        <v>120.79028081893904</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -3666,38 +3635,38 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>118831.88176155</v>
+        <v>119712.884664535</v>
       </c>
       <c r="F15">
-        <v>163.91539573669399</v>
+        <v>162.78481483459399</v>
       </c>
       <c r="G15">
-        <v>2564.39280509948</v>
+        <v>2409.1236591339102</v>
       </c>
       <c r="H15">
-        <v>50.266265869140597</v>
+        <v>52.013158798217702</v>
       </c>
       <c r="I15">
-        <v>18356.997013092001</v>
+        <v>16471.621036529501</v>
       </c>
       <c r="J15">
-        <v>20971.723079681298</v>
+        <v>18932.824134826598</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>121446.54083251863</v>
+        <v>122174.02148246713</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>121.44654083251864</v>
+        <v>122.17402148246713</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -3706,78 +3675,78 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>119038.424253463</v>
+        <v>118831.88176155</v>
       </c>
       <c r="F16">
-        <v>165.17853736877399</v>
+        <v>163.91539573669399</v>
       </c>
       <c r="G16">
-        <v>687.56365776062</v>
+        <v>2564.39280509948</v>
       </c>
       <c r="H16">
-        <v>54.414749145507798</v>
+        <v>50.266265869140597</v>
       </c>
       <c r="I16">
-        <v>51917.401552200303</v>
+        <v>18356.997013092001</v>
       </c>
       <c r="J16">
-        <v>52659.452438354398</v>
+        <v>20971.723079681298</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>119780.40266036913</v>
+        <v>121446.54083251863</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>119.78040266036913</v>
+        <v>121.44654083251864</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>124198.61865043599</v>
+        <v>119038.424253463</v>
       </c>
       <c r="F17">
-        <v>164.177656173706</v>
+        <v>165.17853736877399</v>
       </c>
       <c r="G17">
-        <v>1574.90491867065</v>
+        <v>687.56365776062</v>
       </c>
       <c r="H17">
-        <v>27.0216464996337</v>
+        <v>54.414749145507798</v>
       </c>
       <c r="I17">
-        <v>5847.2800254821695</v>
+        <v>51917.401552200303</v>
       </c>
       <c r="J17">
-        <v>7449.2654800415003</v>
+        <v>52659.452438354398</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>125800.54521560628</v>
+        <v>119780.40266036913</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>125.80054521560629</v>
+        <v>119.78040266036913</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -3786,38 +3755,38 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>121567.74687767</v>
+        <v>124198.61865043599</v>
       </c>
       <c r="F18">
-        <v>165.54331779479901</v>
+        <v>164.177656173706</v>
       </c>
       <c r="G18">
-        <v>1015.91038703918</v>
+        <v>1574.90491867065</v>
       </c>
       <c r="H18">
-        <v>26.899337768554599</v>
+        <v>27.0216464996337</v>
       </c>
       <c r="I18">
-        <v>2135.4761123657199</v>
+        <v>5847.2800254821695</v>
       </c>
       <c r="J18">
-        <v>3178.34520339965</v>
+        <v>7449.2654800415003</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>122610.55660247774</v>
+        <v>125800.54521560628</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>122.61055660247774</v>
+        <v>125.80054521560629</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -3826,38 +3795,38 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>119985.764741897</v>
+        <v>121567.74687767</v>
       </c>
       <c r="F19">
-        <v>166.69750213623001</v>
+        <v>165.54331779479901</v>
       </c>
       <c r="G19">
-        <v>1130.6169033050501</v>
+        <v>1015.91038703918</v>
       </c>
       <c r="H19">
-        <v>26.9737243652343</v>
+        <v>26.899337768554599</v>
       </c>
       <c r="I19">
-        <v>2140.6011581420898</v>
+        <v>2135.4761123657199</v>
       </c>
       <c r="J19">
-        <v>3298.2504367828301</v>
+        <v>3178.34520339965</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>121143.35536956729</v>
+        <v>122610.55660247774</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>121.14335536956729</v>
+        <v>122.61055660247774</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B20">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -3866,78 +3835,78 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>117911.98635101299</v>
+        <v>119985.764741897</v>
       </c>
       <c r="F20">
-        <v>164.00456428527801</v>
+        <v>166.69750213623001</v>
       </c>
       <c r="G20">
-        <v>2094.2671298980699</v>
+        <v>1130.6169033050501</v>
       </c>
       <c r="H20">
-        <v>26.904344558715799</v>
+        <v>26.9737243652343</v>
       </c>
       <c r="I20">
-        <v>2208.08815956115</v>
+        <v>2140.6011581420898</v>
       </c>
       <c r="J20">
-        <v>4329.3209075927698</v>
+        <v>3298.2504367828301</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>120033.15782546978</v>
+        <v>121143.35536956729</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>120.03315782546979</v>
+        <v>121.14335536956729</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>118945.89924812299</v>
+        <v>117911.98635101299</v>
       </c>
       <c r="F21">
-        <v>261.90066337585398</v>
+        <v>164.00456428527801</v>
       </c>
       <c r="G21">
-        <v>1951.1954784393299</v>
+        <v>2094.2671298980699</v>
       </c>
       <c r="H21">
-        <v>51.848649978637603</v>
+        <v>26.904344558715799</v>
       </c>
       <c r="I21">
-        <v>25207.453727722099</v>
+        <v>2208.08815956115</v>
       </c>
       <c r="J21">
-        <v>27210.567951202302</v>
+        <v>4329.3209075927698</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>120948.94337654096</v>
+        <v>120033.15782546978</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>120.94894337654097</v>
+        <v>120.03315782546979</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -3946,38 +3915,38 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>119380.91731071399</v>
+        <v>118945.89924812299</v>
       </c>
       <c r="F22">
-        <v>229.179620742797</v>
+        <v>261.90066337585398</v>
       </c>
       <c r="G22">
-        <v>950.72889328002896</v>
+        <v>1951.1954784393299</v>
       </c>
       <c r="H22">
-        <v>54.530143737792898</v>
+        <v>51.848649978637603</v>
       </c>
       <c r="I22">
-        <v>25678.9028644561</v>
+        <v>25207.453727722099</v>
       </c>
       <c r="J22">
-        <v>26684.233665466301</v>
+        <v>27210.567951202302</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>120386.17634773182</v>
+        <v>120948.94337654096</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>120.38617634773182</v>
+        <v>120.94894337654097</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -3986,38 +3955,38 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>119591.926813125</v>
+        <v>119380.91731071399</v>
       </c>
       <c r="F23">
-        <v>230.474710464477</v>
+        <v>229.179620742797</v>
       </c>
       <c r="G23">
-        <v>473.70243072509697</v>
+        <v>950.72889328002896</v>
       </c>
       <c r="H23">
-        <v>51.115274429321197</v>
+        <v>54.530143737792898</v>
       </c>
       <c r="I23">
-        <v>25240.096569061199</v>
+        <v>25678.9028644561</v>
       </c>
       <c r="J23">
-        <v>25764.978647232001</v>
+        <v>26684.233665466301</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>120116.74451827942</v>
+        <v>120386.17634773182</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>120.11674451827942</v>
+        <v>120.38617634773182</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B24">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -4026,78 +3995,78 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>122125.766277313</v>
+        <v>119591.926813125</v>
       </c>
       <c r="F24">
-        <v>226.35293006896899</v>
+        <v>230.474710464477</v>
       </c>
       <c r="G24">
-        <v>380.18250465392998</v>
+        <v>473.70243072509697</v>
       </c>
       <c r="H24">
-        <v>51.394224166870103</v>
+        <v>51.115274429321197</v>
       </c>
       <c r="I24">
-        <v>25362.158298492399</v>
+        <v>25240.096569061199</v>
       </c>
       <c r="J24">
-        <v>25793.799877166701</v>
+        <v>25764.978647232001</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>122557.3430061338</v>
+        <v>120116.74451827942</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>122.55734300613381</v>
+        <v>120.11674451827942</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>119343.102931976</v>
+        <v>122125.766277313</v>
       </c>
       <c r="F25">
-        <v>227.50234603881799</v>
+        <v>226.35293006896899</v>
       </c>
       <c r="G25">
-        <v>2150.2406597137401</v>
+        <v>380.18250465392998</v>
       </c>
       <c r="H25">
-        <v>51.057577133178697</v>
+        <v>51.394224166870103</v>
       </c>
       <c r="I25">
-        <v>24388.711690902699</v>
+        <v>25362.158298492399</v>
       </c>
       <c r="J25">
-        <v>26590.074539184501</v>
+        <v>25793.799877166701</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>121544.40116882292</v>
+        <v>122557.3430061338</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>121.54440116882293</v>
+        <v>122.55734300613381</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -4106,38 +4075,38 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>120627.96616554201</v>
+        <v>119343.102931976</v>
       </c>
       <c r="F26">
-        <v>228.61433029174799</v>
+        <v>227.50234603881799</v>
       </c>
       <c r="G26">
-        <v>1839.7336006164501</v>
+        <v>2150.2406597137401</v>
       </c>
       <c r="H26">
-        <v>51.232337951660099</v>
+        <v>51.057577133178697</v>
       </c>
       <c r="I26">
-        <v>24359.392642974799</v>
+        <v>24388.711690902699</v>
       </c>
       <c r="J26">
-        <v>26250.430345535198</v>
+        <v>26590.074539184501</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>122518.93210411012</v>
+        <v>121544.40116882292</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>122.51893210411012</v>
+        <v>121.54440116882293</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -4146,118 +4115,83 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>120922.91665077199</v>
+        <v>120627.96616554201</v>
       </c>
       <c r="F27">
-        <v>225.58784484863199</v>
+        <v>228.61433029174799</v>
       </c>
       <c r="G27">
-        <v>1808.56871604919</v>
+        <v>1839.7336006164501</v>
       </c>
       <c r="H27">
-        <v>53.066015243530202</v>
+        <v>51.232337951660099</v>
       </c>
       <c r="I27">
-        <v>24932.889699935899</v>
+        <v>24359.392642974799</v>
       </c>
       <c r="J27">
-        <v>26794.590711593599</v>
+        <v>26250.430345535198</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>122784.55138206472</v>
+        <v>122518.93210411012</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>122.78455138206472</v>
+        <v>122.51893210411012</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>122818.965435028</v>
+        <v>120922.91665077199</v>
       </c>
       <c r="F28">
-        <v>229.631423950195</v>
+        <v>225.58784484863199</v>
       </c>
       <c r="G28">
-        <v>2275.4466533660802</v>
+        <v>1808.56871604919</v>
       </c>
       <c r="H28">
-        <v>53.480386734008697</v>
+        <v>53.066015243530202</v>
       </c>
       <c r="I28">
-        <v>4277.3463726043701</v>
+        <v>24932.889699935899</v>
       </c>
       <c r="J28">
-        <v>6606.3179969787598</v>
+        <v>26794.590711593599</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>125147.89247512809</v>
+        <v>122784.55138206472</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>125.14789247512809</v>
+        <v>122.78455138206472</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1000</v>
-      </c>
       <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>121314.139604568</v>
-      </c>
-      <c r="F29">
-        <v>230.52048683166501</v>
-      </c>
-      <c r="G29">
-        <v>2455.6808471679601</v>
-      </c>
-      <c r="H29">
-        <v>53.431987762451101</v>
-      </c>
-      <c r="I29">
-        <v>4259.7012519836398</v>
-      </c>
-      <c r="J29">
-        <v>6768.8624858856201</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>123823.25243949841</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>123.8232524394984</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -4266,38 +4200,38 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>124229.099273681</v>
+        <v>122818.965435028</v>
       </c>
       <c r="F30">
-        <v>232.526302337646</v>
+        <v>229.631423950195</v>
       </c>
       <c r="G30">
-        <v>4825.5290985107404</v>
+        <v>2275.4466533660802</v>
       </c>
       <c r="H30">
-        <v>49.842357635497997</v>
+        <v>53.480386734008697</v>
       </c>
       <c r="I30">
-        <v>4223.5853672027497</v>
+        <v>4277.3463726043701</v>
       </c>
       <c r="J30">
-        <v>9099.0090370178204</v>
+        <v>6606.3179969787598</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>129104.47072982724</v>
+        <v>125147.89247512809</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>129.10447072982726</v>
+        <v>125.14789247512809</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B31">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -4306,118 +4240,118 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>120686.592340469</v>
+        <v>121314.139604568</v>
       </c>
       <c r="F31">
-        <v>235.24951934814399</v>
+        <v>230.52048683166501</v>
       </c>
       <c r="G31">
-        <v>5119.5957660675003</v>
+        <v>2455.6808471679601</v>
       </c>
       <c r="H31">
-        <v>59.581995010375898</v>
+        <v>53.431987762451101</v>
       </c>
       <c r="I31">
-        <v>4239.4371032714798</v>
+        <v>4259.7012519836398</v>
       </c>
       <c r="J31">
-        <v>9418.6711311340296</v>
+        <v>6768.8624858856201</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>125865.77010154688</v>
+        <v>123823.25243949841</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>125.86577010154689</v>
+        <v>123.8232524394984</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>119245.91326713499</v>
+        <v>124229.099273681</v>
       </c>
       <c r="F32">
-        <v>232.731819152832</v>
+        <v>232.526302337646</v>
       </c>
       <c r="G32">
-        <v>942.68822669982899</v>
+        <v>4825.5290985107404</v>
       </c>
       <c r="H32">
-        <v>52.079439163208001</v>
+        <v>49.842357635497997</v>
       </c>
       <c r="I32">
-        <v>36893.265962600701</v>
+        <v>4223.5853672027497</v>
       </c>
       <c r="J32">
-        <v>37888.098955154397</v>
+        <v>9099.0090370178204</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>120240.68093299803</v>
+        <v>129104.47072982724</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>120.24068093299803</v>
+        <v>129.10447072982726</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B33">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>120331.763982772</v>
+        <v>120686.592340469</v>
       </c>
       <c r="F33">
-        <v>234.62271690368601</v>
+        <v>235.24951934814399</v>
       </c>
       <c r="G33">
-        <v>2413.5670661926201</v>
+        <v>5119.5957660675003</v>
       </c>
       <c r="H33">
-        <v>58.295726776122997</v>
+        <v>59.581995010375898</v>
       </c>
       <c r="I33">
-        <v>35793.375253677303</v>
+        <v>4239.4371032714798</v>
       </c>
       <c r="J33">
-        <v>38265.299320220904</v>
+        <v>9418.6711311340296</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>122803.62677574075</v>
+        <v>125865.77010154688</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>122.80362677574075</v>
+        <v>125.86577010154689</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -4426,38 +4360,38 @@
         <v>14</v>
       </c>
       <c r="E34">
-        <v>119251.480102539</v>
+        <v>119245.91326713499</v>
       </c>
       <c r="F34">
-        <v>232.46669769287101</v>
+        <v>232.731819152832</v>
       </c>
       <c r="G34">
-        <v>2397.9432582855202</v>
+        <v>942.68822669982899</v>
       </c>
       <c r="H34">
-        <v>51.844358444213803</v>
+        <v>52.079439163208001</v>
       </c>
       <c r="I34">
-        <v>37069.417715072603</v>
+        <v>36893.265962600701</v>
       </c>
       <c r="J34">
-        <v>39519.268989562901</v>
+        <v>37888.098955154397</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>121701.26771926874</v>
+        <v>120240.68093299803</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>121.70126771926874</v>
+        <v>120.24068093299803</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B35">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -4466,118 +4400,118 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>120966.10116958601</v>
+        <v>120331.763982772</v>
       </c>
       <c r="F35">
-        <v>232.035875320434</v>
+        <v>234.62271690368601</v>
       </c>
       <c r="G35">
-        <v>2553.5342693328798</v>
+        <v>2413.5670661926201</v>
       </c>
       <c r="H35">
-        <v>56.195735931396399</v>
+        <v>58.295726776122997</v>
       </c>
       <c r="I35">
-        <v>72345.969200134205</v>
+        <v>35793.375253677303</v>
       </c>
       <c r="J35">
-        <v>74955.7657241821</v>
+        <v>38265.299320220904</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>123575.83117485029</v>
+        <v>122803.62677574075</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>123.57583117485029</v>
+        <v>122.80362677574075</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>121428.450107574</v>
+        <v>119251.480102539</v>
       </c>
       <c r="F36">
-        <v>232.61070251464801</v>
+        <v>232.46669769287101</v>
       </c>
       <c r="G36">
-        <v>1325.0732421875</v>
+        <v>2397.9432582855202</v>
       </c>
       <c r="H36">
-        <v>26.305675506591701</v>
+        <v>51.844358444213803</v>
       </c>
       <c r="I36">
-        <v>2277.18162536621</v>
+        <v>37069.417715072603</v>
       </c>
       <c r="J36">
-        <v>3628.6149024963302</v>
+        <v>39519.268989562901</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>122779.82902526809</v>
+        <v>121701.26771926874</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>122.77982902526809</v>
+        <v>121.70126771926874</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B37">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>121093.51849555899</v>
+        <v>120966.10116958601</v>
       </c>
       <c r="F37">
-        <v>230.891227722167</v>
+        <v>232.035875320434</v>
       </c>
       <c r="G37">
-        <v>2634.88793373107</v>
+        <v>2553.5342693328798</v>
       </c>
       <c r="H37">
-        <v>26.101589202880799</v>
+        <v>56.195735931396399</v>
       </c>
       <c r="I37">
-        <v>2226.5601158141999</v>
+        <v>72345.969200134205</v>
       </c>
       <c r="J37">
-        <v>4887.6075744628897</v>
+        <v>74955.7657241821</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>123754.50801849294</v>
+        <v>123575.83117485029</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>123.75450801849294</v>
+        <v>123.57583117485029</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -4586,38 +4520,38 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>121186.444044113</v>
+        <v>121428.450107574</v>
       </c>
       <c r="F38">
-        <v>233.53409767150799</v>
+        <v>232.61070251464801</v>
       </c>
       <c r="G38">
-        <v>2661.1673831939602</v>
+        <v>1325.0732421875</v>
       </c>
       <c r="H38">
-        <v>26.8058776855468</v>
+        <v>26.305675506591701</v>
       </c>
       <c r="I38">
-        <v>2225.2476215362499</v>
+        <v>2277.18162536621</v>
       </c>
       <c r="J38">
-        <v>4913.2792949676495</v>
+        <v>3628.6149024963302</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>123874.4173049925</v>
+        <v>122779.82902526809</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>123.87441730499251</v>
+        <v>122.77982902526809</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B39">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -4626,118 +4560,118 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>120546.568870544</v>
+        <v>121093.51849555899</v>
       </c>
       <c r="F39">
-        <v>230.67188262939399</v>
+        <v>230.891227722167</v>
       </c>
       <c r="G39">
-        <v>823.08316230773903</v>
+        <v>2634.88793373107</v>
       </c>
       <c r="H39">
-        <v>26.293992996215799</v>
+        <v>26.101589202880799</v>
       </c>
       <c r="I39">
-        <v>2228.1916141510001</v>
+        <v>2226.5601158141999</v>
       </c>
       <c r="J39">
-        <v>3077.6317119598302</v>
+        <v>4887.6075744628897</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>121395.94602584795</v>
+        <v>123754.50801849294</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>121.39594602584795</v>
+        <v>123.75450801849294</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>121026.496410369</v>
+        <v>121186.444044113</v>
       </c>
       <c r="F40">
-        <v>235.41760444641099</v>
+        <v>233.53409767150799</v>
       </c>
       <c r="G40">
-        <v>17557.226896286</v>
+        <v>2661.1673831939602</v>
       </c>
       <c r="H40">
-        <v>50.835847854614201</v>
+        <v>26.8058776855468</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2225.2476215362499</v>
       </c>
       <c r="J40">
-        <v>17609.930992126399</v>
+        <v>4913.2792949676495</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>138634.55915450962</v>
+        <v>123874.4173049925</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>138.63455915450962</v>
+        <v>123.87441730499251</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B41">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>119349.605321884</v>
+        <v>120546.568870544</v>
       </c>
       <c r="F41">
-        <v>234.202623367309</v>
+        <v>230.67188262939399</v>
       </c>
       <c r="G41">
-        <v>4228.1780242919904</v>
+        <v>823.08316230773903</v>
       </c>
       <c r="H41">
-        <v>50.358772277832003</v>
+        <v>26.293992996215799</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2228.1916141510001</v>
       </c>
       <c r="J41">
-        <v>4280.4381847381501</v>
+        <v>3077.6317119598302</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>123628.14211845382</v>
+        <v>121395.94602584795</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>123.62814211845382</v>
+        <v>121.39594602584795</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -4746,38 +4680,38 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>121214.19191360399</v>
+        <v>121026.496410369</v>
       </c>
       <c r="F42">
-        <v>232.861518859863</v>
+        <v>235.41760444641099</v>
       </c>
       <c r="G42">
-        <v>3659.58571434021</v>
+        <v>17557.226896286</v>
       </c>
       <c r="H42">
-        <v>50.240039825439403</v>
+        <v>50.835847854614201</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3711.7452621459902</v>
+        <v>17609.930992126399</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>124924.01766776964</v>
+        <v>138634.55915450962</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>124.92401766776965</v>
+        <v>138.63455915450962</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B43">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -4786,118 +4720,118 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>121630.16366958601</v>
+        <v>119349.605321884</v>
       </c>
       <c r="F43">
-        <v>229.498624801635</v>
+        <v>234.202623367309</v>
       </c>
       <c r="G43">
-        <v>3788.5684967041002</v>
+        <v>4228.1780242919904</v>
       </c>
       <c r="H43">
-        <v>50.359010696411097</v>
+        <v>50.358772277832003</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>3840.8031463623001</v>
+        <v>4280.4381847381501</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>125469.09117698652</v>
+        <v>123628.14211845382</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>125.46909117698652</v>
+        <v>123.62814211845382</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>124303.484678268</v>
+        <v>121214.19191360399</v>
       </c>
       <c r="F44">
-        <v>666.56756401062</v>
+        <v>232.861518859863</v>
       </c>
       <c r="G44">
-        <v>1969.45643424987</v>
+        <v>3659.58571434021</v>
       </c>
       <c r="H44">
-        <v>53.388118743896399</v>
+        <v>50.240039825439403</v>
       </c>
       <c r="I44">
-        <v>9866.8951988220197</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>11889.8129463195</v>
+        <v>3711.7452621459902</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>126326.32923126176</v>
+        <v>124924.01766776964</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>126.32632923126175</v>
+        <v>124.92401766776965</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B45">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>121029.745101928</v>
+        <v>121630.16366958601</v>
       </c>
       <c r="F45">
-        <v>606.44912719726506</v>
+        <v>229.498624801635</v>
       </c>
       <c r="G45">
-        <v>487.49661445617602</v>
+        <v>3788.5684967041002</v>
       </c>
       <c r="H45">
-        <v>51.774024963378899</v>
+        <v>50.359010696411097</v>
       </c>
       <c r="I45">
-        <v>10212.592124938899</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>10751.955270767199</v>
+        <v>3840.8031463623001</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>121569.01574134755</v>
+        <v>125469.09117698652</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>121.56901574134756</v>
+        <v>125.46909117698652</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B46">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -4906,38 +4840,38 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>124004.352807998</v>
+        <v>124303.484678268</v>
       </c>
       <c r="F46">
-        <v>601.900815963745</v>
+        <v>666.56756401062</v>
       </c>
       <c r="G46">
-        <v>938.87257575988701</v>
+        <v>1969.45643424987</v>
       </c>
       <c r="H46">
-        <v>50.742864608764599</v>
+        <v>53.388118743896399</v>
       </c>
       <c r="I46">
-        <v>9940.5646324157697</v>
+        <v>9866.8951988220197</v>
       </c>
       <c r="J46">
-        <v>10930.2639961242</v>
+        <v>11889.8129463195</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>124993.96824836665</v>
+        <v>126326.32923126176</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>124.99396824836666</v>
+        <v>126.32632923126175</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B47">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -4946,118 +4880,118 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>120579.77318763699</v>
+        <v>121029.745101928</v>
       </c>
       <c r="F47">
-        <v>603.35969924926701</v>
+        <v>606.44912719726506</v>
       </c>
       <c r="G47">
-        <v>372.94769287109301</v>
+        <v>487.49661445617602</v>
       </c>
       <c r="H47">
-        <v>50.523281097412102</v>
+        <v>51.774024963378899</v>
       </c>
       <c r="I47">
-        <v>10143.434762954699</v>
+        <v>10212.592124938899</v>
       </c>
       <c r="J47">
-        <v>10566.9770240783</v>
+        <v>10751.955270767199</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>121003.2441616055</v>
+        <v>121569.01574134755</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>121.00324416160551</v>
+        <v>121.56901574134756</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>118575.96373557999</v>
+        <v>124004.352807998</v>
       </c>
       <c r="F48">
-        <v>601.59611701965298</v>
+        <v>601.900815963745</v>
       </c>
       <c r="G48">
-        <v>1884.21177864074</v>
+        <v>938.87257575988701</v>
       </c>
       <c r="H48">
-        <v>51.681756973266602</v>
+        <v>50.742864608764599</v>
       </c>
       <c r="I48">
-        <v>9959.6929550170898</v>
+        <v>9940.5646324157697</v>
       </c>
       <c r="J48">
-        <v>11895.6477642059</v>
+        <v>10930.2639961242</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>120511.85727119401</v>
+        <v>124993.96824836665</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>120.511857271194</v>
+        <v>124.99396824836666</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>122502.41446494999</v>
+        <v>120579.77318763699</v>
       </c>
       <c r="F49">
-        <v>603.554248809814</v>
+        <v>603.35969924926701</v>
       </c>
       <c r="G49">
-        <v>1273.5013961791899</v>
+        <v>372.94769287109301</v>
       </c>
       <c r="H49">
-        <v>50.844192504882798</v>
+        <v>50.523281097412102</v>
       </c>
       <c r="I49">
-        <v>9729.8123836517298</v>
+        <v>10143.434762954699</v>
       </c>
       <c r="J49">
-        <v>11054.219245910601</v>
+        <v>10566.9770240783</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>123826.76005363406</v>
+        <v>121003.2441616055</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>123.82676005363406</v>
+        <v>121.00324416160551</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5066,158 +5000,123 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>120141.45135879501</v>
+        <v>118575.96373557999</v>
       </c>
       <c r="F50">
-        <v>606.26292228698696</v>
+        <v>601.59611701965298</v>
       </c>
       <c r="G50">
-        <v>1370.1953887939401</v>
+        <v>1884.21177864074</v>
       </c>
       <c r="H50">
-        <v>51.363706588745103</v>
+        <v>51.681756973266602</v>
       </c>
       <c r="I50">
-        <v>10085.8550071716</v>
+        <v>9959.6929550170898</v>
       </c>
       <c r="J50">
-        <v>11507.4768066406</v>
+        <v>11895.6477642059</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>121563.0104541777</v>
+        <v>120511.85727119401</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>121.5630104541777</v>
+        <v>120.511857271194</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>120787.290334701</v>
+        <v>122502.41446494999</v>
       </c>
       <c r="F51">
-        <v>601.94873809814396</v>
+        <v>603.554248809814</v>
       </c>
       <c r="G51">
-        <v>3577.8365135192798</v>
+        <v>1273.5013961791899</v>
       </c>
       <c r="H51">
-        <v>50.754308700561502</v>
+        <v>50.844192504882798</v>
       </c>
       <c r="I51">
-        <v>4680.4842948913501</v>
+        <v>9729.8123836517298</v>
       </c>
       <c r="J51">
-        <v>8309.1204166412299</v>
+        <v>11054.219245910601</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>124415.88115692083</v>
+        <v>123826.76005363406</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>124.41588115692083</v>
+        <v>123.82676005363406</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>122604.27212715099</v>
+        <v>120141.45135879501</v>
       </c>
       <c r="F52">
-        <v>610.89205741882301</v>
+        <v>606.26292228698696</v>
       </c>
       <c r="G52">
-        <v>2294.86155509948</v>
+        <v>1370.1953887939401</v>
       </c>
       <c r="H52">
-        <v>63.071489334106403</v>
+        <v>51.363706588745103</v>
       </c>
       <c r="I52">
-        <v>4660.5243682861301</v>
+        <v>10085.8550071716</v>
       </c>
       <c r="J52">
-        <v>7018.5115337371799</v>
+        <v>11507.4768066406</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>124962.20517158459</v>
+        <v>121563.0104541777</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>124.96220517158459</v>
+        <v>121.5630104541777</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>10000</v>
-      </c>
       <c r="B53">
-        <v>10000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
-        <v>120349.108695983</v>
-      </c>
-      <c r="F53">
-        <v>602.82158851623501</v>
-      </c>
-      <c r="G53">
-        <v>2642.2233581542901</v>
-      </c>
-      <c r="H53">
-        <v>53.801774978637603</v>
-      </c>
-      <c r="I53">
-        <v>4651.5877246856599</v>
-      </c>
-      <c r="J53">
-        <v>7347.6648330688404</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
-        <v>123045.13382911593</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="1"/>
-        <v>123.04513382911594</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B54">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -5226,158 +5125,158 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <v>120721.39835357601</v>
+        <v>120787.290334701</v>
       </c>
       <c r="F54">
-        <v>606.67657852172795</v>
+        <v>601.94873809814396</v>
       </c>
       <c r="G54">
-        <v>6278.9134979248001</v>
+        <v>3577.8365135192798</v>
       </c>
       <c r="H54">
-        <v>49.386501312255803</v>
+        <v>50.754308700561502</v>
       </c>
       <c r="I54">
-        <v>4651.7012119293204</v>
+        <v>4680.4842948913501</v>
       </c>
       <c r="J54">
-        <v>10980.0517559051</v>
+        <v>8309.1204166412299</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>127049.69835281307</v>
+        <v>124415.88115692083</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>127.04969835281307</v>
+        <v>124.41588115692083</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>119870.792627334</v>
+        <v>122604.27212715099</v>
       </c>
       <c r="F55">
-        <v>609.24005508422795</v>
+        <v>610.89205741882301</v>
       </c>
       <c r="G55">
-        <v>909.12771224975495</v>
+        <v>2294.86155509948</v>
       </c>
       <c r="H55">
-        <v>51.161289215087798</v>
+        <v>63.071489334106403</v>
       </c>
       <c r="I55">
-        <v>21553.892374038602</v>
+        <v>4660.5243682861301</v>
       </c>
       <c r="J55">
-        <v>22514.237165450999</v>
+        <v>7018.5115337371799</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>120831.08162879884</v>
+        <v>124962.20517158459</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>120.83108162879884</v>
+        <v>124.96220517158459</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>123551.281690597</v>
+        <v>120349.108695983</v>
       </c>
       <c r="F56">
-        <v>605.17621040344204</v>
+        <v>602.82158851623501</v>
       </c>
       <c r="G56">
-        <v>2421.5960502624498</v>
+        <v>2642.2233581542901</v>
       </c>
       <c r="H56">
-        <v>52.036046981811502</v>
+        <v>53.801774978637603</v>
       </c>
       <c r="I56">
-        <v>20384.963274001999</v>
+        <v>4651.5877246856599</v>
       </c>
       <c r="J56">
-        <v>22858.663558959899</v>
+        <v>7347.6648330688404</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>126024.91378784126</v>
+        <v>123045.13382911593</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>126.02491378784126</v>
+        <v>123.04513382911594</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B57">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>119071.75374031</v>
+        <v>120721.39835357601</v>
       </c>
       <c r="F57">
-        <v>607.64312744140602</v>
+        <v>606.67657852172795</v>
       </c>
       <c r="G57">
-        <v>2398.48732948303</v>
+        <v>6278.9134979248001</v>
       </c>
       <c r="H57">
-        <v>52.567005157470703</v>
+        <v>49.386501312255803</v>
       </c>
       <c r="I57">
-        <v>22772.8776931762</v>
+        <v>4651.7012119293204</v>
       </c>
       <c r="J57">
-        <v>25223.994016647299</v>
+        <v>10980.0517559051</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>121522.8080749505</v>
+        <v>127049.69835281307</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>121.5228080749505</v>
+        <v>127.04969835281307</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B58">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5386,158 +5285,158 @@
         <v>14</v>
       </c>
       <c r="E58">
-        <v>117698.43506813</v>
+        <v>119870.792627334</v>
       </c>
       <c r="F58">
-        <v>611.23514175415005</v>
+        <v>609.24005508422795</v>
       </c>
       <c r="G58">
-        <v>685.37616729736305</v>
+        <v>909.12771224975495</v>
       </c>
       <c r="H58">
-        <v>51.726579666137603</v>
+        <v>51.161289215087798</v>
       </c>
       <c r="I58">
-        <v>57188.228607177698</v>
+        <v>21553.892374038602</v>
       </c>
       <c r="J58">
-        <v>57925.396442413301</v>
+        <v>22514.237165450999</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>118435.5378150935</v>
+        <v>120831.08162879884</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>118.4355378150935</v>
+        <v>120.83108162879884</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>121878.87907028099</v>
+        <v>123551.281690597</v>
       </c>
       <c r="F59">
-        <v>605.213403701782</v>
+        <v>605.17621040344204</v>
       </c>
       <c r="G59">
-        <v>1352.2675037383999</v>
+        <v>2421.5960502624498</v>
       </c>
       <c r="H59">
-        <v>27.203321456909102</v>
+        <v>52.036046981811502</v>
       </c>
       <c r="I59">
-        <v>2298.1481552124001</v>
+        <v>20384.963274001999</v>
       </c>
       <c r="J59">
-        <v>3677.6862144470201</v>
+        <v>22858.663558959899</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>123258.34989547631</v>
+        <v>126024.91378784126</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>123.25834989547631</v>
+        <v>126.02491378784126</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B60">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>123707.184553146</v>
+        <v>119071.75374031</v>
       </c>
       <c r="F60">
-        <v>604.51364517211903</v>
+        <v>607.64312744140602</v>
       </c>
       <c r="G60">
-        <v>993.17908287048294</v>
+        <v>2398.48732948303</v>
       </c>
       <c r="H60">
-        <v>27.0967483520507</v>
+        <v>52.567005157470703</v>
       </c>
       <c r="I60">
-        <v>2232.7246665954499</v>
+        <v>22772.8776931762</v>
       </c>
       <c r="J60">
-        <v>3253.0608177184999</v>
+        <v>25223.994016647299</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>124727.46038436853</v>
+        <v>121522.8080749505</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>124.72746038436854</v>
+        <v>121.5228080749505</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B61">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>119037.39023208601</v>
+        <v>117698.43506813</v>
       </c>
       <c r="F61">
-        <v>603.33991050720203</v>
+        <v>611.23514175415005</v>
       </c>
       <c r="G61">
-        <v>1124.42111968994</v>
+        <v>685.37616729736305</v>
       </c>
       <c r="H61">
-        <v>27.090549468994102</v>
+        <v>51.726579666137603</v>
       </c>
       <c r="I61">
-        <v>2236.0076904296802</v>
+        <v>57188.228607177698</v>
       </c>
       <c r="J61">
-        <v>3387.5849246978701</v>
+        <v>57925.396442413301</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>120188.90190124494</v>
+        <v>118435.5378150935</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>120.18890190124495</v>
+        <v>118.4355378150935</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -5546,34 +5445,154 @@
         <v>15</v>
       </c>
       <c r="E62">
+        <v>121878.87907028099</v>
+      </c>
+      <c r="F62">
+        <v>605.213403701782</v>
+      </c>
+      <c r="G62">
+        <v>1352.2675037383999</v>
+      </c>
+      <c r="H62">
+        <v>27.203321456909102</v>
+      </c>
+      <c r="I62">
+        <v>2298.1481552124001</v>
+      </c>
+      <c r="J62">
+        <v>3677.6862144470201</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>123258.34989547631</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>123.25834989547631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>123707.184553146</v>
+      </c>
+      <c r="F63">
+        <v>604.51364517211903</v>
+      </c>
+      <c r="G63">
+        <v>993.17908287048294</v>
+      </c>
+      <c r="H63">
+        <v>27.0967483520507</v>
+      </c>
+      <c r="I63">
+        <v>2232.7246665954499</v>
+      </c>
+      <c r="J63">
+        <v>3253.0608177184999</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>124727.46038436853</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>124.72746038436854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10000</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>119037.39023208601</v>
+      </c>
+      <c r="F64">
+        <v>603.33991050720203</v>
+      </c>
+      <c r="G64">
+        <v>1124.42111968994</v>
+      </c>
+      <c r="H64">
+        <v>27.090549468994102</v>
+      </c>
+      <c r="I64">
+        <v>2236.0076904296802</v>
+      </c>
+      <c r="J64">
+        <v>3387.5849246978701</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>120188.90190124494</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>120.18890190124495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>100000</v>
+      </c>
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
         <v>118895.656585693</v>
       </c>
-      <c r="F62">
+      <c r="F65">
         <v>600.216627120971</v>
       </c>
-      <c r="G62">
+      <c r="G65">
         <v>2114.5598888397199</v>
       </c>
-      <c r="H62">
+      <c r="H65">
         <v>26.9830226898193</v>
       </c>
-      <c r="I62">
+      <c r="I65">
         <v>2235.2867126464798</v>
       </c>
-      <c r="J62">
+      <c r="J65">
         <v>4376.8932819366401</v>
       </c>
-      <c r="K62">
+      <c r="K65">
         <f t="shared" si="0"/>
         <v>121037.19949722254</v>
       </c>
-      <c r="L62">
+      <c r="L65">
         <f t="shared" si="1"/>
         <v>121.03719949722255</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L62">
+  <conditionalFormatting sqref="L2:L65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5585,7 +5604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G62">
+  <conditionalFormatting sqref="G2:G65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5603,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5724,11 +5743,11 @@
         <v>13597.262382507301</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K62" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
         <v>137459.11931991533</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L62" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
         <v>137.45911931991535</v>
       </c>
     </row>
@@ -5934,50 +5953,15 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>121943.863868713</v>
-      </c>
-      <c r="F9">
-        <v>443.55797767639098</v>
-      </c>
-      <c r="G9">
-        <v>8081.2156200408899</v>
-      </c>
-      <c r="H9">
-        <v>50.567388534545898</v>
-      </c>
-      <c r="I9">
-        <v>18273.038148880001</v>
-      </c>
-      <c r="J9">
-        <v>26404.879093170101</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>130075.64687728844</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>130.07564687728845</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -5986,38 +5970,38 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>123333.033323287</v>
+        <v>121943.863868713</v>
       </c>
       <c r="F10">
-        <v>445.24812698364201</v>
+        <v>443.55797767639098</v>
       </c>
       <c r="G10">
-        <v>7843.34349632263</v>
+        <v>8081.2156200408899</v>
       </c>
       <c r="H10">
-        <v>50.067901611328097</v>
+        <v>50.567388534545898</v>
       </c>
       <c r="I10">
-        <v>14602.9708385467</v>
+        <v>18273.038148880001</v>
       </c>
       <c r="J10">
-        <v>22496.439933776801</v>
+        <v>26404.879093170101</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>131226.44472122096</v>
+        <v>130075.64687728844</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>131.22644472122096</v>
+        <v>130.07564687728845</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -6026,38 +6010,38 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>126285.22062301599</v>
+        <v>123333.033323287</v>
       </c>
       <c r="F11">
-        <v>451.949834823608</v>
+        <v>445.24812698364201</v>
       </c>
       <c r="G11">
-        <v>10936.2082481384</v>
+        <v>7843.34349632263</v>
       </c>
       <c r="H11">
-        <v>51.719188690185497</v>
+        <v>50.067901611328097</v>
       </c>
       <c r="I11">
-        <v>15123.566865921</v>
+        <v>14602.9708385467</v>
       </c>
       <c r="J11">
-        <v>26111.5481853485</v>
+        <v>22496.439933776801</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>137273.14805984459</v>
+        <v>131226.44472122096</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>137.2731480598446</v>
+        <v>131.22644472122096</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -6066,78 +6050,78 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>147913.84673118501</v>
+        <v>126285.22062301599</v>
       </c>
       <c r="F12">
-        <v>452.97002792358398</v>
+        <v>451.949834823608</v>
       </c>
       <c r="G12">
-        <v>13391.2208080291</v>
+        <v>10936.2082481384</v>
       </c>
       <c r="H12">
-        <v>49.6270656585693</v>
+        <v>51.719188690185497</v>
       </c>
       <c r="I12">
-        <v>17575.892686843799</v>
+        <v>15123.566865921</v>
       </c>
       <c r="J12">
-        <v>31016.803264617902</v>
+        <v>26111.5481853485</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>161354.69460487267</v>
+        <v>137273.14805984459</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>161.35469460487266</v>
+        <v>137.2731480598446</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>151646.79265022199</v>
+        <v>147913.84673118501</v>
       </c>
       <c r="F13">
-        <v>444.294214248657</v>
+        <v>452.97002792358398</v>
       </c>
       <c r="G13">
-        <v>3131.3822269439602</v>
+        <v>13391.2208080291</v>
       </c>
       <c r="H13">
-        <v>55.531978607177699</v>
+        <v>49.6270656585693</v>
       </c>
       <c r="I13">
-        <v>19016.057729721</v>
+        <v>17575.892686843799</v>
       </c>
       <c r="J13">
-        <v>22203.044176101601</v>
+        <v>31016.803264617902</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>154833.70685577314</v>
+        <v>161354.69460487267</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>154.83370685577313</v>
+        <v>161.35469460487266</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -6146,38 +6130,38 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>156989.38894271801</v>
+        <v>151646.79265022199</v>
       </c>
       <c r="F14">
-        <v>451.64775848388598</v>
+        <v>444.294214248657</v>
       </c>
       <c r="G14">
-        <v>2684.2834949493399</v>
+        <v>3131.3822269439602</v>
       </c>
       <c r="H14">
-        <v>56.555271148681598</v>
+        <v>55.531978607177699</v>
       </c>
       <c r="I14">
-        <v>22940.2949810028</v>
+        <v>19016.057729721</v>
       </c>
       <c r="J14">
-        <v>25681.206226348801</v>
+        <v>22203.044176101601</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>159730.22770881603</v>
+        <v>154833.70685577314</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>159.73022770881605</v>
+        <v>154.83370685577313</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -6186,38 +6170,38 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>172748.16274642901</v>
+        <v>156989.38894271801</v>
       </c>
       <c r="F15">
-        <v>452.92830467224098</v>
+        <v>451.64775848388598</v>
       </c>
       <c r="G15">
-        <v>729.94112968444801</v>
+        <v>2684.2834949493399</v>
       </c>
       <c r="H15">
-        <v>51.996946334838803</v>
+        <v>56.555271148681598</v>
       </c>
       <c r="I15">
-        <v>32841.596126556396</v>
+        <v>22940.2949810028</v>
       </c>
       <c r="J15">
-        <v>33623.614788055398</v>
+        <v>25681.206226348801</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>173530.10082244829</v>
+        <v>159730.22770881603</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>173.5301008224483</v>
+        <v>159.73022770881605</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -6226,78 +6210,78 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>183346.89617156901</v>
+        <v>172748.16274642901</v>
       </c>
       <c r="F16">
-        <v>453.42230796813902</v>
+        <v>452.92830467224098</v>
       </c>
       <c r="G16">
-        <v>992.89464950561501</v>
+        <v>729.94112968444801</v>
       </c>
       <c r="H16">
-        <v>52.047014236450103</v>
+        <v>51.996946334838803</v>
       </c>
       <c r="I16">
-        <v>126212.192296981</v>
+        <v>32841.596126556396</v>
       </c>
       <c r="J16">
-        <v>127257.21311569199</v>
+        <v>33623.614788055398</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>184391.83783531107</v>
+        <v>173530.10082244829</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>184.39183783531107</v>
+        <v>173.5301008224483</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>122471.34089469899</v>
+        <v>183346.89617156901</v>
       </c>
       <c r="F17">
-        <v>452.409267425537</v>
+        <v>453.42230796813902</v>
       </c>
       <c r="G17">
-        <v>1717.75794029235</v>
+        <v>992.89464950561501</v>
       </c>
       <c r="H17">
-        <v>27.379035949706999</v>
+        <v>52.047014236450103</v>
       </c>
       <c r="I17">
-        <v>6541.1496162414496</v>
+        <v>126212.192296981</v>
       </c>
       <c r="J17">
-        <v>8286.3419055938703</v>
+        <v>127257.21311569199</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>124216.47787094105</v>
+        <v>184391.83783531107</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>124.21647787094105</v>
+        <v>184.39183783531107</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6306,38 +6290,38 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>128892.86947250299</v>
+        <v>122471.34089469899</v>
       </c>
       <c r="F18">
-        <v>449.03302192687897</v>
+        <v>452.409267425537</v>
       </c>
       <c r="G18">
-        <v>1076.2705802917401</v>
+        <v>1717.75794029235</v>
       </c>
       <c r="H18">
-        <v>27.1568298339843</v>
+        <v>27.379035949706999</v>
       </c>
       <c r="I18">
-        <v>2514.4991874694801</v>
+        <v>6541.1496162414496</v>
       </c>
       <c r="J18">
-        <v>3617.9871559142998</v>
+        <v>8286.3419055938703</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>129996.29688262871</v>
+        <v>124216.47787094105</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>129.99629688262871</v>
+        <v>124.21647787094105</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -6346,38 +6330,38 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>140052.614927291</v>
+        <v>128892.86947250299</v>
       </c>
       <c r="F19">
-        <v>446.58255577087402</v>
+        <v>449.03302192687897</v>
       </c>
       <c r="G19">
-        <v>1266.1497592926</v>
+        <v>1076.2705802917401</v>
       </c>
       <c r="H19">
-        <v>27.439355850219702</v>
+        <v>27.1568298339843</v>
       </c>
       <c r="I19">
-        <v>2427.0393848419099</v>
+        <v>2514.4991874694801</v>
       </c>
       <c r="J19">
-        <v>3720.6966876983602</v>
+        <v>3617.9871559142998</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>141346.20404243382</v>
+        <v>129996.29688262871</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>141.34620404243381</v>
+        <v>129.99629688262871</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B20">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6386,78 +6370,78 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>140824.568271636</v>
+        <v>140052.614927291</v>
       </c>
       <c r="F20">
-        <v>454.23483848571698</v>
+        <v>446.58255577087402</v>
       </c>
       <c r="G20">
-        <v>2253.7491321563698</v>
+        <v>1266.1497592926</v>
       </c>
       <c r="H20">
-        <v>27.102231979370099</v>
+        <v>27.439355850219702</v>
       </c>
       <c r="I20">
-        <v>2554.6703338623001</v>
+        <v>2427.0393848419099</v>
       </c>
       <c r="J20">
-        <v>4835.5901241302399</v>
+        <v>3720.6966876983602</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>143105.41963577174</v>
+        <v>141346.20404243382</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>143.10541963577174</v>
+        <v>141.34620404243381</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>142948.12607765099</v>
+        <v>140824.568271636</v>
       </c>
       <c r="F21">
-        <v>291.86391830444302</v>
+        <v>454.23483848571698</v>
       </c>
       <c r="G21">
-        <v>1476.1216640472401</v>
+        <v>2253.7491321563698</v>
       </c>
       <c r="H21">
-        <v>56.6024780273437</v>
+        <v>27.102231979370099</v>
       </c>
       <c r="I21">
-        <v>65100.034713745103</v>
+        <v>2554.6703338623001</v>
       </c>
       <c r="J21">
-        <v>66632.846593856797</v>
+        <v>4835.5901241302399</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>144480.85021972557</v>
+        <v>143105.41963577174</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>144.48085021972557</v>
+        <v>143.10541963577174</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -6466,38 +6450,38 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>137722.28455543501</v>
+        <v>142948.12607765099</v>
       </c>
       <c r="F22">
-        <v>285.47930717468199</v>
+        <v>291.86391830444302</v>
       </c>
       <c r="G22">
-        <v>1348.0918407440099</v>
+        <v>1476.1216640472401</v>
       </c>
       <c r="H22">
-        <v>50.572156906127901</v>
+        <v>56.6024780273437</v>
       </c>
       <c r="I22">
-        <v>65572.691440582203</v>
+        <v>65100.034713745103</v>
       </c>
       <c r="J22">
-        <v>66971.454381942705</v>
+        <v>66632.846593856797</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>139120.94855308515</v>
+        <v>144480.85021972557</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>139.12094855308516</v>
+        <v>144.48085021972557</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -6506,38 +6490,38 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>146333.420276641</v>
+        <v>137722.28455543501</v>
       </c>
       <c r="F23">
-        <v>285.72463989257801</v>
+        <v>285.47930717468199</v>
       </c>
       <c r="G23">
-        <v>1336.1983299255301</v>
+        <v>1348.0918407440099</v>
       </c>
       <c r="H23">
-        <v>51.063299179077099</v>
+        <v>50.572156906127901</v>
       </c>
       <c r="I23">
-        <v>65305.168867111199</v>
+        <v>65572.691440582203</v>
       </c>
       <c r="J23">
-        <v>66692.516803741397</v>
+        <v>66971.454381942705</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>147720.68190574562</v>
+        <v>139120.94855308515</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>147.72068190574561</v>
+        <v>139.12094855308516</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B24">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -6546,78 +6530,78 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>140140.72084426801</v>
+        <v>146333.420276641</v>
       </c>
       <c r="F24">
-        <v>287.00900077819801</v>
+        <v>285.72463989257801</v>
       </c>
       <c r="G24">
-        <v>802.34622955322197</v>
+        <v>1336.1983299255301</v>
       </c>
       <c r="H24">
-        <v>50.534963607788001</v>
+        <v>51.063299179077099</v>
       </c>
       <c r="I24">
-        <v>65566.402196884097</v>
+        <v>65305.168867111199</v>
       </c>
       <c r="J24">
-        <v>66419.381380081104</v>
+        <v>66692.516803741397</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>140993.60203742902</v>
+        <v>147720.68190574562</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>140.99360203742901</v>
+        <v>147.72068190574561</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>140983.91485214201</v>
+        <v>140140.72084426801</v>
       </c>
       <c r="F25">
-        <v>282.81283378601</v>
+        <v>287.00900077819801</v>
       </c>
       <c r="G25">
-        <v>2441.5135383605898</v>
+        <v>802.34622955322197</v>
       </c>
       <c r="H25">
-        <v>50.940752029418903</v>
+        <v>50.534963607788001</v>
       </c>
       <c r="I25">
-        <v>64390.098333358699</v>
+        <v>65566.402196884097</v>
       </c>
       <c r="J25">
-        <v>66882.619380950899</v>
+        <v>66419.381380081104</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>143476.36914253203</v>
+        <v>140993.60203742902</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>143.47636914253204</v>
+        <v>140.99360203742901</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -6626,38 +6610,38 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>135568.87054443301</v>
+        <v>140983.91485214201</v>
       </c>
       <c r="F26">
-        <v>285.45880317687897</v>
+        <v>282.81283378601</v>
       </c>
       <c r="G26">
-        <v>1974.9617576599101</v>
+        <v>2441.5135383605898</v>
       </c>
       <c r="H26">
-        <v>54.771661758422802</v>
+        <v>50.940752029418903</v>
       </c>
       <c r="I26">
-        <v>64217.418432235703</v>
+        <v>64390.098333358699</v>
       </c>
       <c r="J26">
-        <v>66247.227430343599</v>
+        <v>66882.619380950899</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>137598.60396385135</v>
+        <v>143476.36914253203</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>137.59860396385136</v>
+        <v>143.47636914253204</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -6666,118 +6650,83 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>139028.76210212699</v>
+        <v>135568.87054443301</v>
       </c>
       <c r="F27">
-        <v>285.66408157348599</v>
+        <v>285.45880317687897</v>
       </c>
       <c r="G27">
-        <v>1613.3348941802899</v>
+        <v>1974.9617576599101</v>
       </c>
       <c r="H27">
-        <v>51.259517669677699</v>
+        <v>54.771661758422802</v>
       </c>
       <c r="I27">
-        <v>65156.629800796502</v>
+        <v>64217.418432235703</v>
       </c>
       <c r="J27">
-        <v>66821.2988376617</v>
+        <v>66247.227430343599</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>140693.35651397696</v>
+        <v>137598.60396385135</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>140.69335651397697</v>
+        <v>137.59860396385136</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>140257.941484451</v>
+        <v>139028.76210212699</v>
       </c>
       <c r="F28">
-        <v>283.05482864379798</v>
+        <v>285.66408157348599</v>
       </c>
       <c r="G28">
-        <v>5936.8166923522904</v>
+        <v>1613.3348941802899</v>
       </c>
       <c r="H28">
-        <v>49.692869186401303</v>
+        <v>51.259517669677699</v>
       </c>
       <c r="I28">
-        <v>11909.3210697174</v>
+        <v>65156.629800796502</v>
       </c>
       <c r="J28">
-        <v>17895.8857059478</v>
+        <v>66821.2988376617</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>146244.4510459897</v>
+        <v>140693.35651397696</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>146.24445104598971</v>
+        <v>140.69335651397697</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1000</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>141923.85530471799</v>
-      </c>
-      <c r="F29">
-        <v>290.73810577392499</v>
-      </c>
-      <c r="G29">
-        <v>7392.9402828216498</v>
-      </c>
-      <c r="H29">
-        <v>50.387620925903299</v>
-      </c>
-      <c r="I29">
-        <v>11743.448019027701</v>
-      </c>
-      <c r="J29">
-        <v>19186.8307590484</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>149367.18320846555</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>149.36718320846555</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -6786,38 +6735,38 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>139252.907514572</v>
+        <v>140257.941484451</v>
       </c>
       <c r="F30">
-        <v>289.59965705871502</v>
+        <v>283.05482864379798</v>
       </c>
       <c r="G30">
-        <v>10977.940320968601</v>
+        <v>5936.8166923522904</v>
       </c>
       <c r="H30">
-        <v>50.667047500610302</v>
+        <v>49.692869186401303</v>
       </c>
       <c r="I30">
-        <v>11731.762170791601</v>
+        <v>11909.3210697174</v>
       </c>
       <c r="J30">
-        <v>22760.424852371201</v>
+        <v>17895.8857059478</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>150281.51488304121</v>
+        <v>146244.4510459897</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>150.28151488304121</v>
+        <v>146.24445104598971</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B31">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -6826,118 +6775,118 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>140565.88673591599</v>
+        <v>141923.85530471799</v>
       </c>
       <c r="F31">
-        <v>289.847373962402</v>
+        <v>290.73810577392499</v>
       </c>
       <c r="G31">
-        <v>13686.7365837097</v>
+        <v>7392.9402828216498</v>
       </c>
       <c r="H31">
-        <v>50.898551940917898</v>
+        <v>50.387620925903299</v>
       </c>
       <c r="I31">
-        <v>11807.4667453765</v>
+        <v>11743.448019027701</v>
       </c>
       <c r="J31">
-        <v>25545.1552867889</v>
+        <v>19186.8307590484</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>154303.5218715666</v>
+        <v>149367.18320846555</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>154.3035218715666</v>
+        <v>149.36718320846555</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>143401.219844818</v>
+        <v>139252.907514572</v>
       </c>
       <c r="F32">
-        <v>290.891885757446</v>
+        <v>289.59965705871502</v>
       </c>
       <c r="G32">
-        <v>3041.7847633361798</v>
+        <v>10977.940320968601</v>
       </c>
       <c r="H32">
-        <v>52.2711277008056</v>
+        <v>50.667047500610302</v>
       </c>
       <c r="I32">
-        <v>70107.911825179996</v>
+        <v>11731.762170791601</v>
       </c>
       <c r="J32">
-        <v>73202.045440673799</v>
+        <v>22760.424852371201</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>146495.27573585499</v>
+        <v>150281.51488304121</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>146.49527573585499</v>
+        <v>150.28151488304121</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B33">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>146499.89867210301</v>
+        <v>140565.88673591599</v>
       </c>
       <c r="F33">
-        <v>292.92726516723599</v>
+        <v>289.847373962402</v>
       </c>
       <c r="G33">
-        <v>2591.86792373657</v>
+        <v>13686.7365837097</v>
       </c>
       <c r="H33">
-        <v>52.042007446288999</v>
+        <v>50.898551940917898</v>
       </c>
       <c r="I33">
-        <v>76163.3594036102</v>
+        <v>11807.4667453765</v>
       </c>
       <c r="J33">
-        <v>78807.341814041094</v>
+        <v>25545.1552867889</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>149143.80860328587</v>
+        <v>154303.5218715666</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>149.14380860328586</v>
+        <v>154.3035218715666</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -6946,38 +6895,38 @@
         <v>14</v>
       </c>
       <c r="E34">
-        <v>140705.90186119001</v>
+        <v>143401.219844818</v>
       </c>
       <c r="F34">
-        <v>291.20540618896399</v>
+        <v>290.891885757446</v>
       </c>
       <c r="G34">
-        <v>682.78098106384198</v>
+        <v>3041.7847633361798</v>
       </c>
       <c r="H34">
-        <v>52.235603332519503</v>
+        <v>52.2711277008056</v>
       </c>
       <c r="I34">
-        <v>86935.924291610703</v>
+        <v>70107.911825179996</v>
       </c>
       <c r="J34">
-        <v>87671.015977859497</v>
+        <v>73202.045440673799</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>141440.91844558637</v>
+        <v>146495.27573585499</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>141.44091844558636</v>
+        <v>146.49527573585499</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B35">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -6986,118 +6935,118 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>142251.18803977899</v>
+        <v>146499.89867210301</v>
       </c>
       <c r="F35">
-        <v>291.93806648254298</v>
+        <v>292.92726516723599</v>
       </c>
       <c r="G35">
-        <v>942.92664527892998</v>
+        <v>2591.86792373657</v>
       </c>
       <c r="H35">
-        <v>54.599046707153299</v>
+        <v>52.042007446288999</v>
       </c>
       <c r="I35">
-        <v>179001.536369323</v>
+        <v>76163.3594036102</v>
       </c>
       <c r="J35">
-        <v>179999.13787841701</v>
+        <v>78807.341814041094</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>143248.71373176508</v>
+        <v>149143.80860328587</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>143.24871373176509</v>
+        <v>149.14380860328586</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>141753.214120864</v>
+        <v>140705.90186119001</v>
       </c>
       <c r="F36">
-        <v>292.00696945190401</v>
+        <v>291.20540618896399</v>
       </c>
       <c r="G36">
-        <v>3087.5196456909098</v>
+        <v>682.78098106384198</v>
       </c>
       <c r="H36">
-        <v>26.192665100097599</v>
+        <v>52.235603332519503</v>
       </c>
       <c r="I36">
-        <v>2442.15822219848</v>
+        <v>86935.924291610703</v>
       </c>
       <c r="J36">
-        <v>5555.9341907501203</v>
+        <v>87671.015977859497</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>144866.92643165501</v>
+        <v>141440.91844558637</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>144.866926431655</v>
+        <v>141.44091844558636</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B37">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>141240.652799606</v>
+        <v>142251.18803977899</v>
       </c>
       <c r="F37">
-        <v>291.35203361511202</v>
+        <v>291.93806648254298</v>
       </c>
       <c r="G37">
-        <v>818.24994087219204</v>
+        <v>942.92664527892998</v>
       </c>
       <c r="H37">
-        <v>26.278495788574201</v>
+        <v>54.599046707153299</v>
       </c>
       <c r="I37">
-        <v>2313.1239414215001</v>
+        <v>179001.536369323</v>
       </c>
       <c r="J37">
-        <v>3157.7186584472602</v>
+        <v>179999.13787841701</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>142085.18123626677</v>
+        <v>143248.71373176508</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>142.08518123626678</v>
+        <v>143.24871373176509</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -7106,38 +7055,38 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>138940.82283973601</v>
+        <v>141753.214120864</v>
       </c>
       <c r="F38">
-        <v>294.97027397155699</v>
+        <v>292.00696945190401</v>
       </c>
       <c r="G38">
-        <v>996.80304527282703</v>
+        <v>3087.5196456909098</v>
       </c>
       <c r="H38">
-        <v>26.233434677123999</v>
+        <v>26.192665100097599</v>
       </c>
       <c r="I38">
-        <v>2388.6349201202302</v>
+        <v>2442.15822219848</v>
       </c>
       <c r="J38">
-        <v>3411.7450714111301</v>
+        <v>5555.9341907501203</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>139963.85931968596</v>
+        <v>144866.92643165501</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>139.96385931968595</v>
+        <v>144.866926431655</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B39">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -7146,118 +7095,118 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>149616.64915084801</v>
+        <v>141240.652799606</v>
       </c>
       <c r="F39">
-        <v>289.06583786010702</v>
+        <v>291.35203361511202</v>
       </c>
       <c r="G39">
-        <v>889.35589790344204</v>
+        <v>818.24994087219204</v>
       </c>
       <c r="H39">
-        <v>26.167392730712798</v>
+        <v>26.278495788574201</v>
       </c>
       <c r="I39">
-        <v>2308.3109855651801</v>
+        <v>2313.1239414215001</v>
       </c>
       <c r="J39">
-        <v>3223.9098548889101</v>
+        <v>3157.7186584472602</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>150532.17244148217</v>
+        <v>142085.18123626677</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>150.53217244148217</v>
+        <v>142.08518123626678</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>149797.52588271999</v>
+        <v>138940.82283973601</v>
       </c>
       <c r="F40">
-        <v>288.81716728210398</v>
+        <v>294.97027397155699</v>
       </c>
       <c r="G40">
-        <v>43072.021484375</v>
+        <v>996.80304527282703</v>
       </c>
       <c r="H40">
-        <v>49.903154373168903</v>
+        <v>26.233434677123999</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2388.6349201202302</v>
       </c>
       <c r="J40">
-        <v>43123.8758563995</v>
+        <v>3411.7450714111301</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>192919.45052146816</v>
+        <v>139963.85931968596</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>192.91945052146815</v>
+        <v>139.96385931968595</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B41">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>144839.84375</v>
+        <v>149616.64915084801</v>
       </c>
       <c r="F41">
-        <v>292.44160652160599</v>
+        <v>289.06583786010702</v>
       </c>
       <c r="G41">
-        <v>7118.38889122009</v>
+        <v>889.35589790344204</v>
       </c>
       <c r="H41">
-        <v>51.043272018432603</v>
+        <v>26.167392730712798</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2308.3109855651801</v>
       </c>
       <c r="J41">
-        <v>7171.3910102844202</v>
+        <v>3223.9098548889101</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>152009.27591323853</v>
+        <v>150532.17244148217</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>152.00927591323853</v>
+        <v>150.53217244148217</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -7266,38 +7215,38 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>138528.02824973999</v>
+        <v>149797.52588271999</v>
       </c>
       <c r="F42">
-        <v>288.62738609313902</v>
+        <v>288.81716728210398</v>
       </c>
       <c r="G42">
-        <v>3883.1157684326099</v>
+        <v>43072.021484375</v>
       </c>
       <c r="H42">
-        <v>50.108909606933501</v>
+        <v>49.903154373168903</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3935.1823329925501</v>
+        <v>43123.8758563995</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>142461.25292777954</v>
+        <v>192919.45052146816</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>142.46125292777955</v>
+        <v>192.91945052146815</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B43">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -7306,118 +7255,118 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>141996.86789512599</v>
+        <v>144839.84375</v>
       </c>
       <c r="F43">
-        <v>287.270069122314</v>
+        <v>292.44160652160599</v>
       </c>
       <c r="G43">
-        <v>4815.5364990234302</v>
+        <v>7118.38889122009</v>
       </c>
       <c r="H43">
-        <v>49.828529357910099</v>
+        <v>51.043272018432603</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4867.2966957092203</v>
+        <v>7171.3910102844202</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>146862.23292350734</v>
+        <v>152009.27591323853</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>146.86223292350735</v>
+        <v>152.00927591323853</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>139645.31660079901</v>
+        <v>138528.02824973999</v>
       </c>
       <c r="F44">
-        <v>889.47677612304597</v>
+        <v>288.62738609313902</v>
       </c>
       <c r="G44">
-        <v>2010.1490020751901</v>
+        <v>3883.1157684326099</v>
       </c>
       <c r="H44">
-        <v>53.668737411499002</v>
+        <v>50.108909606933501</v>
       </c>
       <c r="I44">
-        <v>25287.901163101102</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>27351.830720901398</v>
+        <v>3935.1823329925501</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>141709.1343402857</v>
+        <v>142461.25292777954</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>141.70913434028571</v>
+        <v>142.46125292777955</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B45">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>142623.10576438901</v>
+        <v>141996.86789512599</v>
       </c>
       <c r="F45">
-        <v>710.72435379028298</v>
+        <v>287.270069122314</v>
       </c>
       <c r="G45">
-        <v>1350.6045341491699</v>
+        <v>4815.5364990234302</v>
       </c>
       <c r="H45">
-        <v>51.190137863159102</v>
+        <v>49.828529357910099</v>
       </c>
       <c r="I45">
-        <v>24577.289581298799</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>25979.1939258575</v>
+        <v>4867.2966957092203</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>144024.90043640134</v>
+        <v>146862.23292350734</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>144.02490043640134</v>
+        <v>146.86223292350735</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B46">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -7426,38 +7375,38 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>141029.104471206</v>
+        <v>139645.31660079901</v>
       </c>
       <c r="F46">
-        <v>712.35537528991699</v>
+        <v>889.47677612304597</v>
       </c>
       <c r="G46">
-        <v>1321.9172954559299</v>
+        <v>2010.1490020751901</v>
       </c>
       <c r="H46">
-        <v>51.222085952758697</v>
+        <v>53.668737411499002</v>
       </c>
       <c r="I46">
-        <v>24853.236436843799</v>
+        <v>25287.901163101102</v>
       </c>
       <c r="J46">
-        <v>26226.488113403298</v>
+        <v>27351.830720901398</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>142402.24385261469</v>
+        <v>141709.1343402857</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>142.4022438526147</v>
+        <v>141.70913434028571</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B47">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -7466,118 +7415,118 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>139307.51848220799</v>
+        <v>142623.10576438901</v>
       </c>
       <c r="F47">
-        <v>704.51879501342705</v>
+        <v>710.72435379028298</v>
       </c>
       <c r="G47">
-        <v>799.56340789794899</v>
+        <v>1350.6045341491699</v>
       </c>
       <c r="H47">
-        <v>55.544614791870103</v>
+        <v>51.190137863159102</v>
       </c>
       <c r="I47">
-        <v>25464.3659591674</v>
+        <v>24577.289581298799</v>
       </c>
       <c r="J47">
-        <v>26319.5960521698</v>
+        <v>25979.1939258575</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>140162.62650489781</v>
+        <v>144024.90043640134</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>140.16262650489782</v>
+        <v>144.02490043640134</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>148800.59742927499</v>
+        <v>141029.104471206</v>
       </c>
       <c r="F48">
-        <v>707.57222175598099</v>
+        <v>712.35537528991699</v>
       </c>
       <c r="G48">
-        <v>2431.0855865478502</v>
+        <v>1321.9172954559299</v>
       </c>
       <c r="H48">
-        <v>51.875114440917898</v>
+        <v>51.222085952758697</v>
       </c>
       <c r="I48">
-        <v>24576.564788818301</v>
+        <v>24853.236436843799</v>
       </c>
       <c r="J48">
-        <v>27059.597253799398</v>
+        <v>26226.488113403298</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>151283.55813026376</v>
+        <v>142402.24385261469</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>151.28355813026377</v>
+        <v>142.4022438526147</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>138889.214038848</v>
+        <v>139307.51848220799</v>
       </c>
       <c r="F49">
-        <v>697.16787338256802</v>
+        <v>704.51879501342705</v>
       </c>
       <c r="G49">
-        <v>1519.09327507019</v>
+        <v>799.56340789794899</v>
       </c>
       <c r="H49">
-        <v>51.322460174560497</v>
+        <v>55.544614791870103</v>
       </c>
       <c r="I49">
-        <v>24433.941364288301</v>
+        <v>25464.3659591674</v>
       </c>
       <c r="J49">
-        <v>26004.421710967999</v>
+        <v>26319.5960521698</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>140459.62977409275</v>
+        <v>140162.62650489781</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>140.45962977409275</v>
+        <v>140.16262650489782</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -7586,158 +7535,123 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>139081.451654434</v>
+        <v>148800.59742927499</v>
       </c>
       <c r="F50">
-        <v>708.46629142761196</v>
+        <v>707.57222175598099</v>
       </c>
       <c r="G50">
-        <v>1996.5443611144999</v>
+        <v>2431.0855865478502</v>
       </c>
       <c r="H50">
-        <v>55.142641067504798</v>
+        <v>51.875114440917898</v>
       </c>
       <c r="I50">
-        <v>24783.384561538602</v>
+        <v>24576.564788818301</v>
       </c>
       <c r="J50">
-        <v>26835.146903991699</v>
+        <v>27059.597253799398</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>141133.13865661601</v>
+        <v>151283.55813026376</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>141.13313865661601</v>
+        <v>151.28355813026377</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>144377.96759605399</v>
+        <v>138889.214038848</v>
       </c>
       <c r="F51">
-        <v>725.74567794799805</v>
+        <v>697.16787338256802</v>
       </c>
       <c r="G51">
-        <v>5761.7626190185501</v>
+        <v>1519.09327507019</v>
       </c>
       <c r="H51">
-        <v>49.779176712036097</v>
+        <v>51.322460174560497</v>
       </c>
       <c r="I51">
-        <v>13324.5458602905</v>
+        <v>24433.941364288301</v>
       </c>
       <c r="J51">
-        <v>19136.137247085499</v>
+        <v>26004.421710967999</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>150189.50939178458</v>
+        <v>140459.62977409275</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>150.18950939178458</v>
+        <v>140.45962977409275</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>144699.07331466599</v>
+        <v>139081.451654434</v>
       </c>
       <c r="F52">
-        <v>711.36045455932594</v>
+        <v>708.46629142761196</v>
       </c>
       <c r="G52">
-        <v>6931.4107894897397</v>
+        <v>1996.5443611144999</v>
       </c>
       <c r="H52">
-        <v>49.987077713012603</v>
+        <v>55.142641067504798</v>
       </c>
       <c r="I52">
-        <v>13107.4223518371</v>
+        <v>24783.384561538602</v>
       </c>
       <c r="J52">
-        <v>20088.8788700103</v>
+        <v>26835.146903991699</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>151680.47118186875</v>
+        <v>141133.13865661601</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>151.68047118186874</v>
+        <v>141.13313865661601</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>10000</v>
-      </c>
-      <c r="B53">
-        <v>10000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53">
-        <v>145080.162763595</v>
-      </c>
-      <c r="F53">
-        <v>718.54901313781704</v>
-      </c>
-      <c r="G53">
-        <v>9551.7492294311505</v>
-      </c>
-      <c r="H53">
-        <v>50.057172775268498</v>
-      </c>
-      <c r="I53">
-        <v>13738.1267547607</v>
-      </c>
-      <c r="J53">
-        <v>23339.993238448998</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
-        <v>154681.96916580142</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="1"/>
-        <v>154.68196916580143</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B54">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -7746,158 +7660,158 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <v>145423.964977264</v>
+        <v>144377.96759605399</v>
       </c>
       <c r="F54">
-        <v>703.67670059204102</v>
+        <v>725.74567794799805</v>
       </c>
       <c r="G54">
-        <v>10520.977973937899</v>
+        <v>5761.7626190185501</v>
       </c>
       <c r="H54">
-        <v>48.896312713622997</v>
+        <v>49.779176712036097</v>
       </c>
       <c r="I54">
-        <v>12927.4859428405</v>
+        <v>13324.5458602905</v>
       </c>
       <c r="J54">
-        <v>23497.416019439599</v>
+        <v>19136.137247085499</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>155993.83926391552</v>
+        <v>150189.50939178458</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>155.99383926391553</v>
+        <v>150.18950939178458</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>144094.25425529401</v>
+        <v>144699.07331466599</v>
       </c>
       <c r="F55">
-        <v>706.27570152282703</v>
+        <v>711.36045455932594</v>
       </c>
       <c r="G55">
-        <v>3024.3463516235302</v>
+        <v>6931.4107894897397</v>
       </c>
       <c r="H55">
-        <v>52.089691162109297</v>
+        <v>49.987077713012603</v>
       </c>
       <c r="I55">
-        <v>30169.277906417799</v>
+        <v>13107.4223518371</v>
       </c>
       <c r="J55">
-        <v>33245.794057845997</v>
+        <v>20088.8788700103</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>147170.69029807966</v>
+        <v>151680.47118186875</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>147.17069029807965</v>
+        <v>151.68047118186874</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>145957.57389068601</v>
+        <v>145080.162763595</v>
       </c>
       <c r="F56">
-        <v>715.59190750122002</v>
+        <v>718.54901313781704</v>
       </c>
       <c r="G56">
-        <v>2596.0049629211398</v>
+        <v>9551.7492294311505</v>
       </c>
       <c r="H56">
-        <v>51.942586898803697</v>
+        <v>50.057172775268498</v>
       </c>
       <c r="I56">
-        <v>35920.120954513499</v>
+        <v>13738.1267547607</v>
       </c>
       <c r="J56">
-        <v>38568.136930465698</v>
+        <v>23339.993238448998</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>148605.52144050595</v>
+        <v>154681.96916580142</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>148.60552144050595</v>
+        <v>154.68196916580143</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B57">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>145084.61809158299</v>
+        <v>145423.964977264</v>
       </c>
       <c r="F57">
-        <v>697.08275794982899</v>
+        <v>703.67670059204102</v>
       </c>
       <c r="G57">
-        <v>2595.1089859008698</v>
+        <v>10520.977973937899</v>
       </c>
       <c r="H57">
-        <v>53.070545196533203</v>
+        <v>48.896312713622997</v>
       </c>
       <c r="I57">
-        <v>45218.550443649197</v>
+        <v>12927.4859428405</v>
       </c>
       <c r="J57">
-        <v>47866.800308227503</v>
+        <v>23497.416019439599</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>147732.7976226804</v>
+        <v>155993.83926391552</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>147.73279762268041</v>
+        <v>155.99383926391553</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B58">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -7906,158 +7820,158 @@
         <v>14</v>
       </c>
       <c r="E58">
-        <v>140749.77159500099</v>
+        <v>144094.25425529401</v>
       </c>
       <c r="F58">
-        <v>705.73806762695301</v>
+        <v>706.27570152282703</v>
       </c>
       <c r="G58">
-        <v>2815.2549266815099</v>
+        <v>3024.3463516235302</v>
       </c>
       <c r="H58">
-        <v>52.249193191528299</v>
+        <v>52.089691162109297</v>
       </c>
       <c r="I58">
-        <v>140089.46013450599</v>
+        <v>30169.277906417799</v>
       </c>
       <c r="J58">
-        <v>142957.04245567301</v>
+        <v>33245.794057845997</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>143617.27571487403</v>
+        <v>147170.69029807966</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>143.61727571487404</v>
+        <v>147.17069029807965</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>146777.13894844</v>
+        <v>145957.57389068601</v>
       </c>
       <c r="F59">
-        <v>703.42350006103504</v>
+        <v>715.59190750122002</v>
       </c>
       <c r="G59">
-        <v>1548.66027832031</v>
+        <v>2596.0049629211398</v>
       </c>
       <c r="H59">
-        <v>27.0860195159912</v>
+        <v>51.942586898803697</v>
       </c>
       <c r="I59">
-        <v>2824.7158527374199</v>
+        <v>35920.120954513499</v>
       </c>
       <c r="J59">
-        <v>4400.53343772888</v>
+        <v>38568.136930465698</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>148352.8852462763</v>
+        <v>148605.52144050595</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>148.35288524627632</v>
+        <v>148.60552144050595</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B60">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>140391.26658439601</v>
+        <v>145084.61809158299</v>
       </c>
       <c r="F60">
-        <v>739.52198028564396</v>
+        <v>697.08275794982899</v>
       </c>
       <c r="G60">
-        <v>1177.57105827331</v>
+        <v>2595.1089859008698</v>
       </c>
       <c r="H60">
-        <v>27.021884918212798</v>
+        <v>53.070545196533203</v>
       </c>
       <c r="I60">
-        <v>2646.1131572723302</v>
+        <v>45218.550443649197</v>
       </c>
       <c r="J60">
-        <v>3850.78835487365</v>
+        <v>47866.800308227503</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>141595.85952758754</v>
+        <v>147732.7976226804</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>141.59585952758755</v>
+        <v>147.73279762268041</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B61">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>142883.790016174</v>
+        <v>140749.77159500099</v>
       </c>
       <c r="F61">
-        <v>701.94363594055096</v>
+        <v>705.73806762695301</v>
       </c>
       <c r="G61">
-        <v>1236.7260456085201</v>
+        <v>2815.2549266815099</v>
       </c>
       <c r="H61">
-        <v>26.9491672515869</v>
+        <v>52.249193191528299</v>
       </c>
       <c r="I61">
-        <v>2630.3865909576398</v>
+        <v>140089.46013450599</v>
       </c>
       <c r="J61">
-        <v>3894.13404464721</v>
+        <v>142957.04245567301</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>144147.4652290341</v>
+        <v>143617.27571487403</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>144.14746522903411</v>
+        <v>143.61727571487404</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -8066,34 +7980,154 @@
         <v>15</v>
       </c>
       <c r="E62">
+        <v>146777.13894844</v>
+      </c>
+      <c r="F62">
+        <v>703.42350006103504</v>
+      </c>
+      <c r="G62">
+        <v>1548.66027832031</v>
+      </c>
+      <c r="H62">
+        <v>27.0860195159912</v>
+      </c>
+      <c r="I62">
+        <v>2824.7158527374199</v>
+      </c>
+      <c r="J62">
+        <v>4400.53343772888</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>148352.8852462763</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>148.35288524627632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>140391.26658439601</v>
+      </c>
+      <c r="F63">
+        <v>739.52198028564396</v>
+      </c>
+      <c r="G63">
+        <v>1177.57105827331</v>
+      </c>
+      <c r="H63">
+        <v>27.021884918212798</v>
+      </c>
+      <c r="I63">
+        <v>2646.1131572723302</v>
+      </c>
+      <c r="J63">
+        <v>3850.78835487365</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>141595.85952758754</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>141.59585952758755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10000</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>142883.790016174</v>
+      </c>
+      <c r="F64">
+        <v>701.94363594055096</v>
+      </c>
+      <c r="G64">
+        <v>1236.7260456085201</v>
+      </c>
+      <c r="H64">
+        <v>26.9491672515869</v>
+      </c>
+      <c r="I64">
+        <v>2630.3865909576398</v>
+      </c>
+      <c r="J64">
+        <v>3894.13404464721</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>144147.4652290341</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>144.14746522903411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>100000</v>
+      </c>
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
         <v>144920.92823982201</v>
       </c>
-      <c r="F62">
+      <c r="F65">
         <v>721.15206718444801</v>
       </c>
-      <c r="G62">
+      <c r="G65">
         <v>2220.1621532440099</v>
       </c>
-      <c r="H62">
+      <c r="H65">
         <v>27.022361755371001</v>
       </c>
-      <c r="I62">
+      <c r="I65">
         <v>2632.6069831848099</v>
       </c>
-      <c r="J62">
+      <c r="J65">
         <v>4879.8742294311496</v>
       </c>
-      <c r="K62">
+      <c r="K65">
         <f t="shared" si="0"/>
         <v>147168.1127548214</v>
       </c>
-      <c r="L62">
+      <c r="L65">
         <f t="shared" si="1"/>
         <v>147.16811275482141</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L62">
+  <conditionalFormatting sqref="L2:L65">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8105,7 +8139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G62">
+  <conditionalFormatting sqref="G2:G65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8126,7 +8160,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8154,51 +8188,63 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>126.49</v>
-      </c>
-      <c r="C3">
-        <v>129.4</v>
-      </c>
-      <c r="D3">
-        <v>129.01</v>
-      </c>
-      <c r="E3">
-        <v>129.77000000000001</v>
+      <c r="B3" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
+        <v>126.48723125457683</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
+        <v>129.39638304710346</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
+        <v>129.01370096206648</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
+        <v>129.77194643020576</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4">
-        <v>119.67</v>
-      </c>
-      <c r="C4">
-        <v>120.61</v>
-      </c>
-      <c r="D4">
-        <v>119.78</v>
-      </c>
-      <c r="E4">
-        <v>120.03</v>
+      <c r="B4" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
+        <v>119.67060303688015</v>
+      </c>
+      <c r="C4" s="1">
+        <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
+        <v>120.61361575126641</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
+        <v>119.78040266036913</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
+        <v>120.03315782546979</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
-      <c r="B5">
-        <v>129.24</v>
-      </c>
-      <c r="C5">
-        <v>121.4</v>
-      </c>
-      <c r="D5">
-        <v>154.83000000000001</v>
-      </c>
-      <c r="E5">
-        <v>124.22</v>
+      <c r="B5" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
+        <v>129.23879075050309</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
+        <v>121.40378832817052</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
+        <v>154.83370685577313</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
+        <v>124.21647787094105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8227,60 +8273,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>128.88</v>
-      </c>
-      <c r="C9">
-        <v>132.28</v>
-      </c>
-      <c r="D9">
-        <v>132.29</v>
-      </c>
-      <c r="E9">
-        <v>130.06</v>
-      </c>
-      <c r="G9">
-        <v>132.28</v>
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
+        <v>128.88480520248379</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
+        <v>132.28206348419096</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
+        <v>132.28985404968233</v>
+      </c>
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
+        <v>130.05739760398816</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
+        <v>132.27971196174539</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
-        <v>120.12</v>
-      </c>
-      <c r="C10">
-        <v>121.54</v>
-      </c>
-      <c r="D10">
-        <v>120.24</v>
-      </c>
-      <c r="E10">
-        <v>121.4</v>
-      </c>
-      <c r="G10">
-        <v>123.63</v>
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
+        <v>120.11674451827942</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
+        <v>121.54440116882293</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
+        <v>120.24068093299803</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
+        <v>121.39594602584795</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
+        <v>123.62814211845382</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>139.12</v>
-      </c>
-      <c r="C11">
-        <v>137.6</v>
-      </c>
-      <c r="D11">
-        <v>141.44</v>
-      </c>
-      <c r="E11">
-        <v>139.96</v>
-      </c>
-      <c r="G11">
-        <v>142.46</v>
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
+        <v>139.12094855308516</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
+        <v>137.59860396385136</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
+        <v>141.44091844558636</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
+        <v>139.96385931968595</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
+        <v>142.46125292777955</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -8306,54 +8370,67 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>130.63999999999999</v>
-      </c>
-      <c r="C15">
-        <v>131.27000000000001</v>
-      </c>
-      <c r="D15">
-        <v>130.25</v>
-      </c>
-      <c r="E15">
-        <v>131.49</v>
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
+        <v>130.63979911804103</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
+        <v>131.26712679862908</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L58:'10_trees'!L61)</f>
+        <v>130.245476484298</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
+        <v>131.48962378501864</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>121</v>
-      </c>
-      <c r="C16">
-        <v>120.51</v>
-      </c>
-      <c r="D16">
-        <v>118.44</v>
-      </c>
-      <c r="E16">
-        <v>120.19</v>
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
+        <v>121.00324416160551</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
+        <v>120.511857271194</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L58:'500_trees'!L61)</f>
+        <v>118.4355378150935</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
+        <v>120.18890190124495</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
-        <v>140.16</v>
-      </c>
-      <c r="C17">
-        <v>140.46</v>
-      </c>
-      <c r="D17">
-        <v>143.62</v>
-      </c>
-      <c r="E17">
-        <v>141.6</v>
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
+        <v>140.16262650489782</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
+        <v>140.45962977409275</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L58:'1600_trees'!L61)</f>
+        <v>143.61727571487404</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
+        <v>141.59585952758755</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA7F69-617D-45B2-BBB8-5D9BD4FC130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E35AD0-CF15-4441-AC93-C8D4A4DE88B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="29">
   <si>
     <t>query size</t>
   </si>
@@ -182,6 +182,7009 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forest Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>126.48723125457683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.67060303688015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.23879075050309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A657-4CF7-8359-AC6E6A3F7179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>129.39638304710346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.61361575126641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.40378832817052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A657-4CF7-8359-AC6E6A3F7179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>129.01370096206648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.78040266036913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.83370685577313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A657-4CF7-8359-AC6E6A3F7179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>129.77194643020576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.03315782546979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.21647787094105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A657-4CF7-8359-AC6E6A3F7179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2136256895"/>
+        <c:axId val="2136255647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136256895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136255647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136255647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136256895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>128.88480520248379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.11674451827942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.12094855308516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.28206348419096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.54440116882293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.59860396385136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.28985404968233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.24068093299803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.44091844558636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.05739760398816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.39594602584795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.96385931968595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.27971196174539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.62814211845382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.46125292777955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="427136751"/>
+        <c:axId val="427136335"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A1C8-4AC6-94B8-A18AD239DBA5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="427136751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427136335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427136335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427136751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LightGBM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.63979911804103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.00324416160551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.16262650489782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C3-4236-A334-E09FDCE65620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.26712679862908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.511857271194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.45962977409275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C3-4236-A334-E09FDCE65620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.245476484298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.4355378150935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61727571487404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36C3-4236-A334-E09FDCE65620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.48962378501864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.18890190124495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.59585952758755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-36C3-4236-A334-E09FDCE65620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2144081855"/>
+        <c:axId val="2144080607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2144081855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144080607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144080607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144081855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forest Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>176.323652267456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377.73776054382301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>822.24774360656704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE03-445D-9182-102BB27E39E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>721.78316116332996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>897.16482162475495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1318.24827194213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE03-445D-9182-102BB27E39E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>484.922647476196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>687.56365776062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>729.94112968444801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE03-445D-9182-102BB27E39E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1019.35625076293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1015.91038703918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1076.2705802917401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE03-445D-9182-102BB27E39E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="243050399"/>
+        <c:axId val="413627599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="243050399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413627599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413627599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243050399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon XGBoost Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>177.51288414001399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380.18250465392998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802.34622955322197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D574-405D-B892-29481D6BBAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1071.6564655303901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1808.56871604919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1613.3348941802899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D574-405D-B892-29481D6BBAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>490.690469741821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>942.68822669982899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.78098106384198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D574-405D-B892-29481D6BBAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>741.07527732849098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>823.08316230773903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>818.24994087219204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D574-405D-B892-29481D6BBAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$S$9:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2957.31687545776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3659.58571434021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3883.1157684326099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D574-405D-B892-29481D6BBAE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407486975"/>
+        <c:axId val="407485727"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$R$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$M$9:$M$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$R$9:$R$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D574-405D-B892-29481D6BBAE8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407486975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407485727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407485727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407486975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon LightGBM Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>176.50318145751899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>372.94769287109301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>799.56340789794899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0B1-4A3B-9BEE-86E4DBA34360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1075.7775306701601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1273.5013961791899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1519.09327507019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0B1-4A3B-9BEE-86E4DBA34360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>482.21731185913001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>685.37616729736305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2595.1089859008698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0B1-4A3B-9BEE-86E4DBA34360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$15:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1010.37549972534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>993.17908287048294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1177.57105827331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0B1-4A3B-9BEE-86E4DBA34360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407491135"/>
+        <c:axId val="407489887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407491135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407489887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407489887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407491135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E99927-E4B9-1A10-92FB-B43CA759D4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7807B0-96C5-A5E7-A49C-D3F7B2C68081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EF80F3-6DD4-36E0-401E-F055835C8155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AAE75F-9896-5E40-EEFA-C4E98B03FF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E057A345-EBF0-3351-E8F6-404C08355B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5E8ED0-3743-F181-F9BE-83A61D0C5123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,6 +10061,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L65">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3069,7 +10084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
+  <conditionalFormatting sqref="E2:E65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3090,7 +10105,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5593,6 +12608,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L65">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5604,7 +12631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
+  <conditionalFormatting sqref="E2:E65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5624,8 +12651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8128,7 +15155,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L65">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8140,6 +15167,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8157,20 +15196,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -8183,8 +15225,20 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8204,8 +15258,27 @@
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
         <v>129.77194643020576</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G5)</f>
+        <v>176.323652267456</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G6:'10_trees'!G9)</f>
+        <v>721.78316116332996</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MIN('10_trees'!G14:'10_trees'!G17)</f>
+        <v>484.922647476196</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>MIN('10_trees'!G18:'10_trees'!G21)</f>
+        <v>1019.35625076293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -8225,8 +15298,27 @@
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
         <v>120.03315782546979</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G5)</f>
+        <v>377.73776054382301</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G6:'500_trees'!G9)</f>
+        <v>897.16482162475495</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN('500_trees'!G14:'500_trees'!G17)</f>
+        <v>687.56365776062</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>MIN('500_trees'!G18:'500_trees'!G21)</f>
+        <v>1015.91038703918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -8246,13 +15338,35 @@
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
         <v>124.21647787094105</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1600</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G5)</f>
+        <v>822.24774360656704</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G6:'1600_trees'!G9)</f>
+        <v>1318.24827194213</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN('1600_trees'!G14:'1600_trees'!G17)</f>
+        <v>729.94112968444801</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>MIN('1600_trees'!G18:'1600_trees'!G21)</f>
+        <v>1076.2705802917401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -8268,8 +15382,23 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8294,8 +15423,32 @@
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
         <v>132.27971196174539</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G22:'10_trees'!G25)</f>
+        <v>177.51288414001399</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G26:'10_trees'!G29)</f>
+        <v>1071.6564655303901</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G34:'10_trees'!G37)</f>
+        <v>490.690469741821</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>MIN('10_trees'!G38:'10_trees'!G41)</f>
+        <v>741.07527732849098</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <f>MIN('10_trees'!G42:'10_trees'!G45)</f>
+        <v>2957.31687545776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -8320,8 +15473,32 @@
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
         <v>123.62814211845382</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G22:'500_trees'!G25)</f>
+        <v>380.18250465392998</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G26:'500_trees'!G29)</f>
+        <v>1808.56871604919</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G34:'500_trees'!G37)</f>
+        <v>942.68822669982899</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>MIN('500_trees'!G38:'500_trees'!G41)</f>
+        <v>823.08316230773903</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <f>MIN('500_trees'!G42:'500_trees'!G45)</f>
+        <v>3659.58571434021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -8346,13 +15523,40 @@
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
         <v>142.46125292777955</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1600</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G22:'1600_trees'!G25)</f>
+        <v>802.34622955322197</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G26:'1600_trees'!G29)</f>
+        <v>1613.3348941802899</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G34:'1600_trees'!G37)</f>
+        <v>682.78098106384198</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>MIN('1600_trees'!G38:'1600_trees'!G41)</f>
+        <v>818.24994087219204</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <f>MIN('1600_trees'!G42:'1600_trees'!G45)</f>
+        <v>3883.1157684326099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -8365,8 +15569,20 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -8386,8 +15602,27 @@
         <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
         <v>131.48962378501864</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G46:'10_trees'!G49)</f>
+        <v>176.50318145751899</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G50:'10_trees'!G53)</f>
+        <v>1075.7775306701601</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G58:'10_trees'!G61)</f>
+        <v>482.21731185913001</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>MIN('10_trees'!G62:'10_trees'!G65)</f>
+        <v>1010.37549972534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -8407,8 +15642,27 @@
         <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
         <v>120.18890190124495</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G46:'500_trees'!G49)</f>
+        <v>372.94769287109301</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G50:'500_trees'!G53)</f>
+        <v>1273.5013961791899</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G58:'500_trees'!G61)</f>
+        <v>685.37616729736305</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>MIN('500_trees'!G62:'500_trees'!G65)</f>
+        <v>993.17908287048294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -8428,9 +15682,29 @@
         <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
         <v>141.59585952758755</v>
       </c>
+      <c r="M17">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G46:'1600_trees'!G49)</f>
+        <v>799.56340789794899</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G50:'1600_trees'!G53)</f>
+        <v>1519.09327507019</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G58:'1600_trees'!G61)</f>
+        <v>2595.1089859008698</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>MIN('1600_trees'!G62:'1600_trees'!G65)</f>
+        <v>1177.57105827331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E35AD0-CF15-4441-AC93-C8D4A4DE88B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B19AC-851D-459F-8791-C6642EC09BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="444" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="31">
   <si>
     <t>query size</t>
   </si>
@@ -127,6 +127,12 @@
   <si>
     <t>LightGBM</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -185,1773 +191,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Epsilon Random</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Forest Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>126.48723125457683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>119.67060303688015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>129.23879075050309</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A657-4CF7-8359-AC6E6A3F7179}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>129.39638304710346</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.61361575126641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.40378832817052</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A657-4CF7-8359-AC6E6A3F7179}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>129.01370096206648</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>119.78040266036913</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154.83370685577313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A657-4CF7-8359-AC6E6A3F7179}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>129.77194643020576</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.03315782546979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124.21647787094105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A657-4CF7-8359-AC6E6A3F7179}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2136256895"/>
-        <c:axId val="2136255647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2136256895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2136255647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2136255647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2136256895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Epsilon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> XGBoost Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>128.88480520248379</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.11674451827942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>139.12094855308516</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>132.28206348419096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.54440116882293</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>137.59860396385136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>132.28985404968233</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.24068093299803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.44091844558636</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>130.05739760398816</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.39594602584795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>139.96385931968595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>132.27971196174539</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123.62814211845382</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.46125292777955</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="427136751"/>
-        <c:axId val="427136335"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-A1C8-4AC6-94B8-A18AD239DBA5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="427136751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="427136335"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="427136335"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="427136751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Epsilon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> LightGBM</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>130.63979911804103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.00324416160551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>140.16262650489782</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36C3-4236-A334-E09FDCE65620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>131.26712679862908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.511857271194</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>140.45962977409275</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36C3-4236-A334-E09FDCE65620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>130.245476484298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>118.4355378150935</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61727571487404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36C3-4236-A334-E09FDCE65620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>131.48962378501864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.18890190124495</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.59585952758755</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-36C3-4236-A334-E09FDCE65620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2144081855"/>
-        <c:axId val="2144080607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2144081855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2144080607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2144080607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2144081855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2492,7 +731,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3172,7 +1411,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3629,6 +1868,3521 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="407491135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon Randomforest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.96755260934091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.16972798814035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.61441392411447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78B2-4930-9F40-39BB92B575AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.51245374192453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.68905848969675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.11135859002329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78B2-4930-9F40-39BB92B575AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.27641505707956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.48250336159921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.52246303071237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78B2-4930-9F40-39BB92B575AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.78656739701486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.78333467950083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.84395236481882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78B2-4930-9F40-39BB92B575AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-78B2-4930-9F40-39BB92B575AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1691329440"/>
+        <c:axId val="1691331520"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-78B2-4930-9F40-39BB92B575AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-78B2-4930-9F40-39BB92B575AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1691329440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691331520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1691331520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691329440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.96970314492441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.17210168351389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.5934061478541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.86337275017954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.60215968598581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.40511936654306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.28244728554941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.73529262055612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.47554153908945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.50853962411142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.58990210999704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.58505339135385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.74851269234873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.45035070885876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.67374963273264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1CEA-4C1B-A223-34A413927EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1688207216"/>
+        <c:axId val="1688207632"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1CEA-4C1B-A223-34A413927EDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1688207216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688207632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1688207632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688207216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon LightGBM Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$13:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.9677671860621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.16399592866159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.59563297738291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D46-4E27-B253-4733F7E6686E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$13:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.86661476601816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.06487054337717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.31094068993784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D46-4E27-B253-4733F7E6686E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$13:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.27380341996408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.47762770165659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.38847250451303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D46-4E27-B253-4733F7E6686E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$13:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.77843875397897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.76080078591562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.94511789788461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D46-4E27-B253-4733F7E6686E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$13:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0D46-4E27-B253-4733F7E6686E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1558305728"/>
+        <c:axId val="1558306144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$13:$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>LightGBM</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FIL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0D46-4E27-B253-4733F7E6686E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$13:$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>LightGBM</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FIL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-0D46-4E27-B253-4733F7E6686E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1558305728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558306144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1558306144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558305728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6970,114 +8724,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E99927-E4B9-1A10-92FB-B43CA759D4FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7807B0-96C5-A5E7-A49C-D3F7B2C68081}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EF80F3-6DD4-36E0-401E-F055835C8155}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -7106,7 +8752,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7142,7 +8788,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7167,6 +8813,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5E8ED0-3743-F181-F9BE-83A61D0C5123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE758E7-F5DE-3149-37E4-EFD620380A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FD03CD-A55E-6F63-1D8B-07E54A96ACC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49C7C16-E38F-B0D7-D4F3-5020AC6580EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7450,10 +9204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7531,12 +9285,12 @@
         <v>181683.60638618399</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>129042.41538047722</v>
+        <f>SUM($E$67,G2,H2)</f>
+        <v>134133.2122754023</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>129.04241538047722</v>
+        <v>134.13321227540231</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -7571,12 +9325,12 @@
         <v>4586.0021114349302</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
-        <v>129623.765945434</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
+        <v>131590.22325982308</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>129.623765945434</v>
+        <v>131.59022325982309</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -7612,11 +9366,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>128788.35487365685</v>
+        <v>131516.42150391793</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>128.78835487365686</v>
+        <v>131.51642150391794</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -7652,11 +9406,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>126487.23125457682</v>
+        <v>130967.55260934091</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>126.48723125457683</v>
+        <v>130.96755260934091</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -7692,11 +9446,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>137970.00455856288</v>
+        <v>139991.57804955696</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>137.97000455856289</v>
+        <v>139.99157804955698</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -7732,11 +9486,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>130143.2511806479</v>
+        <v>131745.91083039498</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>130.14325118064789</v>
+        <v>131.74591083039499</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -7772,11 +9526,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>130027.30011939949</v>
+        <v>131745.82666863655</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>130.02730011939948</v>
+        <v>131.74582666863657</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -7812,11 +9566,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>129396.38304710345</v>
+        <v>131512.45374192452</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>129.39638304710346</v>
+        <v>131.51245374192453</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -7852,11 +9606,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>129753.53384017895</v>
+        <v>132159.37966813301</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>129.75353384017896</v>
+        <v>132.15937966813303</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -7892,11 +9646,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>129128.29828262256</v>
+        <v>131195.66959847664</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>129.12829828262255</v>
+        <v>131.19566959847666</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -7932,11 +9686,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>129223.88553619361</v>
+        <v>131385.20426263069</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>129.22388553619362</v>
+        <v>131.38520426263071</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -7972,11 +9726,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>128695.98579406689</v>
+        <v>131390.99211205696</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>128.6959857940669</v>
+        <v>131.39099211205698</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -8012,11 +9766,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>130066.78342819185</v>
+        <v>131776.16900910591</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>130.06678342819185</v>
+        <v>131.77616900910593</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8052,11 +9806,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>129013.70096206648</v>
+        <v>131276.41505707955</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>129.01370096206648</v>
+        <v>131.27641505707956</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -8092,11 +9846,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>129333.51635932882</v>
+        <v>131288.58847130989</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>129.33351635932883</v>
+        <v>131.28858847130991</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -8132,11 +9886,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>132989.11666870108</v>
+        <v>131422.86509980416</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>132.98911666870109</v>
+        <v>131.42286509980417</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -8172,11 +9926,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>132954.52094078044</v>
+        <v>135269.60916032051</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>132.95452094078044</v>
+        <v>135.26960916032053</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -8212,11 +9966,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>129771.94643020576</v>
+        <v>131786.56739701485</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>129.77194643020576</v>
+        <v>131.78656739701486</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -8252,11 +10006,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>130552.49428749071</v>
+        <v>131873.05778969979</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>130.5524942874907</v>
+        <v>131.8730577896998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -8292,11 +10046,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>130868.63803863505</v>
+        <v>132859.67177857613</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>130.86863803863505</v>
+        <v>132.85967177857614</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -8332,11 +10086,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>133194.61870193409</v>
+        <v>132276.78007592415</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>133.19461870193408</v>
+        <v>132.27678007592417</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -8372,11 +10126,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>128884.80520248378</v>
+        <v>131596.31103982186</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>128.88480520248379</v>
+        <v>131.59631103982187</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -8412,11 +10166,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>131943.19820404044</v>
+        <v>131065.28157700754</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>131.94319820404044</v>
+        <v>131.06528157700754</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -8452,11 +10206,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>130778.79047393732</v>
+        <v>130969.70314492441</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>130.77879047393733</v>
+        <v>130.96970314492441</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -8492,11 +10246,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>132282.06348419096</v>
+        <v>132678.36541642403</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>132.28206348419096</v>
+        <v>132.67836541642404</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -8532,11 +10286,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>133725.68225860505</v>
+        <v>132570.05924691414</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>133.72568225860505</v>
+        <v>132.57005924691416</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -8572,11 +10326,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>138230.28063774074</v>
+        <v>132118.9255188868</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>138.23028063774075</v>
+        <v>132.11892551888681</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -8612,11 +10366,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>138695.62745094244</v>
+        <v>131863.37275017952</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>138.69562745094245</v>
+        <v>131.86337275017954</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -8652,11 +10406,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>136001.5006065362</v>
+        <v>133465.02489556526</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>136.00150060653621</v>
+        <v>133.46502489556528</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -8692,11 +10446,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>134341.37439727713</v>
+        <v>133418.46770753121</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>134.34137439727715</v>
+        <v>133.41846770753122</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -8732,11 +10486,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>132931.25462531985</v>
+        <v>133517.75378693794</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>132.93125462531987</v>
+        <v>133.51775378693796</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -8772,11 +10526,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>134144.25516128491</v>
+        <v>131921.37712945198</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>134.14425516128492</v>
+        <v>131.921377129452</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -8812,11 +10566,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>136680.94491958531</v>
+        <v>131788.44375123238</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>136.6809449195853</v>
+        <v>131.78844375123239</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -8852,11 +10606,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>133178.21502685527</v>
+        <v>133175.74257363533</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>133.17821502685527</v>
+        <v>133.17574257363535</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -8892,11 +10646,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>132289.85404968233</v>
+        <v>131282.4472855494</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>132.28985404968233</v>
+        <v>131.28244728554941</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -8932,11 +10686,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>133423.55155944769</v>
+        <v>133301.09805573677</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>133.4235515594477</v>
+        <v>133.30109805573679</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -8972,11 +10726,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>131608.24012756301</v>
+        <v>131962.05396165108</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>131.60824012756302</v>
+        <v>131.96205396165109</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9012,11 +10766,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>131574.37038421532</v>
+        <v>131508.53962411141</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>131.57437038421531</v>
+        <v>131.50853962411142</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9052,11 +10806,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>131511.85250282206</v>
+        <v>131696.12473954415</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>131.51185250282205</v>
+        <v>131.69612473954416</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9092,11 +10846,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>130057.39760398815</v>
+        <v>131575.96106042122</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>130.05739760398816</v>
+        <v>131.57596106042124</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9132,11 +10886,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>160172.44982719349</v>
+        <v>159328.59200944155</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>160.1724498271935</v>
+        <v>159.32859200944156</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -9172,11 +10926,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>135445.79982757563</v>
+        <v>133748.51269234871</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>135.44579982757563</v>
+        <v>133.74851269234873</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9212,11 +10966,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>132279.7119617454</v>
+        <v>134158.73760689949</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>132.27971196174539</v>
+        <v>134.15873760689951</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9252,11 +11006,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>133933.99643897943</v>
+        <v>134000.90379227852</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>133.93399643897945</v>
+        <v>134.00090379227854</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -9292,11 +11046,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>136452.20160484218</v>
+        <v>132868.25174798226</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>136.45220160484217</v>
+        <v>132.86825174798227</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -9332,11 +11086,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>136216.93468093866</v>
+        <v>131153.42754830574</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>136.21693468093866</v>
+        <v>131.15342754830576</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -9372,11 +11126,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>131761.95573806725</v>
+        <v>131505.80710877632</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>131.76195573806726</v>
+        <v>131.50580710877634</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -9412,11 +11166,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>130639.79911804102</v>
+        <v>130967.7671860621</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>130.63979911804103</v>
+        <v>130.9677671860621</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -9452,11 +11206,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>133073.67587089451</v>
+        <v>132674.5256852076</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>133.0736758708945</v>
+        <v>132.67452568520761</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -9492,11 +11246,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>134028.6908149716</v>
+        <v>131979.92176522469</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>134.02869081497161</v>
+        <v>131.9799217652247</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -9532,11 +11286,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>132794.86298561076</v>
+        <v>132112.94717301583</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>132.79486298561076</v>
+        <v>132.11294717301584</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -9572,11 +11326,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>131267.12679862906</v>
+        <v>131866.61476601815</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>131.26712679862908</v>
+        <v>131.86661476601816</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -9612,11 +11366,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>132160.47310829128</v>
+        <v>131311.25421036934</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>132.16047310829128</v>
+        <v>131.31125421036936</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -9652,11 +11406,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>130134.49692726103</v>
+        <v>131190.37074555611</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>130.13449692726104</v>
+        <v>131.19037074555612</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -9692,11 +11446,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>131382.62486457752</v>
+        <v>132968.53274811959</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>131.38262486457751</v>
+        <v>132.9685327481196</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9732,11 +11486,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>131429.68940734852</v>
+        <v>131360.7251118586</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>131.42968940734852</v>
+        <v>131.36072511185861</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -9772,11 +11526,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>134094.12598609913</v>
+        <v>133688.57163895821</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>134.09412598609913</v>
+        <v>133.68857163895822</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -9812,11 +11566,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>130245.47648429799</v>
+        <v>131273.80341996407</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>130.245476484298</v>
+        <v>131.27380341996408</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -9852,11 +11606,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>130494.02141571041</v>
+        <v>131418.32537163948</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>130.49402141571042</v>
+        <v>131.4183253716395</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -9892,11 +11646,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>131351.68504714911</v>
+        <v>131421.2195347712</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>131.35168504714912</v>
+        <v>131.42121953477121</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -9932,11 +11686,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>131523.13852310117</v>
+        <v>132059.56906785225</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>131.52313852310118</v>
+        <v>132.05956906785227</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -9972,11 +11726,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>133085.94894409089</v>
+        <v>131778.43875397896</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>133.08594894409089</v>
+        <v>131.77843875397897</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -10012,11 +11766,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>137698.45223426758</v>
+        <v>131889.30482377266</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>137.69845223426759</v>
+        <v>131.88930482377268</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -10052,11 +11806,20 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>131489.62378501863</v>
+        <v>132833.3002995417</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>131.48962378501864</v>
+        <v>132.83330029954172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <f>AVERAGE(E2:E65,'500_trees'!E2:'500_trees'!E65,'1600_trees'!E2:'1600_trees'!E65)</f>
+        <v>130740.52495469309</v>
       </c>
     </row>
   </sheetData>
@@ -10102,10 +11865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10183,12 +11946,12 @@
         <v>12630.6002140045</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>123869.29130554108</v>
+        <f>SUM($E$67,G2,H2)</f>
+        <v>132269.29158677315</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>123.86929130554108</v>
+        <v>132.26929158677316</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10223,12 +11986,12 @@
         <v>6792.1478748321497</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
-        <v>119670.60303688014</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
+        <v>131285.67785729622</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>119.67060303688015</v>
+        <v>131.28567785729624</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10264,11 +12027,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>120256.74462318387</v>
+        <v>131272.88074006294</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>120.25674462318388</v>
+        <v>131.27288074006296</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10304,11 +12067,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>120281.80932998627</v>
+        <v>131169.72798814034</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>120.28180932998627</v>
+        <v>131.16972798814035</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -10344,11 +12107,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>121844.70248222299</v>
+        <v>133301.05823983406</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>121.84470248222298</v>
+        <v>133.30105823983408</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10384,11 +12147,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>120613.61575126641</v>
+        <v>132205.90943803047</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>120.61361575126641</v>
+        <v>132.20590943803049</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10424,11 +12187,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>121846.71735763467</v>
+        <v>131689.05848969673</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>121.84671735763467</v>
+        <v>131.68905848969675</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10469,11 +12232,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>126633.56590270899</v>
+        <v>132562.76339997505</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>126.63356590270899</v>
+        <v>132.56276339997507</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10509,11 +12272,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>123135.98322868328</v>
+        <v>134852.21261491036</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>123.13598322868329</v>
+        <v>134.85221261491037</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10549,11 +12312,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>126159.48867797814</v>
+        <v>136039.75290765023</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>126.15948867797815</v>
+        <v>136.03975290765024</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10589,11 +12352,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>125036.25583648638</v>
+        <v>137078.76939286446</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>125.03625583648638</v>
+        <v>137.07876939286447</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10629,11 +12392,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>120790.28081893903</v>
+        <v>131687.03717698311</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>120.79028081893904</v>
+        <v>131.68703717698313</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10669,11 +12432,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>122174.02148246713</v>
+        <v>133201.6617726252</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>122.17402148246713</v>
+        <v>133.20166177262522</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10709,11 +12472,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>121446.54083251863</v>
+        <v>133355.1840256617</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>121.44654083251864</v>
+        <v>133.35518402566171</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10749,11 +12512,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>119780.40266036913</v>
+        <v>131482.5033615992</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>119.78040266036913</v>
+        <v>131.48250336159921</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10789,11 +12552,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>125800.54521560628</v>
+        <v>132342.45151986336</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>125.80054521560629</v>
+        <v>132.34245151986337</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10829,11 +12592,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>122610.55660247774</v>
+        <v>131783.33467950081</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>122.61055660247774</v>
+        <v>131.78333467950083</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10869,11 +12632,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>121143.35536956729</v>
+        <v>131898.11558236336</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>121.14335536956729</v>
+        <v>131.89811558236337</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10909,11 +12672,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>120033.15782546978</v>
+        <v>132861.69642914986</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>120.03315782546979</v>
+        <v>132.86169642914987</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10949,11 +12712,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>120948.94337654096</v>
+        <v>132743.56908311104</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>120.94894337654097</v>
+        <v>132.74356908311105</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10989,11 +12752,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>120386.17634773182</v>
+        <v>131745.78399171089</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>120.38617634773182</v>
+        <v>131.74578399171091</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -11029,11 +12792,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>120116.74451827942</v>
+        <v>131265.34265984749</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>120.11674451827942</v>
+        <v>131.26534265984751</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11069,11 +12832,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>122557.3430061338</v>
+        <v>131172.10168351387</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>122.55734300613381</v>
+        <v>131.17210168351389</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -11109,11 +12872,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>121544.40116882292</v>
+        <v>132941.82319154</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>121.54440116882293</v>
+        <v>132.94182319154001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11149,11 +12912,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>122518.93210411012</v>
+        <v>132631.49089326119</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>122.51893210411012</v>
+        <v>132.6314908932612</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11189,11 +12952,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>122784.55138206472</v>
+        <v>132602.1596859858</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>122.78455138206472</v>
+        <v>132.60215968598581</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11234,11 +12997,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>125147.89247512809</v>
+        <v>133069.45199479317</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>125.14789247512809</v>
+        <v>133.06945199479318</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11274,11 +13037,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>123823.25243949841</v>
+        <v>133249.63778962349</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>123.8232524394984</v>
+        <v>133.24963778962351</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11314,11 +13077,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>129104.47072982724</v>
+        <v>135615.89641083931</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>129.10447072982726</v>
+        <v>135.61589641083933</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11354,11 +13117,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>125865.77010154688</v>
+        <v>135919.70271577095</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>125.86577010154689</v>
+        <v>135.91970271577097</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -11394,11 +13157,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>120240.68093299803</v>
+        <v>131735.29262055611</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>120.24068093299803</v>
+        <v>131.73529262055612</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11434,11 +13197,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>122803.62677574075</v>
+        <v>133212.38774766182</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>122.80362677574075</v>
+        <v>133.21238774766184</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11474,11 +13237,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>121701.26771926874</v>
+        <v>133190.31257142281</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>121.70126771926874</v>
+        <v>133.19031257142282</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11514,11 +13277,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>123575.83117485029</v>
+        <v>133350.25495995735</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>123.57583117485029</v>
+        <v>133.35025495995737</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11554,11 +13317,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>122779.82902526809</v>
+        <v>132091.90387238719</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>122.77982902526809</v>
+        <v>132.09190387238721</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11594,11 +13357,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>123754.50801849294</v>
+        <v>133401.51447762703</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>123.75450801849294</v>
+        <v>133.40151447762705</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11634,11 +13397,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>123874.4173049925</v>
+        <v>133428.49821557259</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>123.87441730499251</v>
+        <v>133.4284982155726</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11674,11 +13437,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>121395.94602584795</v>
+        <v>131589.90210999703</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>121.39594602584795</v>
+        <v>131.58990210999704</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11714,11 +13477,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>138634.55915450962</v>
+        <v>148348.5876988337</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>138.63455915450962</v>
+        <v>148.34858769883371</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11754,11 +13517,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>123628.14211845382</v>
+        <v>135019.0617512629</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>123.62814211845382</v>
+        <v>135.01906175126291</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -11794,11 +13557,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>124924.01766776964</v>
+        <v>134450.35070885875</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>124.92401766776965</v>
+        <v>134.45035070885876</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11834,11 +13597,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>125469.09117698652</v>
+        <v>134579.45246209358</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>125.46909117698652</v>
+        <v>134.5794524620936</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11874,11 +13637,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>126326.32923126176</v>
+        <v>132763.36950768685</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>126.32632923126175</v>
+        <v>132.76336950768686</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11914,11 +13677,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>121569.01574134755</v>
+        <v>131279.79559411263</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>121.56901574134756</v>
+        <v>131.27979559411264</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11954,11 +13717,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>124993.96824836665</v>
+        <v>131730.14039506172</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>124.99396824836666</v>
+        <v>131.73014039506174</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11994,11 +13757,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>121003.2441616055</v>
+        <v>131163.99592866158</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>121.00324416160551</v>
+        <v>131.16399592866159</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -12034,11 +13797,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>120511.85727119401</v>
+        <v>132676.41849030709</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>120.511857271194</v>
+        <v>132.6764184903071</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -12074,11 +13837,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>123826.76005363406</v>
+        <v>132064.87054337715</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>123.82676005363406</v>
+        <v>132.06487054337717</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -12114,11 +13877,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>121563.0104541777</v>
+        <v>132162.08405007576</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>121.5630104541777</v>
+        <v>132.16208405007578</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -12159,11 +13922,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>124415.88115692083</v>
+        <v>134369.11577691292</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>124.41588115692083</v>
+        <v>134.36911577691293</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -12199,11 +13962,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>124962.20517158459</v>
+        <v>133098.45799912667</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>124.96220517158459</v>
+        <v>133.09845799912668</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -12239,11 +14002,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>123045.13382911593</v>
+        <v>133436.55008782601</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>123.04513382911594</v>
+        <v>133.43655008782602</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -12279,11 +14042,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>127049.69835281307</v>
+        <v>137068.82495393013</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>127.04969835281307</v>
+        <v>137.06882495393015</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -12319,11 +14082,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>120831.08162879884</v>
+        <v>131700.81395615792</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>120.83108162879884</v>
+        <v>131.70081395615793</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -12359,11 +14122,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>126024.91378784126</v>
+        <v>133214.15705193733</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>126.02491378784126</v>
+        <v>133.21415705193735</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -12399,11 +14162,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>121522.8080749505</v>
+        <v>133191.57928933357</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>121.5228080749505</v>
+        <v>133.19157928933359</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -12439,11 +14202,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>118435.5378150935</v>
+        <v>131477.62770165657</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>118.4355378150935</v>
+        <v>131.47762770165659</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -12479,11 +14242,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>123258.34989547631</v>
+        <v>132119.99577988838</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>123.25834989547631</v>
+        <v>132.1199957798884</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -12519,11 +14282,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>124727.46038436853</v>
+        <v>131760.80078591561</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>124.72746038436854</v>
+        <v>131.76080078591562</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12559,11 +14322,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>120188.90190124494</v>
+        <v>131892.03662385201</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>120.18890190124495</v>
+        <v>131.89203662385202</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -12599,11 +14362,20 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>121037.19949722254</v>
+        <v>132882.06786622261</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>121.03719949722255</v>
+        <v>132.88206786622263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <f xml:space="preserve"> ('10_trees'!E67)</f>
+        <v>130740.52495469309</v>
       </c>
     </row>
   </sheetData>
@@ -12649,10 +14421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12730,12 +14502,12 @@
         <v>19630.054712295499</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>129238.79075050307</v>
+        <f>SUM($E$67,G2,H2)</f>
+        <v>132845.70760239818</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>129.23879075050309</v>
+        <v>132.84570760239819</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12770,12 +14542,12 @@
         <v>13597.262382507301</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
-        <v>137459.11931991533</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
+        <v>132143.5448597834</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>137.45911931991535</v>
+        <v>132.14354485978342</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12811,11 +14583,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>130602.94055938668</v>
+        <v>131787.31913079476</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>130.6029405593867</v>
+        <v>131.78731913079477</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12851,11 +14623,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>133296.24271392738</v>
+        <v>131614.41392411446</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>133.29624271392737</v>
+        <v>131.61441392411447</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12891,11 +14663,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>126453.31835746765</v>
+        <v>132695.29909600472</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>126.45331835746765</v>
+        <v>132.69529909600473</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12931,11 +14703,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>121403.78832817051</v>
+        <v>132459.09566392159</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>121.40378832817052</v>
+        <v>132.4590956639216</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -12971,11 +14743,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>128104.50458526518</v>
+        <v>132111.35859002327</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>128.10450458526518</v>
+        <v>132.11135859002329</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13016,11 +14788,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>130075.64687728844</v>
+        <v>138872.30796326851</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>130.07564687728845</v>
+        <v>138.87230796326853</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13056,11 +14828,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>131226.44472122096</v>
+        <v>138633.93635262703</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>131.22644472122096</v>
+        <v>138.63393635262705</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -13096,11 +14868,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>137273.14805984459</v>
+        <v>141728.45239152169</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>137.2731480598446</v>
+        <v>141.7284523915217</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13136,11 +14908,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>161354.69460487267</v>
+        <v>144181.37282838076</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>161.35469460487266</v>
+        <v>144.18137282838077</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13176,11 +14948,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>154833.70685577314</v>
+        <v>133927.43916024422</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>154.83370685577313</v>
+        <v>133.92743916024423</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13216,11 +14988,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>159730.22770881603</v>
+        <v>133481.36372079109</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>159.73022770881605</v>
+        <v>133.48136372079111</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13256,11 +15028,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>173530.10082244829</v>
+        <v>131522.46303071236</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>173.5301008224483</v>
+        <v>131.52246303071237</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13296,11 +15068,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>184391.83783531107</v>
+        <v>131785.46661843514</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>184.39183783531107</v>
+        <v>131.78546661843515</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13336,11 +15108,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>124216.47787094105</v>
+        <v>132485.66193093514</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>124.21647787094105</v>
+        <v>132.48566193093515</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13376,11 +15148,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>129996.29688262871</v>
+        <v>131843.9523648188</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>129.99629688262871</v>
+        <v>131.84395236481882</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -13416,11 +15188,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>141346.20404243382</v>
+        <v>132034.11406983589</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>141.34620404243381</v>
+        <v>132.03411406983591</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -13456,11 +15228,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>143105.41963577174</v>
+        <v>133021.37631882881</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>143.10541963577174</v>
+        <v>133.02137631882883</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -13496,11 +15268,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>144480.85021972557</v>
+        <v>132273.24909676766</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>144.48085021972557</v>
+        <v>132.27324909676767</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13536,11 +15308,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>139120.94855308515</v>
+        <v>132139.18895234322</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>139.12094855308516</v>
+        <v>132.13918895234323</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -13576,11 +15348,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>147720.68190574562</v>
+        <v>132127.78658379769</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>147.72068190574561</v>
+        <v>132.1277865837977</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13616,11 +15388,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>140993.60203742902</v>
+        <v>131593.40614785408</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>140.99360203742901</v>
+        <v>131.5934061478541</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -13656,11 +15428,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>143476.36914253203</v>
+        <v>133232.97924508309</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>143.47636914253204</v>
+        <v>133.2329792450831</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13696,11 +15468,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>137598.60396385135</v>
+        <v>132770.25837411141</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>137.59860396385136</v>
+        <v>132.77025837411142</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13736,11 +15508,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>140693.35651397696</v>
+        <v>132405.11936654305</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>140.69335651397697</v>
+        <v>132.40511936654306</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13781,11 +15553,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>146244.4510459897</v>
+        <v>136727.03451623177</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>146.24445104598971</v>
+        <v>136.72703451623178</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13821,11 +15593,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>149367.18320846555</v>
+        <v>138183.85285844063</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>149.36718320846555</v>
+        <v>138.18385285844064</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13861,11 +15633,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>150281.51488304121</v>
+        <v>141769.13232316231</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>150.28151488304121</v>
+        <v>141.76913232316232</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13901,11 +15673,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>154303.5218715666</v>
+        <v>144478.16009034371</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>154.3035218715666</v>
+        <v>144.47816009034372</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13941,11 +15713,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>146495.27573585499</v>
+        <v>133834.58084573006</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>146.49527573585499</v>
+        <v>133.83458084573007</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13981,11 +15753,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>149143.80860328587</v>
+        <v>133384.43488587593</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>149.14380860328586</v>
+        <v>133.38443488587595</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -14021,11 +15793,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>141440.91844558637</v>
+        <v>131475.54153908943</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>141.44091844558636</v>
+        <v>131.47554153908945</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -14061,11 +15833,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>143248.71373176508</v>
+        <v>131738.05064667916</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>143.24871373176509</v>
+        <v>131.73805064667917</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14101,11 +15873,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>144866.92643165501</v>
+        <v>133854.23726548409</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>144.866926431655</v>
+        <v>133.8542372654841</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14141,11 +15913,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>142085.18123626677</v>
+        <v>131585.05339135384</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>142.08518123626678</v>
+        <v>131.58505339135385</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14181,11 +15953,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>139963.85931968596</v>
+        <v>131763.56143464302</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>139.96385931968595</v>
+        <v>131.76356143464304</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -14221,11 +15993,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>150532.17244148217</v>
+        <v>131656.04824532723</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>150.53217244148217</v>
+        <v>131.65604824532724</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -14261,11 +16033,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>192919.45052146816</v>
+        <v>173862.44959344127</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>192.91945052146815</v>
+        <v>173.86244959344128</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -14301,11 +16073,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>152009.27591323853</v>
+        <v>137909.9571179316</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>152.00927591323853</v>
+        <v>137.90995711793161</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -14341,11 +16113,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>142461.25292777954</v>
+        <v>134673.74963273262</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>142.46125292777955</v>
+        <v>134.67374963273264</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -14381,11 +16153,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>146862.23292350734</v>
+        <v>135605.88998307442</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>146.86223292350735</v>
+        <v>135.60588998307443</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -14421,11 +16193,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>141709.1343402857</v>
+        <v>132804.34269417977</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>141.70913434028571</v>
+        <v>132.80434269417978</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -14461,11 +16233,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>144024.90043640134</v>
+        <v>132142.31962670543</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>144.02490043640134</v>
+        <v>132.14231962670544</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -14501,11 +16273,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>142402.24385261469</v>
+        <v>132113.66433610176</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>142.4022438526147</v>
+        <v>132.11366433610178</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -14541,11 +16313,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>140162.62650489781</v>
+        <v>131595.63297738289</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>140.16262650489782</v>
+        <v>131.59563297738291</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14581,11 +16353,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>151283.55813026376</v>
+        <v>133223.48565568184</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>151.28355813026377</v>
+        <v>133.22348565568186</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -14621,11 +16393,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>140459.62977409275</v>
+        <v>132310.94068993782</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>140.45962977409275</v>
+        <v>132.31094068993784</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -14661,11 +16433,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>141133.13865661601</v>
+        <v>132792.21195687508</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>141.13313865661601</v>
+        <v>132.79221195687509</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -14706,11 +16478,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>150189.50939178458</v>
+        <v>136552.06675042366</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>150.18950939178458</v>
+        <v>136.55206675042368</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -14746,11 +16518,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>151680.47118186875</v>
+        <v>137721.92282189583</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>151.68047118186874</v>
+        <v>137.72192282189584</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14786,11 +16558,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>154681.96916580142</v>
+        <v>140342.33135689949</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>154.68196916580143</v>
+        <v>140.34233135689951</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14826,11 +16598,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>155993.83926391552</v>
+        <v>141310.3992413446</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>155.99383926391553</v>
+        <v>141.31039924134461</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14866,11 +16638,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>147170.69029807966</v>
+        <v>133816.96099747872</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>147.17069029807965</v>
+        <v>133.81696099747873</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14906,11 +16678,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>148605.52144050595</v>
+        <v>133388.47250451302</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>148.60552144050595</v>
+        <v>133.38847250451303</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14946,11 +16718,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>147732.7976226804</v>
+        <v>133388.70448579048</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>147.73279762268041</v>
+        <v>133.3887044857905</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14986,11 +16758,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>143617.27571487403</v>
+        <v>133608.02907456612</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>143.61727571487404</v>
+        <v>133.60802907456613</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15026,11 +16798,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>148352.8852462763</v>
+        <v>132316.27125252938</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>148.35288524627632</v>
+        <v>132.31627125252939</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -15066,11 +16838,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>141595.85952758754</v>
+        <v>131945.1178978846</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>141.59585952758755</v>
+        <v>131.94511789788461</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15106,11 +16878,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>144147.4652290341</v>
+        <v>132004.20016755318</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>144.14746522903411</v>
+        <v>132.00420016755319</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15146,11 +16918,20 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>147168.1127548214</v>
+        <v>132987.70946969246</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>147.16811275482141</v>
+        <v>132.98770946969248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <f xml:space="preserve"> ('10_trees'!E67)</f>
+        <v>130740.52495469309</v>
       </c>
     </row>
   </sheetData>
@@ -15198,8 +16979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15225,6 +17006,9 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
@@ -15244,19 +17028,22 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>126.48723125457683</v>
+        <v>130.96755260934091</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>129.39638304710346</v>
+        <v>131.51245374192453</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>129.01370096206648</v>
+        <v>131.27641505707956</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>129.77194643020576</v>
+        <v>131.78656739701486</v>
+      </c>
+      <c r="H3">
+        <v>132.19999999999999</v>
       </c>
       <c r="M3">
         <v>10</v>
@@ -15284,19 +17071,22 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>119.67060303688015</v>
+        <v>131.16972798814035</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>120.61361575126641</v>
+        <v>131.68905848969675</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>119.78040266036913</v>
+        <v>131.48250336159921</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>120.03315782546979</v>
+        <v>131.78333467950083</v>
+      </c>
+      <c r="H4">
+        <v>135</v>
       </c>
       <c r="M4">
         <v>500</v>
@@ -15324,19 +17114,22 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>129.23879075050309</v>
+        <v>131.61441392411447</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>121.40378832817052</v>
+        <v>132.11135859002329</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>154.83370685577313</v>
+        <v>131.52246303071237</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>124.21647787094105</v>
+        <v>131.84395236481882</v>
+      </c>
+      <c r="H5">
+        <v>135.1</v>
       </c>
       <c r="M5">
         <v>1600</v>
@@ -15382,6 +17175,9 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
       <c r="N8" t="s">
         <v>22</v>
       </c>
@@ -15404,24 +17200,27 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>128.88480520248379</v>
+        <v>130.96970314492441</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>132.28206348419096</v>
+        <v>131.86337275017954</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
-        <v>132.28985404968233</v>
+        <v>131.28244728554941</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>130.05739760398816</v>
+        <v>131.50853962411142</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
-        <v>132.27971196174539</v>
+        <v>133.74851269234873</v>
+      </c>
+      <c r="H9">
+        <v>130.6</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -15454,24 +17253,27 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>120.11674451827942</v>
+        <v>131.17210168351389</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>121.54440116882293</v>
+        <v>132.60215968598581</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
-        <v>120.24068093299803</v>
+        <v>131.73529262055612</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>121.39594602584795</v>
+        <v>131.58990210999704</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
-        <v>123.62814211845382</v>
+        <v>134.45035070885876</v>
+      </c>
+      <c r="H10">
+        <v>132.6</v>
       </c>
       <c r="M10">
         <v>500</v>
@@ -15504,24 +17306,27 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>139.12094855308516</v>
+        <v>131.5934061478541</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>137.59860396385136</v>
+        <v>132.40511936654306</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
-        <v>141.44091844558636</v>
+        <v>131.47554153908945</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>139.96385931968595</v>
+        <v>131.58505339135385</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
-        <v>142.46125292777955</v>
+        <v>134.67374963273264</v>
+      </c>
+      <c r="H11">
+        <v>133.1</v>
       </c>
       <c r="M11">
         <v>1600</v>
@@ -15569,6 +17374,9 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
@@ -15588,19 +17396,22 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
-        <v>130.63979911804103</v>
+        <v>130.9677671860621</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
-        <v>131.26712679862908</v>
+        <v>131.86661476601816</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L58:'10_trees'!L61)</f>
-        <v>130.245476484298</v>
+        <v>131.27380341996408</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
-        <v>131.48962378501864</v>
+        <v>131.77843875397897</v>
+      </c>
+      <c r="H15">
+        <v>131.4</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -15628,19 +17439,22 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
-        <v>121.00324416160551</v>
+        <v>131.16399592866159</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
-        <v>120.511857271194</v>
+        <v>132.06487054337717</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L58:'500_trees'!L61)</f>
-        <v>118.4355378150935</v>
+        <v>131.47762770165659</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
-        <v>120.18890190124495</v>
+        <v>131.76080078591562</v>
+      </c>
+      <c r="H16">
+        <v>134</v>
       </c>
       <c r="M16">
         <v>500</v>
@@ -15668,19 +17482,22 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
-        <v>140.16262650489782</v>
+        <v>131.59563297738291</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
-        <v>140.45962977409275</v>
+        <v>132.31094068993784</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L58:'1600_trees'!L61)</f>
-        <v>143.61727571487404</v>
+        <v>133.38847250451303</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
-        <v>141.59585952758755</v>
+        <v>131.94511789788461</v>
+      </c>
+      <c r="H17">
+        <v>133.80000000000001</v>
       </c>
       <c r="M17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B19AC-851D-459F-8791-C6642EC09BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1A478-9339-4C9B-A195-A8FE094E964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="444" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10284" yWindow="696" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2135,13 +2138,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130.96755260934091</c:v>
+                  <c:v>130.96447793258113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.16972798814035</c:v>
+                  <c:v>131.1658920408575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.61441392411447</c:v>
+                  <c:v>131.61040202392024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,13 +2262,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.51245374192453</c:v>
+                  <c:v>131.50993744147701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.68905848969675</c:v>
+                  <c:v>131.68531910193843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.11135859002329</c:v>
+                  <c:v>132.10640255225582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,13 +2386,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.27641505707956</c:v>
+                  <c:v>131.27307692778987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.48250336159921</c:v>
+                  <c:v>131.4757179380743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.52246303071237</c:v>
+                  <c:v>131.51809540999812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,13 +2510,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.78656739701486</c:v>
+                  <c:v>131.80751053107662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.78333467950083</c:v>
+                  <c:v>131.80406466735286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.84395236481882</c:v>
+                  <c:v>131.86442486060542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,7 +2806,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$2</c15:sqref>
@@ -2863,7 +2866,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2885,7 +2888,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$3:$A$5</c15:sqref>
@@ -2909,7 +2912,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$3:$G$5</c15:sqref>
@@ -2922,7 +2925,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-78B2-4930-9F40-39BB92B575AE}"/>
                   </c:ext>
@@ -3303,13 +3306,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130.96970314492441</c:v>
+                  <c:v>130.96566716445369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.17210168351389</c:v>
+                  <c:v>131.16833678496761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.5934061478541</c:v>
+                  <c:v>131.5905005098669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,13 +3430,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.86337275017954</c:v>
+                  <c:v>131.85981074584407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.60215968598581</c:v>
+                  <c:v>132.59672299636287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.40511936654306</c:v>
+                  <c:v>132.40148917449397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,13 +3554,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.28244728554941</c:v>
+                  <c:v>131.2788447500555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.73529262055612</c:v>
+                  <c:v>131.73084250701351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.47554153908945</c:v>
+                  <c:v>131.47093526137752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,13 +3678,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.50853962411142</c:v>
+                  <c:v>131.52922955764217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.58990210999704</c:v>
+                  <c:v>131.61123744262142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.58505339135385</c:v>
+                  <c:v>131.60640422118587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,13 +3802,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.74851269234873</c:v>
+                  <c:v>133.74547115577144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.45035070885876</c:v>
+                  <c:v>134.44773999465392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.67374963273264</c:v>
+                  <c:v>134.67127004874629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,13 +4461,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130.9677671860621</c:v>
+                  <c:v>130.9646574617712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.16399592866159</c:v>
+                  <c:v>131.16110197318477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.59563297738291</c:v>
+                  <c:v>131.58771768821163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,13 +4588,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.86661476601816</c:v>
+                  <c:v>131.86393181098384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.06487054337717</c:v>
+                  <c:v>132.06165567649288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.31094068993784</c:v>
+                  <c:v>132.30724755538387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,13 +4715,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.27380341996408</c:v>
+                  <c:v>131.27037159217281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.47762770165659</c:v>
+                  <c:v>131.47353044761104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.38847250451303</c:v>
+                  <c:v>133.38326326621456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,13 +4842,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.77843875397897</c:v>
+                  <c:v>131.79852978003902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.76080078591562</c:v>
+                  <c:v>131.78133336318416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.94511789788461</c:v>
+                  <c:v>131.96572533858699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5144,7 +5147,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$13:$G$14</c15:sqref>
@@ -5210,7 +5213,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5232,7 +5235,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -5256,7 +5259,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -5269,7 +5272,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0D46-4E27-B253-4733F7E6686E}"/>
                   </c:ext>
@@ -9206,8 +9209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9285,12 +9288,12 @@
         <v>181683.60638618399</v>
       </c>
       <c r="K2">
-        <f>SUM($E$67,G2,H2)</f>
-        <v>134133.2122754023</v>
+        <f>SUM($E$67,G2,$H$67)</f>
+        <v>134129.32864440363</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>134.13321227540231</v>
+        <v>134.12932864440364</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9325,12 +9328,12 @@
         <v>4586.0021114349302</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
-        <v>131590.22325982308</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,$H$67)</f>
+        <v>131586.9146944372</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>131.59022325982309</v>
+        <v>131.58691469443721</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9366,11 +9369,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>131516.42150391793</v>
+        <v>131513.41191543025</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>131.51642150391794</v>
+        <v>131.51341191543025</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9406,11 +9409,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>130967.55260934091</v>
+        <v>130964.47793258113</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>130.96755260934091</v>
+        <v>130.96447793258113</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9446,11 +9449,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>139991.57804955696</v>
+        <v>139988.57847464961</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>139.99157804955698</v>
+        <v>139.98857847464961</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9486,11 +9489,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>131745.91083039498</v>
+        <v>131743.14132941645</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>131.74591083039499</v>
+        <v>131.74314132941646</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9526,11 +9529,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>131745.82666863655</v>
+        <v>131742.11827529353</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>131.74582666863657</v>
+        <v>131.74211827529354</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9566,11 +9569,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>131512.45374192452</v>
+        <v>131509.937441477</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>131.51245374192453</v>
+        <v>131.50993744147701</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9606,11 +9609,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>132159.37966813301</v>
+        <v>132144.1656709997</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>132.15937966813303</v>
+        <v>132.14416567099971</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9646,11 +9649,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>131195.66959847664</v>
+        <v>131180.64013732356</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>131.19566959847666</v>
+        <v>131.18064013732356</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9686,11 +9689,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>131385.20426263069</v>
+        <v>131371.64393676203</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>131.38520426263071</v>
+        <v>131.37164393676204</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9726,11 +9729,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>131390.99211205696</v>
+        <v>131388.22356475276</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>131.39099211205698</v>
+        <v>131.38822356475276</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9766,11 +9769,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>131776.16900910591</v>
+        <v>131772.93006194514</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>131.77616900910593</v>
+        <v>131.77293006194515</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9806,11 +9809,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>131276.41505707955</v>
+        <v>131273.07692778987</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>131.27641505707956</v>
+        <v>131.27307692778987</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9846,11 +9849,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>131288.58847130989</v>
+        <v>131280.79406035822</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>131.28858847130991</v>
+        <v>131.28079406035823</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9886,11 +9889,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>131422.86509980416</v>
+        <v>131419.28449881953</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>131.42286509980417</v>
+        <v>131.41928449881954</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9926,11 +9929,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>135269.60916032051</v>
+        <v>135289.20618308467</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>135.26960916032053</v>
+        <v>135.28920618308467</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9966,11 +9969,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>131786.56739701485</v>
+        <v>131807.51053107661</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>131.78656739701486</v>
+        <v>131.80751053107662</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10006,11 +10009,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>131873.05778969979</v>
+        <v>131893.80160582942</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>131.8730577896998</v>
+        <v>131.89380160582942</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10046,11 +10049,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>132859.67177857613</v>
+        <v>132880.6695104925</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>132.85967177857614</v>
+        <v>132.88066951049251</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10086,11 +10089,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>132276.78007592415</v>
+        <v>132273.07096732539</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>132.27678007592417</v>
+        <v>132.2730709673254</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10126,11 +10129,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>131596.31103982186</v>
+        <v>131592.84297240656</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>131.59631103982187</v>
+        <v>131.59284297240657</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10166,11 +10169,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>131065.28157700754</v>
+        <v>131062.91500342768</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>131.06528157700754</v>
+        <v>131.06291500342769</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10206,11 +10209,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>130969.70314492441</v>
+        <v>130965.66716445368</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>130.96970314492441</v>
+        <v>130.96566716445369</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10246,11 +10249,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>132678.36541642403</v>
+        <v>132670.06889594477</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>132.67836541642404</v>
+        <v>132.67006889594478</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10286,11 +10289,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>132570.05924691414</v>
+        <v>132566.91352141779</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>132.57005924691416</v>
+        <v>132.5669135214178</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10326,11 +10329,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>132118.9255188868</v>
+        <v>132115.83439124507</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>132.11892551888681</v>
+        <v>132.11583439124507</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10366,11 +10369,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>131863.37275017952</v>
+        <v>131859.81074584406</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>131.86337275017954</v>
+        <v>131.85981074584407</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10406,11 +10409,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>133465.02489556526</v>
+        <v>133449.67094672602</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>133.46502489556528</v>
+        <v>133.44967094672603</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10446,11 +10449,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>133418.46770753121</v>
+        <v>133403.33930266779</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>133.41846770753122</v>
+        <v>133.4033393026678</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10486,11 +10489,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>133517.75378693794</v>
+        <v>133500.90924514216</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>133.51775378693796</v>
+        <v>133.50090924514217</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10526,11 +10529,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>131921.37712945198</v>
+        <v>131911.27244246882</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>131.921377129452</v>
+        <v>131.91127244246883</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10566,11 +10569,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>131788.44375123238</v>
+        <v>131780.70513022822</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>131.78844375123239</v>
+        <v>131.78070513022823</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10606,11 +10609,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>133175.74257363533</v>
+        <v>133167.50661147517</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>133.17574257363535</v>
+        <v>133.16750661147518</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10646,11 +10649,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>131282.4472855494</v>
+        <v>131278.84475005549</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>131.28244728554941</v>
+        <v>131.2788447500555</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10686,11 +10689,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>133301.09805573677</v>
+        <v>133296.00874198359</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>133.30109805573679</v>
+        <v>133.2960087419836</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10726,11 +10729,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>131962.05396165108</v>
+        <v>131982.87621749323</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>131.96205396165109</v>
+        <v>131.98287621749324</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10766,11 +10769,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>131508.53962411141</v>
+        <v>131529.22955764216</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>131.50853962411142</v>
+        <v>131.52922955764217</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10806,11 +10809,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>131696.12473954415</v>
+        <v>131716.964161524</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>131.69612473954416</v>
+        <v>131.716964161524</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10846,11 +10849,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>131575.96106042122</v>
+        <v>131596.42759574336</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>131.57596106042124</v>
+        <v>131.59642759574336</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10886,11 +10889,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>159328.59200944155</v>
+        <v>159325.53211463368</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>159.32859200944156</v>
+        <v>159.32553211463369</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10926,11 +10929,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>133748.51269234871</v>
+        <v>133745.47115577143</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>133.74851269234873</v>
+        <v>133.74547115577144</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10966,11 +10969,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>134158.73760689949</v>
+        <v>134155.96882117671</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>134.15873760689951</v>
+        <v>134.15596882117671</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11006,11 +11009,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>134000.90379227852</v>
+        <v>133997.00442565363</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>134.00090379227854</v>
+        <v>133.99700442565364</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11046,11 +11049,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>132868.25174798226</v>
+        <v>132860.48523200434</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>132.86825174798227</v>
+        <v>132.86048523200435</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11086,11 +11089,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>131153.42754830574</v>
+        <v>131149.73083747309</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>131.15342754830576</v>
+        <v>131.1497308374731</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11126,11 +11129,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>131505.80710877632</v>
+        <v>131503.44935668391</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>131.50580710877634</v>
+        <v>131.50344935668392</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11166,11 +11169,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>130967.7671860621</v>
+        <v>130964.65746177119</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>130.9677671860621</v>
+        <v>130.9646574617712</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11206,11 +11209,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>132674.5256852076</v>
+        <v>132671.53493178767</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>132.67452568520761</v>
+        <v>132.67153493178768</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11246,11 +11249,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>131979.92176522469</v>
+        <v>131974.74089873713</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>131.9799217652247</v>
+        <v>131.97474089873714</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11286,11 +11289,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>132112.94717301583</v>
+        <v>132109.74541915339</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>132.11294717301584</v>
+        <v>132.1097454191534</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11326,11 +11329,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>131866.61476601815</v>
+        <v>131863.93181098384</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>131.86661476601816</v>
+        <v>131.86393181098384</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11366,11 +11369,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>131311.25421036934</v>
+        <v>131294.43207991999</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>131.31125421036936</v>
+        <v>131.29443207992</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11406,11 +11409,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>131190.37074555611</v>
+        <v>131175.70296538752</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>131.19037074555612</v>
+        <v>131.17570296538753</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11446,11 +11449,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>132968.53274811959</v>
+        <v>132965.59373153132</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>132.9685327481196</v>
+        <v>132.96559373153133</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11486,11 +11489,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>131360.7251118586</v>
+        <v>131354.03553260249</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>131.36072511185861</v>
+        <v>131.3540355326025</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11526,11 +11529,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>133688.57163895821</v>
+        <v>133680.92743171137</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>133.68857163895822</v>
+        <v>133.68092743171138</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11566,11 +11569,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>131273.80341996407</v>
+        <v>131270.3715921728</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>131.27380341996408</v>
+        <v>131.27037159217281</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11606,11 +11609,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>131418.32537163948</v>
+        <v>131415.50461066645</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>131.4183253716395</v>
+        <v>131.41550461066646</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11646,11 +11649,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>131421.2195347712</v>
+        <v>131418.02922500056</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>131.42121953477121</v>
+        <v>131.41802922500057</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11686,11 +11689,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>132059.56906785225</v>
+        <v>132079.83890784663</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>132.05956906785227</v>
+        <v>132.07983890784664</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11726,11 +11729,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>131778.43875397896</v>
+        <v>131798.52978003901</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>131.77843875397897</v>
+        <v>131.79852978003902</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11766,11 +11769,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>131889.30482377266</v>
+        <v>131909.39108146113</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>131.88930482377268</v>
+        <v>131.90939108146114</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -11806,11 +11809,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>132833.3002995417</v>
+        <v>132853.17698729914</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>132.83330029954172</v>
+        <v>132.85317698729915</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -11821,9 +11824,28 @@
         <f>AVERAGE(E2:E65,'500_trees'!E2:'500_trees'!E65,'1600_trees'!E2:'1600_trees'!E65)</f>
         <v>130740.52495469309</v>
       </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <f>AVERAGE(H2:H65,'500_trees'!H2:H65,'1600_trees'!H2:H65)</f>
+        <v>47.629325620589711</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G65">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11835,7 +11857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
+  <conditionalFormatting sqref="E2:E65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11847,7 +11869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E65">
+  <conditionalFormatting sqref="H2:H65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11867,8 +11889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11946,12 +11968,12 @@
         <v>12630.6002140045</v>
       </c>
       <c r="K2">
-        <f>SUM($E$67,G2,H2)</f>
-        <v>132269.29158677315</v>
+        <f>SUM($E$67,G2,$H$67)</f>
+        <v>132264.91180671137</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>132.26929158677316</v>
+        <v>132.26491180671138</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -11986,12 +12008,12 @@
         <v>6792.1478748321497</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
-        <v>131285.67785729622</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,$H$67)</f>
+        <v>131279.14158118647</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>131.28567785729624</v>
+        <v>131.27914158118648</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12027,11 +12049,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>131272.88074006294</v>
+        <v>131270.13174308222</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>131.27288074006296</v>
+        <v>131.27013174308223</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12067,11 +12089,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>131169.72798814034</v>
+        <v>131165.89204085749</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>131.16972798814035</v>
+        <v>131.1658920408575</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12107,11 +12129,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>133301.05823983406</v>
+        <v>133297.74347556513</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>133.30105823983408</v>
+        <v>133.29774347556514</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12147,11 +12169,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>132205.90943803047</v>
+        <v>132202.42539657038</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>132.20590943803049</v>
+        <v>132.20242539657039</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -12187,11 +12209,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>131689.05848969673</v>
+        <v>131685.31910193842</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>131.68905848969675</v>
+        <v>131.68531910193843</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12232,11 +12254,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>132562.76339997505</v>
+        <v>132560.10237945002</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>132.56276339997507</v>
+        <v>132.56010237945003</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12272,11 +12294,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>134852.21261491036</v>
+        <v>134849.32104361933</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>134.85221261491037</v>
+        <v>134.84932104361934</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -12312,11 +12334,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>136039.75290765023</v>
+        <v>136026.09912169856</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>136.03975290765024</v>
+        <v>136.02609912169856</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12352,11 +12374,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>137078.76939286446</v>
+        <v>137077.17028869074</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>137.07876939286447</v>
+        <v>137.07717028869075</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12392,11 +12414,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>131687.03717698311</v>
+        <v>131680.8563829748</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>131.68703717698313</v>
+        <v>131.68085638297481</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -12432,11 +12454,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>133201.6617726252</v>
+        <v>133197.27793944758</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>133.20166177262522</v>
+        <v>133.19727793944759</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -12472,11 +12494,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>133355.1840256617</v>
+        <v>133352.54708541316</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>133.35518402566171</v>
+        <v>133.35254708541316</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -12512,11 +12534,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>131482.5033615992</v>
+        <v>131475.71793807429</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>131.48250336159921</v>
+        <v>131.4757179380743</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -12552,11 +12574,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>132342.45151986336</v>
+        <v>132363.05919898432</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>132.34245151986337</v>
+        <v>132.36305919898433</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -12592,11 +12614,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>131783.33467950081</v>
+        <v>131804.06466735285</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>131.78333467950083</v>
+        <v>131.80406466735286</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -12632,11 +12654,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>131898.11558236336</v>
+        <v>131918.77118361872</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>131.89811558236337</v>
+        <v>131.91877118361873</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -12672,11 +12694,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>132861.69642914986</v>
+        <v>132882.42141021174</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>132.86169642914987</v>
+        <v>132.88242141021175</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -12712,11 +12734,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>132743.56908311104</v>
+        <v>132739.349758753</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>132.74356908311105</v>
+        <v>132.73934975875301</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -12752,11 +12774,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>131745.78399171089</v>
+        <v>131738.8831735937</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>131.74578399171091</v>
+        <v>131.73888317359371</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -12792,11 +12814,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>131265.34265984749</v>
+        <v>131261.85671103877</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>131.26534265984751</v>
+        <v>131.26185671103877</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -12832,11 +12854,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>131172.10168351387</v>
+        <v>131168.3367849676</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>131.17210168351389</v>
+        <v>131.16833678496761</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -12872,11 +12894,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>132941.82319154</v>
+        <v>132938.39494002741</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>132.94182319154001</v>
+        <v>132.93839494002742</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -12912,11 +12934,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>132631.49089326119</v>
+        <v>132627.88788093012</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>132.6314908932612</v>
+        <v>132.62788788093013</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -12952,11 +12974,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>132602.1596859858</v>
+        <v>132596.72299636286</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>132.60215968598581</v>
+        <v>132.59672299636287</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -12997,11 +13019,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>133069.45199479317</v>
+        <v>133063.60093367976</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>133.06945199479318</v>
+        <v>133.06360093367977</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13037,11 +13059,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>133249.63778962349</v>
+        <v>133243.83512748164</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>133.24963778962351</v>
+        <v>133.24383512748165</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13077,11 +13099,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>135615.89641083931</v>
+        <v>135613.68337882441</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>135.61589641083933</v>
+        <v>135.61368337882442</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13117,11 +13139,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>135919.70271577095</v>
+        <v>135907.75004638117</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>135.91970271577097</v>
+        <v>135.90775004638118</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13157,11 +13179,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>131735.29262055611</v>
+        <v>131730.8425070135</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>131.73529262055612</v>
+        <v>131.73084250701351</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13197,11 +13219,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>133212.38774766182</v>
+        <v>133201.7213465063</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>133.21238774766184</v>
+        <v>133.2017213465063</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -13237,11 +13259,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>133190.31257142281</v>
+        <v>133186.09753859919</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>133.19031257142282</v>
+        <v>133.1860975385992</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13277,11 +13299,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>133350.25495995735</v>
+        <v>133341.68854964655</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>133.35025495995737</v>
+        <v>133.34168854964656</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13317,11 +13339,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>132091.90387238719</v>
+        <v>132113.2275225012</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>132.09190387238721</v>
+        <v>132.11322752250121</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13357,11 +13379,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>133401.51447762703</v>
+        <v>133423.04221404475</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>133.40151447762705</v>
+        <v>133.42304221404476</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13397,11 +13419,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>133428.49821557259</v>
+        <v>133449.32166350764</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>133.4284982155726</v>
+        <v>133.44932166350765</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -13437,11 +13459,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>131589.90210999703</v>
+        <v>131611.23744262141</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>131.58990210999704</v>
+        <v>131.61123744262142</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -13477,11 +13499,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>148348.5876988337</v>
+        <v>148345.38117659968</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>148.34858769883371</v>
+        <v>148.34538117659969</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -13517,11 +13539,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>135019.0617512629</v>
+        <v>135016.33230460566</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>135.01906175126291</v>
+        <v>135.01633230460567</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -13557,11 +13579,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>134450.35070885875</v>
+        <v>134447.73999465391</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>134.45035070885876</v>
+        <v>134.44773999465392</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -13597,11 +13619,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>134579.45246209358</v>
+        <v>134576.72277701777</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>134.5794524620936</v>
+        <v>134.57672277701778</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -13637,11 +13659,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>132763.36950768685</v>
+        <v>132757.61071456355</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>132.76336950768686</v>
+        <v>132.75761071456355</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -13677,11 +13699,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>131279.79559411263</v>
+        <v>131275.65089476985</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>131.27979559411264</v>
+        <v>131.27565089476985</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -13717,11 +13739,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>131730.14039506172</v>
+        <v>131727.02685607356</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>131.73014039506174</v>
+        <v>131.72702685607356</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -13757,11 +13779,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>131163.99592866158</v>
+        <v>131161.10197318476</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>131.16399592866159</v>
+        <v>131.16110197318477</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -13797,11 +13819,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>132676.41849030709</v>
+        <v>132672.36605895442</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>132.6764184903071</v>
+        <v>132.67236605895442</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -13837,11 +13859,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>132064.87054337715</v>
+        <v>132061.65567649287</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>132.06487054337717</v>
+        <v>132.06165567649288</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -13877,11 +13899,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>132162.08405007576</v>
+        <v>132158.34966910761</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>132.16208405007578</v>
+        <v>132.15834966910762</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -13922,11 +13944,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>134369.11577691292</v>
+        <v>134365.99079383296</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>134.36911577691293</v>
+        <v>134.36599079383296</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -13962,11 +13984,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>133098.45799912667</v>
+        <v>133083.01583541316</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>133.09845799912668</v>
+        <v>133.08301583541316</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14002,11 +14024,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>133436.55008782601</v>
+        <v>133430.37763846797</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>133.43655008782602</v>
+        <v>133.43037763846797</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14042,11 +14064,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>137068.82495393013</v>
+        <v>137067.06777823847</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>137.06882495393015</v>
+        <v>137.06706777823848</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14082,11 +14104,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>131700.81395615792</v>
+        <v>131697.28199256342</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>131.70081395615793</v>
+        <v>131.69728199256343</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14122,11 +14144,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>133214.15705193733</v>
+        <v>133209.75033057612</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>133.21415705193735</v>
+        <v>133.20975033057613</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14162,11 +14184,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>133191.57928933357</v>
+        <v>133186.6416097967</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>133.19157928933359</v>
+        <v>133.18664160979671</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14202,11 +14224,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>131477.62770165657</v>
+        <v>131473.53044761103</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>131.47762770165659</v>
+        <v>131.47353044761104</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -14242,11 +14264,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>132119.99577988838</v>
+        <v>132140.42178405207</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>132.1199957798884</v>
+        <v>132.14042178405208</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -14282,11 +14304,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>131760.80078591561</v>
+        <v>131781.33336318415</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>131.76080078591562</v>
+        <v>131.78133336318416</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -14322,11 +14344,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>131892.03662385201</v>
+        <v>131912.57540000361</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>131.89203662385202</v>
+        <v>131.91257540000362</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -14362,11 +14384,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>132882.06786622261</v>
+        <v>132902.71416915339</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>132.88206786622263</v>
+        <v>132.9027141691534</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -14376,6 +14398,13 @@
       <c r="E67">
         <f xml:space="preserve"> ('10_trees'!E67)</f>
         <v>130740.52495469309</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <f>'10_trees'!H67</f>
+        <v>47.629325620589711</v>
       </c>
     </row>
   </sheetData>
@@ -14423,8 +14452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14502,12 +14531,12 @@
         <v>19630.054712295499</v>
       </c>
       <c r="K2">
-        <f>SUM($E$67,G2,H2)</f>
-        <v>132845.70760239818</v>
+        <f>SUM($E$67,G2,$H$67)</f>
+        <v>132837.4866606085</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>132.84570760239819</v>
+        <v>132.8374866606085</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14542,12 +14571,12 @@
         <v>13597.262382507301</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,H3)</f>
-        <v>132143.5448597834</v>
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,$H$67)</f>
+        <v>132140.88026297968</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>132.14354485978342</v>
+        <v>132.14088026297969</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14583,11 +14612,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>131787.31913079476</v>
+        <v>131785.11539710444</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>131.78731913079477</v>
+        <v>131.78511539710445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -14623,11 +14652,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>131614.41392411446</v>
+        <v>131610.40202392024</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>131.61441392411447</v>
+        <v>131.61040202392024</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14663,11 +14692,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>132695.29909600472</v>
+        <v>132691.80551780146</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>132.69529909600473</v>
+        <v>132.69180551780147</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -14703,11 +14732,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>132459.09566392159</v>
+        <v>132455.54629577082</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>132.4590956639216</v>
+        <v>132.45554629577083</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -14743,11 +14772,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>132111.35859002327</v>
+        <v>132106.40255225581</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>132.11135859002329</v>
+        <v>132.10640255225582</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -14788,11 +14817,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>138872.30796326851</v>
+        <v>138869.36990035456</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>138.87230796326853</v>
+        <v>138.86936990035457</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -14828,11 +14857,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>138633.93635262703</v>
+        <v>138631.4977766363</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>138.63393635262705</v>
+        <v>138.63149777663631</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -14868,11 +14897,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>141728.45239152169</v>
+        <v>141724.3625284521</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>141.7284523915217</v>
+        <v>141.7243625284521</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -14908,11 +14937,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>144181.37282838076</v>
+        <v>144179.37508834279</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>144.18137282838077</v>
+        <v>144.17937508834279</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -14948,11 +14977,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>133927.43916024422</v>
+        <v>133919.53650725764</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>133.92743916024423</v>
+        <v>133.91953650725765</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -14988,11 +15017,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>133481.36372079109</v>
+        <v>133472.43777526301</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>133.48136372079111</v>
+        <v>133.47243777526302</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -15028,11 +15057,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>131522.46303071236</v>
+        <v>131518.09540999812</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>131.52246303071237</v>
+        <v>131.51809540999812</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -15068,11 +15097,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>131785.46661843514</v>
+        <v>131781.04892981928</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>131.78546661843515</v>
+        <v>131.78104892981929</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -15108,11 +15137,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>132485.66193093514</v>
+        <v>132505.91222060603</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>132.48566193093515</v>
+        <v>132.50591222060604</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -15148,11 +15177,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>131843.9523648188</v>
+        <v>131864.42486060542</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>131.84395236481882</v>
+        <v>131.86442486060542</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -15188,11 +15217,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>132034.11406983589</v>
+        <v>132054.30403960627</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>132.03411406983591</v>
+        <v>132.05430403960628</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -15228,11 +15257,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>133021.37631882881</v>
+        <v>133041.90341247004</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>133.02137631882883</v>
+        <v>133.04190341247005</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -15268,11 +15297,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>132273.24909676766</v>
+        <v>132264.27594436091</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>132.27324909676767</v>
+        <v>132.26427594436092</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -15308,11 +15337,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>132139.18895234322</v>
+        <v>132136.24612105769</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>132.13918895234323</v>
+        <v>132.1362461210577</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -15348,11 +15377,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>132127.78658379769</v>
+        <v>132124.35261023921</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>132.1277865837977</v>
+        <v>132.12435261023921</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -15388,11 +15417,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>131593.40614785408</v>
+        <v>131590.50050986689</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>131.5934061478541</v>
+        <v>131.5905005098669</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -15428,11 +15457,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>133232.97924508309</v>
+        <v>133229.66781867426</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>133.2329792450831</v>
+        <v>133.22966781867427</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15468,11 +15497,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>132770.25837411141</v>
+        <v>132763.11603797358</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>132.77025837411142</v>
+        <v>132.76311603797359</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15508,11 +15537,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>132405.11936654305</v>
+        <v>132401.48917449397</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>132.40511936654306</v>
+        <v>132.40148917449397</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15553,11 +15582,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>136727.03451623177</v>
+        <v>136724.97097266596</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>136.72703451623178</v>
+        <v>136.72497097266597</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -15593,11 +15622,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>138183.85285844063</v>
+        <v>138181.09456313532</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>138.18385285844064</v>
+        <v>138.18109456313533</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -15633,11 +15662,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>141769.13232316231</v>
+        <v>141766.0946012823</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>141.76913232316232</v>
+        <v>141.7660946012823</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -15673,11 +15702,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>144478.16009034371</v>
+        <v>144474.89086402339</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>144.47816009034372</v>
+        <v>144.47489086402339</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -15713,11 +15742,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>133834.58084573006</v>
+        <v>133829.93904364985</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>133.83458084573007</v>
+        <v>133.82993904364986</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -15753,11 +15782,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>133384.43488587593</v>
+        <v>133380.02220405024</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>133.38443488587595</v>
+        <v>133.38002220405025</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -15793,11 +15822,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>131475.54153908943</v>
+        <v>131470.93526137751</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>131.47554153908945</v>
+        <v>131.47093526137752</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -15833,11 +15862,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>131738.05064667916</v>
+        <v>131731.0809255926</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>131.73805064667917</v>
+        <v>131.73108092559261</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -15873,11 +15902,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>133854.23726548409</v>
+        <v>133875.67392600459</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>133.8542372654841</v>
+        <v>133.87567392600459</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -15913,11 +15942,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>131585.05339135384</v>
+        <v>131606.40422118586</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>131.58505339135385</v>
+        <v>131.60640422118587</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -15953,11 +15982,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>131763.56143464302</v>
+        <v>131784.9573255865</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>131.76356143464304</v>
+        <v>131.7849573255865</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15993,11 +16022,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>131656.04824532723</v>
+        <v>131677.51017821711</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>131.65604824532724</v>
+        <v>131.67751017821712</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -16033,11 +16062,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>173862.44959344127</v>
+        <v>173860.1757646887</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>173.86244959344128</v>
+        <v>173.86017576468871</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -16073,11 +16102,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>137909.9571179316</v>
+        <v>137906.54317153376</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>137.90995711793161</v>
+        <v>137.90654317153377</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -16113,11 +16142,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>134673.74963273262</v>
+        <v>134671.27004874629</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>134.67374963273264</v>
+        <v>134.67127004874629</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -16153,11 +16182,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>135605.88998307442</v>
+        <v>135603.69077933711</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>135.60588998307443</v>
+        <v>135.60369077933711</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -16193,11 +16222,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>132804.34269417977</v>
+        <v>132798.30328238886</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>132.80434269417978</v>
+        <v>132.79830328238887</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -16233,11 +16262,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>132142.31962670543</v>
+        <v>132138.75881446287</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>132.14231962670544</v>
+        <v>132.13875881446288</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -16273,11 +16302,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>132113.66433610176</v>
+        <v>132110.0715757696</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>132.11366433610178</v>
+        <v>132.11007157576961</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -16313,11 +16342,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>131595.63297738289</v>
+        <v>131587.71768821162</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>131.59563297738291</v>
+        <v>131.58771768821163</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -16353,11 +16382,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>133223.48565568184</v>
+        <v>133219.23986686152</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>133.22348565568186</v>
+        <v>133.21923986686153</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -16393,11 +16422,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>132310.94068993782</v>
+        <v>132307.24755538386</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>132.31094068993784</v>
+        <v>132.30724755538387</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -16433,11 +16462,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>132792.21195687508</v>
+        <v>132784.69864142817</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>132.79221195687509</v>
+        <v>132.78469864142818</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -16478,11 +16507,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>136552.06675042366</v>
+        <v>136549.91689933222</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>136.55206675042368</v>
+        <v>136.54991689933223</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -16518,11 +16547,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>137721.92282189583</v>
+        <v>137719.56506980342</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>137.72192282189584</v>
+        <v>137.71956506980342</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -16558,11 +16587,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>140342.33135689949</v>
+        <v>140339.90350974482</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>140.34233135689951</v>
+        <v>140.33990350974483</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -16598,11 +16627,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>141310.3992413446</v>
+        <v>141309.13225425157</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>141.31039924134461</v>
+        <v>141.30913225425158</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -16638,11 +16667,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>133816.96099747872</v>
+        <v>133812.5006319372</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>133.81696099747873</v>
+        <v>133.81250063193721</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -16678,11 +16707,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>133388.47250451302</v>
+        <v>133384.15924323481</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>133.38847250451303</v>
+        <v>133.38415924323482</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -16718,11 +16747,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>133388.70448579048</v>
+        <v>133383.26326621455</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>133.3887044857905</v>
+        <v>133.38326326621456</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -16758,11 +16787,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>133608.02907456612</v>
+        <v>133603.40920699519</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>133.60802907456613</v>
+        <v>133.6034092069952</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -16798,11 +16827,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>132316.27125252938</v>
+        <v>132336.81455863398</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>132.31627125252939</v>
+        <v>132.33681455863399</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -16838,11 +16867,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>131945.1178978846</v>
+        <v>131965.72533858698</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>131.94511789788461</v>
+        <v>131.96572533858699</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -16878,11 +16907,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>132004.20016755318</v>
+        <v>132024.88032592219</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>132.00420016755319</v>
+        <v>132.0248803259222</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -16918,11 +16947,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>132987.70946969246</v>
+        <v>133008.31643355769</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>132.98770946969248</v>
+        <v>133.0083164335577</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -16932,6 +16961,13 @@
       <c r="E67">
         <f xml:space="preserve"> ('10_trees'!E67)</f>
         <v>130740.52495469309</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <f>'10_trees'!H67</f>
+        <v>47.629325620589711</v>
       </c>
     </row>
   </sheetData>
@@ -16979,8 +17015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17028,19 +17064,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>130.96755260934091</v>
+        <v>130.96447793258113</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>131.51245374192453</v>
+        <v>131.50993744147701</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>131.27641505707956</v>
+        <v>131.27307692778987</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>131.78656739701486</v>
+        <v>131.80751053107662</v>
       </c>
       <c r="H3">
         <v>132.19999999999999</v>
@@ -17071,19 +17107,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>131.16972798814035</v>
+        <v>131.1658920408575</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>131.68905848969675</v>
+        <v>131.68531910193843</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>131.48250336159921</v>
+        <v>131.4757179380743</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>131.78333467950083</v>
+        <v>131.80406466735286</v>
       </c>
       <c r="H4">
         <v>135</v>
@@ -17114,19 +17150,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>131.61441392411447</v>
+        <v>131.61040202392024</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>132.11135859002329</v>
+        <v>132.10640255225582</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>131.52246303071237</v>
+        <v>131.51809540999812</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>131.84395236481882</v>
+        <v>131.86442486060542</v>
       </c>
       <c r="H5">
         <v>135.1</v>
@@ -17200,24 +17236,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>130.96970314492441</v>
+        <v>130.96566716445369</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>131.86337275017954</v>
+        <v>131.85981074584407</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
-        <v>131.28244728554941</v>
+        <v>131.2788447500555</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>131.50853962411142</v>
+        <v>131.52922955764217</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
-        <v>133.74851269234873</v>
+        <v>133.74547115577144</v>
       </c>
       <c r="H9">
         <v>130.6</v>
@@ -17253,24 +17289,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>131.17210168351389</v>
+        <v>131.16833678496761</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>132.60215968598581</v>
+        <v>132.59672299636287</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
-        <v>131.73529262055612</v>
+        <v>131.73084250701351</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>131.58990210999704</v>
+        <v>131.61123744262142</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
-        <v>134.45035070885876</v>
+        <v>134.44773999465392</v>
       </c>
       <c r="H10">
         <v>132.6</v>
@@ -17306,24 +17342,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>131.5934061478541</v>
+        <v>131.5905005098669</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>132.40511936654306</v>
+        <v>132.40148917449397</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
-        <v>131.47554153908945</v>
+        <v>131.47093526137752</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>131.58505339135385</v>
+        <v>131.60640422118587</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
-        <v>134.67374963273264</v>
+        <v>134.67127004874629</v>
       </c>
       <c r="H11">
         <v>133.1</v>
@@ -17396,19 +17432,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
-        <v>130.9677671860621</v>
+        <v>130.9646574617712</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
-        <v>131.86661476601816</v>
+        <v>131.86393181098384</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L58:'10_trees'!L61)</f>
-        <v>131.27380341996408</v>
+        <v>131.27037159217281</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
-        <v>131.77843875397897</v>
+        <v>131.79852978003902</v>
       </c>
       <c r="H15">
         <v>131.4</v>
@@ -17439,19 +17475,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
-        <v>131.16399592866159</v>
+        <v>131.16110197318477</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
-        <v>132.06487054337717</v>
+        <v>132.06165567649288</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L58:'500_trees'!L61)</f>
-        <v>131.47762770165659</v>
+        <v>131.47353044761104</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
-        <v>131.76080078591562</v>
+        <v>131.78133336318416</v>
       </c>
       <c r="H16">
         <v>134</v>
@@ -17482,19 +17518,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
-        <v>131.59563297738291</v>
+        <v>131.58771768821163</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
-        <v>132.31094068993784</v>
+        <v>132.30724755538387</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L58:'1600_trees'!L61)</f>
-        <v>133.38847250451303</v>
+        <v>133.38326326621456</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
-        <v>131.94511789788461</v>
+        <v>131.96572533858699</v>
       </c>
       <c r="H17">
         <v>133.80000000000001</v>

--- a/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/epsilon/epsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\epsilon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1A478-9339-4C9B-A195-A8FE094E964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5ED7E-B916-4B5C-86B6-9F16CF3A4421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10284" yWindow="696" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9792" yWindow="1728" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -9209,13 +9209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -11829,6 +11829,2593 @@
       </c>
       <c r="H67">
         <f>AVERAGE(H2:H65,'500_trees'!H2:H65,'1600_trees'!H2:H65)</f>
+        <v>47.629325620589711</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L2:L65">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E65">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K65">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>122340.524673461</v>
+      </c>
+      <c r="F2">
+        <v>341.74084663391102</v>
+      </c>
+      <c r="G2">
+        <v>1476.7575263977001</v>
+      </c>
+      <c r="H2">
+        <v>52.009105682372997</v>
+      </c>
+      <c r="I2">
+        <v>11101.768255233699</v>
+      </c>
+      <c r="J2">
+        <v>12630.6002140045</v>
+      </c>
+      <c r="K2">
+        <f>SUM($E$67,G2,$H$67)</f>
+        <v>132264.91180671137</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(K2,0.001)</f>
+        <v>132.26491180671138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>119125.45013427699</v>
+      </c>
+      <c r="F3">
+        <v>165.20905494689899</v>
+      </c>
+      <c r="G3">
+        <v>490.987300872802</v>
+      </c>
+      <c r="H3">
+        <v>54.165601730346602</v>
+      </c>
+      <c r="I3">
+        <v>6246.9298839569001</v>
+      </c>
+      <c r="J3">
+        <v>6792.1478748321497</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,$H$67)</f>
+        <v>131279.14158118647</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
+        <v>131.27914158118648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>119724.388837814</v>
+      </c>
+      <c r="F4">
+        <v>164.66617584228501</v>
+      </c>
+      <c r="G4">
+        <v>481.97746276855401</v>
+      </c>
+      <c r="H4">
+        <v>50.378322601318303</v>
+      </c>
+      <c r="I4">
+        <v>6315.4878616332999</v>
+      </c>
+      <c r="J4">
+        <v>6847.9044437408402</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>131270.13174308222</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>131.27013174308223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>119852.606296539</v>
+      </c>
+      <c r="F5">
+        <v>166.446208953857</v>
+      </c>
+      <c r="G5">
+        <v>377.73776054382301</v>
+      </c>
+      <c r="H5">
+        <v>51.465272903442298</v>
+      </c>
+      <c r="I5">
+        <v>6277.0938873290997</v>
+      </c>
+      <c r="J5">
+        <v>6706.3617706298801</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>131165.89204085749</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>131.1658920408575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>119284.169197082</v>
+      </c>
+      <c r="F6">
+        <v>163.40470314025799</v>
+      </c>
+      <c r="G6">
+        <v>2509.5891952514598</v>
+      </c>
+      <c r="H6">
+        <v>50.944089889526303</v>
+      </c>
+      <c r="I6">
+        <v>5606.0562133788999</v>
+      </c>
+      <c r="J6">
+        <v>8166.6476726531901</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>133297.74347556513</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>133.29774347556514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>119148.231267929</v>
+      </c>
+      <c r="F7">
+        <v>162.57095336914</v>
+      </c>
+      <c r="G7">
+        <v>1414.27111625671</v>
+      </c>
+      <c r="H7">
+        <v>51.113367080688398</v>
+      </c>
+      <c r="I7">
+        <v>5586.26222610473</v>
+      </c>
+      <c r="J7">
+        <v>7051.7187118530201</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>132202.42539657038</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>132.20242539657039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>120898.18382263101</v>
+      </c>
+      <c r="F8">
+        <v>165.62771797180099</v>
+      </c>
+      <c r="G8">
+        <v>897.16482162475495</v>
+      </c>
+      <c r="H8">
+        <v>51.3687133789062</v>
+      </c>
+      <c r="I8">
+        <v>5821.6381072998001</v>
+      </c>
+      <c r="J8">
+        <v>6770.2367305755597</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>131685.31910193842</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>131.68531910193843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>124811.327457427</v>
+      </c>
+      <c r="F10">
+        <v>165.87066650390599</v>
+      </c>
+      <c r="G10">
+        <v>1771.94809913635</v>
+      </c>
+      <c r="H10">
+        <v>50.290346145629798</v>
+      </c>
+      <c r="I10">
+        <v>7941.0285949707004</v>
+      </c>
+      <c r="J10">
+        <v>9763.3171081542896</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>132560.10237945002</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>132.56010237945003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>119024.295568466</v>
+      </c>
+      <c r="F11">
+        <v>166.801691055297</v>
+      </c>
+      <c r="G11">
+        <v>4061.16676330566</v>
+      </c>
+      <c r="H11">
+        <v>50.520896911621001</v>
+      </c>
+      <c r="I11">
+        <v>5255.5713653564399</v>
+      </c>
+      <c r="J11">
+        <v>9367.3124313354492</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>134849.32104361933</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>134.84932104361934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>120860.260725021</v>
+      </c>
+      <c r="F12">
+        <v>162.583827972412</v>
+      </c>
+      <c r="G12">
+        <v>5237.9448413848804</v>
+      </c>
+      <c r="H12">
+        <v>61.283111572265597</v>
+      </c>
+      <c r="I12">
+        <v>5220.3681468963596</v>
+      </c>
+      <c r="J12">
+        <v>10519.652128219601</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>136026.09912169856</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>136.02609912169856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>118698.01139831499</v>
+      </c>
+      <c r="F13">
+        <v>164.73937034606899</v>
+      </c>
+      <c r="G13">
+        <v>6289.0160083770697</v>
+      </c>
+      <c r="H13">
+        <v>49.228429794311502</v>
+      </c>
+      <c r="I13">
+        <v>5234.1120243072501</v>
+      </c>
+      <c r="J13">
+        <v>11572.4103450775</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>137077.17028869074</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>137.07717028869075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>119843.768596649</v>
+      </c>
+      <c r="F14">
+        <v>164.294958114624</v>
+      </c>
+      <c r="G14">
+        <v>892.70210266113202</v>
+      </c>
+      <c r="H14">
+        <v>53.8101196289062</v>
+      </c>
+      <c r="I14">
+        <v>19206.968784332199</v>
+      </c>
+      <c r="J14">
+        <v>20153.5408496856</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>131680.8563829748</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>131.68085638297481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>119712.884664535</v>
+      </c>
+      <c r="F15">
+        <v>162.78481483459399</v>
+      </c>
+      <c r="G15">
+        <v>2409.1236591339102</v>
+      </c>
+      <c r="H15">
+        <v>52.013158798217702</v>
+      </c>
+      <c r="I15">
+        <v>16471.621036529501</v>
+      </c>
+      <c r="J15">
+        <v>18932.824134826598</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>133197.27793944758</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>133.19727793944759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>118831.88176155</v>
+      </c>
+      <c r="F16">
+        <v>163.91539573669399</v>
+      </c>
+      <c r="G16">
+        <v>2564.39280509948</v>
+      </c>
+      <c r="H16">
+        <v>50.266265869140597</v>
+      </c>
+      <c r="I16">
+        <v>18356.997013092001</v>
+      </c>
+      <c r="J16">
+        <v>20971.723079681298</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>133352.54708541316</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>133.35254708541316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>119038.424253463</v>
+      </c>
+      <c r="F17">
+        <v>165.17853736877399</v>
+      </c>
+      <c r="G17">
+        <v>687.56365776062</v>
+      </c>
+      <c r="H17">
+        <v>54.414749145507798</v>
+      </c>
+      <c r="I17">
+        <v>51917.401552200303</v>
+      </c>
+      <c r="J17">
+        <v>52659.452438354398</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>131475.71793807429</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>131.4757179380743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>124198.61865043599</v>
+      </c>
+      <c r="F18">
+        <v>164.177656173706</v>
+      </c>
+      <c r="G18">
+        <v>1574.90491867065</v>
+      </c>
+      <c r="H18">
+        <v>27.0216464996337</v>
+      </c>
+      <c r="I18">
+        <v>5847.2800254821695</v>
+      </c>
+      <c r="J18">
+        <v>7449.2654800415003</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>132363.05919898432</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>132.36305919898433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>121567.74687767</v>
+      </c>
+      <c r="F19">
+        <v>165.54331779479901</v>
+      </c>
+      <c r="G19">
+        <v>1015.91038703918</v>
+      </c>
+      <c r="H19">
+        <v>26.899337768554599</v>
+      </c>
+      <c r="I19">
+        <v>2135.4761123657199</v>
+      </c>
+      <c r="J19">
+        <v>3178.34520339965</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>131804.06466735285</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>131.80406466735286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>119985.764741897</v>
+      </c>
+      <c r="F20">
+        <v>166.69750213623001</v>
+      </c>
+      <c r="G20">
+        <v>1130.6169033050501</v>
+      </c>
+      <c r="H20">
+        <v>26.9737243652343</v>
+      </c>
+      <c r="I20">
+        <v>2140.6011581420898</v>
+      </c>
+      <c r="J20">
+        <v>3298.2504367828301</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>131918.77118361872</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>131.91877118361873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21">
+        <v>100000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>117911.98635101299</v>
+      </c>
+      <c r="F21">
+        <v>164.00456428527801</v>
+      </c>
+      <c r="G21">
+        <v>2094.2671298980699</v>
+      </c>
+      <c r="H21">
+        <v>26.904344558715799</v>
+      </c>
+      <c r="I21">
+        <v>2208.08815956115</v>
+      </c>
+      <c r="J21">
+        <v>4329.3209075927698</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>132882.42141021174</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>132.88242141021175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>118945.89924812299</v>
+      </c>
+      <c r="F22">
+        <v>261.90066337585398</v>
+      </c>
+      <c r="G22">
+        <v>1951.1954784393299</v>
+      </c>
+      <c r="H22">
+        <v>51.848649978637603</v>
+      </c>
+      <c r="I22">
+        <v>25207.453727722099</v>
+      </c>
+      <c r="J22">
+        <v>27210.567951202302</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>132739.349758753</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>132.73934975875301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>119380.91731071399</v>
+      </c>
+      <c r="F23">
+        <v>229.179620742797</v>
+      </c>
+      <c r="G23">
+        <v>950.72889328002896</v>
+      </c>
+      <c r="H23">
+        <v>54.530143737792898</v>
+      </c>
+      <c r="I23">
+        <v>25678.9028644561</v>
+      </c>
+      <c r="J23">
+        <v>26684.233665466301</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>131738.8831735937</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>131.73888317359371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>119591.926813125</v>
+      </c>
+      <c r="F24">
+        <v>230.474710464477</v>
+      </c>
+      <c r="G24">
+        <v>473.70243072509697</v>
+      </c>
+      <c r="H24">
+        <v>51.115274429321197</v>
+      </c>
+      <c r="I24">
+        <v>25240.096569061199</v>
+      </c>
+      <c r="J24">
+        <v>25764.978647232001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>131261.85671103877</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>131.26185671103877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>100000</v>
+      </c>
+      <c r="B25">
+        <v>100000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>122125.766277313</v>
+      </c>
+      <c r="F25">
+        <v>226.35293006896899</v>
+      </c>
+      <c r="G25">
+        <v>380.18250465392998</v>
+      </c>
+      <c r="H25">
+        <v>51.394224166870103</v>
+      </c>
+      <c r="I25">
+        <v>25362.158298492399</v>
+      </c>
+      <c r="J25">
+        <v>25793.799877166701</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>131168.3367849676</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>131.16833678496761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>119343.102931976</v>
+      </c>
+      <c r="F26">
+        <v>227.50234603881799</v>
+      </c>
+      <c r="G26">
+        <v>2150.2406597137401</v>
+      </c>
+      <c r="H26">
+        <v>51.057577133178697</v>
+      </c>
+      <c r="I26">
+        <v>24388.711690902699</v>
+      </c>
+      <c r="J26">
+        <v>26590.074539184501</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>132938.39494002741</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>132.93839494002742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1000</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>120627.96616554201</v>
+      </c>
+      <c r="F27">
+        <v>228.61433029174799</v>
+      </c>
+      <c r="G27">
+        <v>1839.7336006164501</v>
+      </c>
+      <c r="H27">
+        <v>51.232337951660099</v>
+      </c>
+      <c r="I27">
+        <v>24359.392642974799</v>
+      </c>
+      <c r="J27">
+        <v>26250.430345535198</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>132627.88788093012</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>132.62788788093013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10000</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>120922.91665077199</v>
+      </c>
+      <c r="F28">
+        <v>225.58784484863199</v>
+      </c>
+      <c r="G28">
+        <v>1808.56871604919</v>
+      </c>
+      <c r="H28">
+        <v>53.066015243530202</v>
+      </c>
+      <c r="I28">
+        <v>24932.889699935899</v>
+      </c>
+      <c r="J28">
+        <v>26794.590711593599</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>132596.72299636286</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>132.59672299636287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>122818.965435028</v>
+      </c>
+      <c r="F30">
+        <v>229.631423950195</v>
+      </c>
+      <c r="G30">
+        <v>2275.4466533660802</v>
+      </c>
+      <c r="H30">
+        <v>53.480386734008697</v>
+      </c>
+      <c r="I30">
+        <v>4277.3463726043701</v>
+      </c>
+      <c r="J30">
+        <v>6606.3179969787598</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>133063.60093367976</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>133.06360093367977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1000</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>121314.139604568</v>
+      </c>
+      <c r="F31">
+        <v>230.52048683166501</v>
+      </c>
+      <c r="G31">
+        <v>2455.6808471679601</v>
+      </c>
+      <c r="H31">
+        <v>53.431987762451101</v>
+      </c>
+      <c r="I31">
+        <v>4259.7012519836398</v>
+      </c>
+      <c r="J31">
+        <v>6768.8624858856201</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>133243.83512748164</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>133.24383512748165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>124229.099273681</v>
+      </c>
+      <c r="F32">
+        <v>232.526302337646</v>
+      </c>
+      <c r="G32">
+        <v>4825.5290985107404</v>
+      </c>
+      <c r="H32">
+        <v>49.842357635497997</v>
+      </c>
+      <c r="I32">
+        <v>4223.5853672027497</v>
+      </c>
+      <c r="J32">
+        <v>9099.0090370178204</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>135613.68337882441</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>135.61368337882442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>100000</v>
+      </c>
+      <c r="B33">
+        <v>100000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>120686.592340469</v>
+      </c>
+      <c r="F33">
+        <v>235.24951934814399</v>
+      </c>
+      <c r="G33">
+        <v>5119.5957660675003</v>
+      </c>
+      <c r="H33">
+        <v>59.581995010375898</v>
+      </c>
+      <c r="I33">
+        <v>4239.4371032714798</v>
+      </c>
+      <c r="J33">
+        <v>9418.6711311340296</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>135907.75004638117</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>135.90775004638118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>119245.91326713499</v>
+      </c>
+      <c r="F34">
+        <v>232.731819152832</v>
+      </c>
+      <c r="G34">
+        <v>942.68822669982899</v>
+      </c>
+      <c r="H34">
+        <v>52.079439163208001</v>
+      </c>
+      <c r="I34">
+        <v>36893.265962600701</v>
+      </c>
+      <c r="J34">
+        <v>37888.098955154397</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>131730.8425070135</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>131.73084250701351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1000</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>120331.763982772</v>
+      </c>
+      <c r="F35">
+        <v>234.62271690368601</v>
+      </c>
+      <c r="G35">
+        <v>2413.5670661926201</v>
+      </c>
+      <c r="H35">
+        <v>58.295726776122997</v>
+      </c>
+      <c r="I35">
+        <v>35793.375253677303</v>
+      </c>
+      <c r="J35">
+        <v>38265.299320220904</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>133201.7213465063</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>133.2017213465063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10000</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>119251.480102539</v>
+      </c>
+      <c r="F36">
+        <v>232.46669769287101</v>
+      </c>
+      <c r="G36">
+        <v>2397.9432582855202</v>
+      </c>
+      <c r="H36">
+        <v>51.844358444213803</v>
+      </c>
+      <c r="I36">
+        <v>37069.417715072603</v>
+      </c>
+      <c r="J36">
+        <v>39519.268989562901</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>133186.09753859919</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>133.1860975385992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>100000</v>
+      </c>
+      <c r="B37">
+        <v>100000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>120966.10116958601</v>
+      </c>
+      <c r="F37">
+        <v>232.035875320434</v>
+      </c>
+      <c r="G37">
+        <v>2553.5342693328798</v>
+      </c>
+      <c r="H37">
+        <v>56.195735931396399</v>
+      </c>
+      <c r="I37">
+        <v>72345.969200134205</v>
+      </c>
+      <c r="J37">
+        <v>74955.7657241821</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>133341.68854964655</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>133.34168854964656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>121428.450107574</v>
+      </c>
+      <c r="F38">
+        <v>232.61070251464801</v>
+      </c>
+      <c r="G38">
+        <v>1325.0732421875</v>
+      </c>
+      <c r="H38">
+        <v>26.305675506591701</v>
+      </c>
+      <c r="I38">
+        <v>2277.18162536621</v>
+      </c>
+      <c r="J38">
+        <v>3628.6149024963302</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>132113.2275225012</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>132.11322752250121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39">
+        <v>1000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>121093.51849555899</v>
+      </c>
+      <c r="F39">
+        <v>230.891227722167</v>
+      </c>
+      <c r="G39">
+        <v>2634.88793373107</v>
+      </c>
+      <c r="H39">
+        <v>26.101589202880799</v>
+      </c>
+      <c r="I39">
+        <v>2226.5601158141999</v>
+      </c>
+      <c r="J39">
+        <v>4887.6075744628897</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>133423.04221404475</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>133.42304221404476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10000</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>121186.444044113</v>
+      </c>
+      <c r="F40">
+        <v>233.53409767150799</v>
+      </c>
+      <c r="G40">
+        <v>2661.1673831939602</v>
+      </c>
+      <c r="H40">
+        <v>26.8058776855468</v>
+      </c>
+      <c r="I40">
+        <v>2225.2476215362499</v>
+      </c>
+      <c r="J40">
+        <v>4913.2792949676495</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>133449.32166350764</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>133.44932166350765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>100000</v>
+      </c>
+      <c r="B41">
+        <v>100000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>120546.568870544</v>
+      </c>
+      <c r="F41">
+        <v>230.67188262939399</v>
+      </c>
+      <c r="G41">
+        <v>823.08316230773903</v>
+      </c>
+      <c r="H41">
+        <v>26.293992996215799</v>
+      </c>
+      <c r="I41">
+        <v>2228.1916141510001</v>
+      </c>
+      <c r="J41">
+        <v>3077.6317119598302</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>131611.23744262141</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>131.61123744262142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>121026.496410369</v>
+      </c>
+      <c r="F42">
+        <v>235.41760444641099</v>
+      </c>
+      <c r="G42">
+        <v>17557.226896286</v>
+      </c>
+      <c r="H42">
+        <v>50.835847854614201</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>17609.930992126399</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>148345.38117659968</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>148.34538117659969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>1000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>119349.605321884</v>
+      </c>
+      <c r="F43">
+        <v>234.202623367309</v>
+      </c>
+      <c r="G43">
+        <v>4228.1780242919904</v>
+      </c>
+      <c r="H43">
+        <v>50.358772277832003</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4280.4381847381501</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>135016.33230460566</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>135.01633230460567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10000</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>121214.19191360399</v>
+      </c>
+      <c r="F44">
+        <v>232.861518859863</v>
+      </c>
+      <c r="G44">
+        <v>3659.58571434021</v>
+      </c>
+      <c r="H44">
+        <v>50.240039825439403</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3711.7452621459902</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>134447.73999465391</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>134.44773999465392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>100000</v>
+      </c>
+      <c r="B45">
+        <v>100000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>121630.16366958601</v>
+      </c>
+      <c r="F45">
+        <v>229.498624801635</v>
+      </c>
+      <c r="G45">
+        <v>3788.5684967041002</v>
+      </c>
+      <c r="H45">
+        <v>50.359010696411097</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3840.8031463623001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>134576.72277701777</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>134.57672277701778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>124303.484678268</v>
+      </c>
+      <c r="F46">
+        <v>666.56756401062</v>
+      </c>
+      <c r="G46">
+        <v>1969.45643424987</v>
+      </c>
+      <c r="H46">
+        <v>53.388118743896399</v>
+      </c>
+      <c r="I46">
+        <v>9866.8951988220197</v>
+      </c>
+      <c r="J46">
+        <v>11889.8129463195</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>132757.61071456355</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>132.75761071456355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1000</v>
+      </c>
+      <c r="B47">
+        <v>1000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>121029.745101928</v>
+      </c>
+      <c r="F47">
+        <v>606.44912719726506</v>
+      </c>
+      <c r="G47">
+        <v>487.49661445617602</v>
+      </c>
+      <c r="H47">
+        <v>51.774024963378899</v>
+      </c>
+      <c r="I47">
+        <v>10212.592124938899</v>
+      </c>
+      <c r="J47">
+        <v>10751.955270767199</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>131275.65089476985</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>131.27565089476985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10000</v>
+      </c>
+      <c r="B48">
+        <v>10000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>124004.352807998</v>
+      </c>
+      <c r="F48">
+        <v>601.900815963745</v>
+      </c>
+      <c r="G48">
+        <v>938.87257575988701</v>
+      </c>
+      <c r="H48">
+        <v>50.742864608764599</v>
+      </c>
+      <c r="I48">
+        <v>9940.5646324157697</v>
+      </c>
+      <c r="J48">
+        <v>10930.2639961242</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>131727.02685607356</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>131.72702685607356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>100000</v>
+      </c>
+      <c r="B49">
+        <v>100000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>120579.77318763699</v>
+      </c>
+      <c r="F49">
+        <v>603.35969924926701</v>
+      </c>
+      <c r="G49">
+        <v>372.94769287109301</v>
+      </c>
+      <c r="H49">
+        <v>50.523281097412102</v>
+      </c>
+      <c r="I49">
+        <v>10143.434762954699</v>
+      </c>
+      <c r="J49">
+        <v>10566.9770240783</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>131161.10197318476</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>131.16110197318477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>118575.96373557999</v>
+      </c>
+      <c r="F50">
+        <v>601.59611701965298</v>
+      </c>
+      <c r="G50">
+        <v>1884.21177864074</v>
+      </c>
+      <c r="H50">
+        <v>51.681756973266602</v>
+      </c>
+      <c r="I50">
+        <v>9959.6929550170898</v>
+      </c>
+      <c r="J50">
+        <v>11895.6477642059</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>132672.36605895442</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>132.67236605895442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1000</v>
+      </c>
+      <c r="B51">
+        <v>1000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>122502.41446494999</v>
+      </c>
+      <c r="F51">
+        <v>603.554248809814</v>
+      </c>
+      <c r="G51">
+        <v>1273.5013961791899</v>
+      </c>
+      <c r="H51">
+        <v>50.844192504882798</v>
+      </c>
+      <c r="I51">
+        <v>9729.8123836517298</v>
+      </c>
+      <c r="J51">
+        <v>11054.219245910601</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>132061.65567649287</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>132.06165567649288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10000</v>
+      </c>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>120141.45135879501</v>
+      </c>
+      <c r="F52">
+        <v>606.26292228698696</v>
+      </c>
+      <c r="G52">
+        <v>1370.1953887939401</v>
+      </c>
+      <c r="H52">
+        <v>51.363706588745103</v>
+      </c>
+      <c r="I52">
+        <v>10085.8550071716</v>
+      </c>
+      <c r="J52">
+        <v>11507.4768066406</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>132158.34966910761</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>132.15834966910762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>120787.290334701</v>
+      </c>
+      <c r="F54">
+        <v>601.94873809814396</v>
+      </c>
+      <c r="G54">
+        <v>3577.8365135192798</v>
+      </c>
+      <c r="H54">
+        <v>50.754308700561502</v>
+      </c>
+      <c r="I54">
+        <v>4680.4842948913501</v>
+      </c>
+      <c r="J54">
+        <v>8309.1204166412299</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>134365.99079383296</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>134.36599079383296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55">
+        <v>1000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>122604.27212715099</v>
+      </c>
+      <c r="F55">
+        <v>610.89205741882301</v>
+      </c>
+      <c r="G55">
+        <v>2294.86155509948</v>
+      </c>
+      <c r="H55">
+        <v>63.071489334106403</v>
+      </c>
+      <c r="I55">
+        <v>4660.5243682861301</v>
+      </c>
+      <c r="J55">
+        <v>7018.5115337371799</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>133083.01583541316</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>133.08301583541316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10000</v>
+      </c>
+      <c r="B56">
+        <v>10000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>120349.108695983</v>
+      </c>
+      <c r="F56">
+        <v>602.82158851623501</v>
+      </c>
+      <c r="G56">
+        <v>2642.2233581542901</v>
+      </c>
+      <c r="H56">
+        <v>53.801774978637603</v>
+      </c>
+      <c r="I56">
+        <v>4651.5877246856599</v>
+      </c>
+      <c r="J56">
+        <v>7347.6648330688404</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>133430.37763846797</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>133.43037763846797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>100000</v>
+      </c>
+      <c r="B57">
+        <v>100000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>120721.39835357601</v>
+      </c>
+      <c r="F57">
+        <v>606.67657852172795</v>
+      </c>
+      <c r="G57">
+        <v>6278.9134979248001</v>
+      </c>
+      <c r="H57">
+        <v>49.386501312255803</v>
+      </c>
+      <c r="I57">
+        <v>4651.7012119293204</v>
+      </c>
+      <c r="J57">
+        <v>10980.0517559051</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>137067.06777823847</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>137.06706777823848</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>119870.792627334</v>
+      </c>
+      <c r="F58">
+        <v>609.24005508422795</v>
+      </c>
+      <c r="G58">
+        <v>909.12771224975495</v>
+      </c>
+      <c r="H58">
+        <v>51.161289215087798</v>
+      </c>
+      <c r="I58">
+        <v>21553.892374038602</v>
+      </c>
+      <c r="J58">
+        <v>22514.237165450999</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>131697.28199256342</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>131.69728199256343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59">
+        <v>1000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>123551.281690597</v>
+      </c>
+      <c r="F59">
+        <v>605.17621040344204</v>
+      </c>
+      <c r="G59">
+        <v>2421.5960502624498</v>
+      </c>
+      <c r="H59">
+        <v>52.036046981811502</v>
+      </c>
+      <c r="I59">
+        <v>20384.963274001999</v>
+      </c>
+      <c r="J59">
+        <v>22858.663558959899</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>133209.75033057612</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>133.20975033057613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>10000</v>
+      </c>
+      <c r="B60">
+        <v>10000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>119071.75374031</v>
+      </c>
+      <c r="F60">
+        <v>607.64312744140602</v>
+      </c>
+      <c r="G60">
+        <v>2398.48732948303</v>
+      </c>
+      <c r="H60">
+        <v>52.567005157470703</v>
+      </c>
+      <c r="I60">
+        <v>22772.8776931762</v>
+      </c>
+      <c r="J60">
+        <v>25223.994016647299</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>133186.6416097967</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>133.18664160979671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>100000</v>
+      </c>
+      <c r="B61">
+        <v>100000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>117698.43506813</v>
+      </c>
+      <c r="F61">
+        <v>611.23514175415005</v>
+      </c>
+      <c r="G61">
+        <v>685.37616729736305</v>
+      </c>
+      <c r="H61">
+        <v>51.726579666137603</v>
+      </c>
+      <c r="I61">
+        <v>57188.228607177698</v>
+      </c>
+      <c r="J61">
+        <v>57925.396442413301</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>131473.53044761103</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>131.47353044761104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>121878.87907028099</v>
+      </c>
+      <c r="F62">
+        <v>605.213403701782</v>
+      </c>
+      <c r="G62">
+        <v>1352.2675037383999</v>
+      </c>
+      <c r="H62">
+        <v>27.203321456909102</v>
+      </c>
+      <c r="I62">
+        <v>2298.1481552124001</v>
+      </c>
+      <c r="J62">
+        <v>3677.6862144470201</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>132140.42178405207</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>132.14042178405208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>123707.184553146</v>
+      </c>
+      <c r="F63">
+        <v>604.51364517211903</v>
+      </c>
+      <c r="G63">
+        <v>993.17908287048294</v>
+      </c>
+      <c r="H63">
+        <v>27.0967483520507</v>
+      </c>
+      <c r="I63">
+        <v>2232.7246665954499</v>
+      </c>
+      <c r="J63">
+        <v>3253.0608177184999</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>131781.33336318415</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>131.78133336318416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10000</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>119037.39023208601</v>
+      </c>
+      <c r="F64">
+        <v>603.33991050720203</v>
+      </c>
+      <c r="G64">
+        <v>1124.42111968994</v>
+      </c>
+      <c r="H64">
+        <v>27.090549468994102</v>
+      </c>
+      <c r="I64">
+        <v>2236.0076904296802</v>
+      </c>
+      <c r="J64">
+        <v>3387.5849246978701</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>131912.57540000361</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>131.91257540000362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>100000</v>
+      </c>
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>118895.656585693</v>
+      </c>
+      <c r="F65">
+        <v>600.216627120971</v>
+      </c>
+      <c r="G65">
+        <v>2114.5598888397199</v>
+      </c>
+      <c r="H65">
+        <v>26.9830226898193</v>
+      </c>
+      <c r="I65">
+        <v>2235.2867126464798</v>
+      </c>
+      <c r="J65">
+        <v>4376.8932819366401</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>132902.71416915339</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>132.9027141691534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <f xml:space="preserve"> ('10_trees'!E67)</f>
+        <v>130740.52495469309</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <f>'10_trees'!H67</f>
         <v>47.629325620589711</v>
       </c>
     </row>
@@ -11869,2570 +14456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>122340.524673461</v>
-      </c>
-      <c r="F2">
-        <v>341.74084663391102</v>
-      </c>
-      <c r="G2">
-        <v>1476.7575263977001</v>
-      </c>
-      <c r="H2">
-        <v>52.009105682372997</v>
-      </c>
-      <c r="I2">
-        <v>11101.768255233699</v>
-      </c>
-      <c r="J2">
-        <v>12630.6002140045</v>
-      </c>
-      <c r="K2">
-        <f>SUM($E$67,G2,$H$67)</f>
-        <v>132264.91180671137</v>
-      </c>
-      <c r="L2">
-        <f>PRODUCT(K2,0.001)</f>
-        <v>132.26491180671138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>119125.45013427699</v>
-      </c>
-      <c r="F3">
-        <v>165.20905494689899</v>
-      </c>
-      <c r="G3">
-        <v>490.987300872802</v>
-      </c>
-      <c r="H3">
-        <v>54.165601730346602</v>
-      </c>
-      <c r="I3">
-        <v>6246.9298839569001</v>
-      </c>
-      <c r="J3">
-        <v>6792.1478748321497</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM($E$67,G3,$H$67)</f>
-        <v>131279.14158118647</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
-        <v>131.27914158118648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>119724.388837814</v>
-      </c>
-      <c r="F4">
-        <v>164.66617584228501</v>
-      </c>
-      <c r="G4">
-        <v>481.97746276855401</v>
-      </c>
-      <c r="H4">
-        <v>50.378322601318303</v>
-      </c>
-      <c r="I4">
-        <v>6315.4878616332999</v>
-      </c>
-      <c r="J4">
-        <v>6847.9044437408402</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>131270.13174308222</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>131.27013174308223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>100000</v>
-      </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>119852.606296539</v>
-      </c>
-      <c r="F5">
-        <v>166.446208953857</v>
-      </c>
-      <c r="G5">
-        <v>377.73776054382301</v>
-      </c>
-      <c r="H5">
-        <v>51.465272903442298</v>
-      </c>
-      <c r="I5">
-        <v>6277.0938873290997</v>
-      </c>
-      <c r="J5">
-        <v>6706.3617706298801</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>131165.89204085749</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>131.1658920408575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>119284.169197082</v>
-      </c>
-      <c r="F6">
-        <v>163.40470314025799</v>
-      </c>
-      <c r="G6">
-        <v>2509.5891952514598</v>
-      </c>
-      <c r="H6">
-        <v>50.944089889526303</v>
-      </c>
-      <c r="I6">
-        <v>5606.0562133788999</v>
-      </c>
-      <c r="J6">
-        <v>8166.6476726531901</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>133297.74347556513</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>133.29774347556514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>119148.231267929</v>
-      </c>
-      <c r="F7">
-        <v>162.57095336914</v>
-      </c>
-      <c r="G7">
-        <v>1414.27111625671</v>
-      </c>
-      <c r="H7">
-        <v>51.113367080688398</v>
-      </c>
-      <c r="I7">
-        <v>5586.26222610473</v>
-      </c>
-      <c r="J7">
-        <v>7051.7187118530201</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>132202.42539657038</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>132.20242539657039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>120898.18382263101</v>
-      </c>
-      <c r="F8">
-        <v>165.62771797180099</v>
-      </c>
-      <c r="G8">
-        <v>897.16482162475495</v>
-      </c>
-      <c r="H8">
-        <v>51.3687133789062</v>
-      </c>
-      <c r="I8">
-        <v>5821.6381072998001</v>
-      </c>
-      <c r="J8">
-        <v>6770.2367305755597</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>131685.31910193842</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>131.68531910193843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>124811.327457427</v>
-      </c>
-      <c r="F10">
-        <v>165.87066650390599</v>
-      </c>
-      <c r="G10">
-        <v>1771.94809913635</v>
-      </c>
-      <c r="H10">
-        <v>50.290346145629798</v>
-      </c>
-      <c r="I10">
-        <v>7941.0285949707004</v>
-      </c>
-      <c r="J10">
-        <v>9763.3171081542896</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>132560.10237945002</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>132.56010237945003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>119024.295568466</v>
-      </c>
-      <c r="F11">
-        <v>166.801691055297</v>
-      </c>
-      <c r="G11">
-        <v>4061.16676330566</v>
-      </c>
-      <c r="H11">
-        <v>50.520896911621001</v>
-      </c>
-      <c r="I11">
-        <v>5255.5713653564399</v>
-      </c>
-      <c r="J11">
-        <v>9367.3124313354492</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>134849.32104361933</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>134.84932104361934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10000</v>
-      </c>
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>120860.260725021</v>
-      </c>
-      <c r="F12">
-        <v>162.583827972412</v>
-      </c>
-      <c r="G12">
-        <v>5237.9448413848804</v>
-      </c>
-      <c r="H12">
-        <v>61.283111572265597</v>
-      </c>
-      <c r="I12">
-        <v>5220.3681468963596</v>
-      </c>
-      <c r="J12">
-        <v>10519.652128219601</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>136026.09912169856</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>136.02609912169856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100000</v>
-      </c>
-      <c r="B13">
-        <v>100000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>118698.01139831499</v>
-      </c>
-      <c r="F13">
-        <v>164.73937034606899</v>
-      </c>
-      <c r="G13">
-        <v>6289.0160083770697</v>
-      </c>
-      <c r="H13">
-        <v>49.228429794311502</v>
-      </c>
-      <c r="I13">
-        <v>5234.1120243072501</v>
-      </c>
-      <c r="J13">
-        <v>11572.4103450775</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>137077.17028869074</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>137.07717028869075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>119843.768596649</v>
-      </c>
-      <c r="F14">
-        <v>164.294958114624</v>
-      </c>
-      <c r="G14">
-        <v>892.70210266113202</v>
-      </c>
-      <c r="H14">
-        <v>53.8101196289062</v>
-      </c>
-      <c r="I14">
-        <v>19206.968784332199</v>
-      </c>
-      <c r="J14">
-        <v>20153.5408496856</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>131680.8563829748</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>131.68085638297481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1000</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>119712.884664535</v>
-      </c>
-      <c r="F15">
-        <v>162.78481483459399</v>
-      </c>
-      <c r="G15">
-        <v>2409.1236591339102</v>
-      </c>
-      <c r="H15">
-        <v>52.013158798217702</v>
-      </c>
-      <c r="I15">
-        <v>16471.621036529501</v>
-      </c>
-      <c r="J15">
-        <v>18932.824134826598</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>133197.27793944758</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>133.19727793944759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10000</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>118831.88176155</v>
-      </c>
-      <c r="F16">
-        <v>163.91539573669399</v>
-      </c>
-      <c r="G16">
-        <v>2564.39280509948</v>
-      </c>
-      <c r="H16">
-        <v>50.266265869140597</v>
-      </c>
-      <c r="I16">
-        <v>18356.997013092001</v>
-      </c>
-      <c r="J16">
-        <v>20971.723079681298</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>133352.54708541316</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>133.35254708541316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>100000</v>
-      </c>
-      <c r="B17">
-        <v>100000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>119038.424253463</v>
-      </c>
-      <c r="F17">
-        <v>165.17853736877399</v>
-      </c>
-      <c r="G17">
-        <v>687.56365776062</v>
-      </c>
-      <c r="H17">
-        <v>54.414749145507798</v>
-      </c>
-      <c r="I17">
-        <v>51917.401552200303</v>
-      </c>
-      <c r="J17">
-        <v>52659.452438354398</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>131475.71793807429</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>131.4757179380743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>124198.61865043599</v>
-      </c>
-      <c r="F18">
-        <v>164.177656173706</v>
-      </c>
-      <c r="G18">
-        <v>1574.90491867065</v>
-      </c>
-      <c r="H18">
-        <v>27.0216464996337</v>
-      </c>
-      <c r="I18">
-        <v>5847.2800254821695</v>
-      </c>
-      <c r="J18">
-        <v>7449.2654800415003</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>132363.05919898432</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>132.36305919898433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1000</v>
-      </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>121567.74687767</v>
-      </c>
-      <c r="F19">
-        <v>165.54331779479901</v>
-      </c>
-      <c r="G19">
-        <v>1015.91038703918</v>
-      </c>
-      <c r="H19">
-        <v>26.899337768554599</v>
-      </c>
-      <c r="I19">
-        <v>2135.4761123657199</v>
-      </c>
-      <c r="J19">
-        <v>3178.34520339965</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>131804.06466735285</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>131.80406466735286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10000</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>119985.764741897</v>
-      </c>
-      <c r="F20">
-        <v>166.69750213623001</v>
-      </c>
-      <c r="G20">
-        <v>1130.6169033050501</v>
-      </c>
-      <c r="H20">
-        <v>26.9737243652343</v>
-      </c>
-      <c r="I20">
-        <v>2140.6011581420898</v>
-      </c>
-      <c r="J20">
-        <v>3298.2504367828301</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>131918.77118361872</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>131.91877118361873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>100000</v>
-      </c>
-      <c r="B21">
-        <v>100000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>117911.98635101299</v>
-      </c>
-      <c r="F21">
-        <v>164.00456428527801</v>
-      </c>
-      <c r="G21">
-        <v>2094.2671298980699</v>
-      </c>
-      <c r="H21">
-        <v>26.904344558715799</v>
-      </c>
-      <c r="I21">
-        <v>2208.08815956115</v>
-      </c>
-      <c r="J21">
-        <v>4329.3209075927698</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>132882.42141021174</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>132.88242141021175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>118945.89924812299</v>
-      </c>
-      <c r="F22">
-        <v>261.90066337585398</v>
-      </c>
-      <c r="G22">
-        <v>1951.1954784393299</v>
-      </c>
-      <c r="H22">
-        <v>51.848649978637603</v>
-      </c>
-      <c r="I22">
-        <v>25207.453727722099</v>
-      </c>
-      <c r="J22">
-        <v>27210.567951202302</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>132739.349758753</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>132.73934975875301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1000</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>119380.91731071399</v>
-      </c>
-      <c r="F23">
-        <v>229.179620742797</v>
-      </c>
-      <c r="G23">
-        <v>950.72889328002896</v>
-      </c>
-      <c r="H23">
-        <v>54.530143737792898</v>
-      </c>
-      <c r="I23">
-        <v>25678.9028644561</v>
-      </c>
-      <c r="J23">
-        <v>26684.233665466301</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>131738.8831735937</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>131.73888317359371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10000</v>
-      </c>
-      <c r="B24">
-        <v>10000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>119591.926813125</v>
-      </c>
-      <c r="F24">
-        <v>230.474710464477</v>
-      </c>
-      <c r="G24">
-        <v>473.70243072509697</v>
-      </c>
-      <c r="H24">
-        <v>51.115274429321197</v>
-      </c>
-      <c r="I24">
-        <v>25240.096569061199</v>
-      </c>
-      <c r="J24">
-        <v>25764.978647232001</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>131261.85671103877</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>131.26185671103877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>100000</v>
-      </c>
-      <c r="B25">
-        <v>100000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>122125.766277313</v>
-      </c>
-      <c r="F25">
-        <v>226.35293006896899</v>
-      </c>
-      <c r="G25">
-        <v>380.18250465392998</v>
-      </c>
-      <c r="H25">
-        <v>51.394224166870103</v>
-      </c>
-      <c r="I25">
-        <v>25362.158298492399</v>
-      </c>
-      <c r="J25">
-        <v>25793.799877166701</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>131168.3367849676</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>131.16833678496761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>100</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>119343.102931976</v>
-      </c>
-      <c r="F26">
-        <v>227.50234603881799</v>
-      </c>
-      <c r="G26">
-        <v>2150.2406597137401</v>
-      </c>
-      <c r="H26">
-        <v>51.057577133178697</v>
-      </c>
-      <c r="I26">
-        <v>24388.711690902699</v>
-      </c>
-      <c r="J26">
-        <v>26590.074539184501</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>132938.39494002741</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>132.93839494002742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1000</v>
-      </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>120627.96616554201</v>
-      </c>
-      <c r="F27">
-        <v>228.61433029174799</v>
-      </c>
-      <c r="G27">
-        <v>1839.7336006164501</v>
-      </c>
-      <c r="H27">
-        <v>51.232337951660099</v>
-      </c>
-      <c r="I27">
-        <v>24359.392642974799</v>
-      </c>
-      <c r="J27">
-        <v>26250.430345535198</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>132627.88788093012</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>132.62788788093013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10000</v>
-      </c>
-      <c r="B28">
-        <v>10000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>120922.91665077199</v>
-      </c>
-      <c r="F28">
-        <v>225.58784484863199</v>
-      </c>
-      <c r="G28">
-        <v>1808.56871604919</v>
-      </c>
-      <c r="H28">
-        <v>53.066015243530202</v>
-      </c>
-      <c r="I28">
-        <v>24932.889699935899</v>
-      </c>
-      <c r="J28">
-        <v>26794.590711593599</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>132596.72299636286</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>132.59672299636287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>122818.965435028</v>
-      </c>
-      <c r="F30">
-        <v>229.631423950195</v>
-      </c>
-      <c r="G30">
-        <v>2275.4466533660802</v>
-      </c>
-      <c r="H30">
-        <v>53.480386734008697</v>
-      </c>
-      <c r="I30">
-        <v>4277.3463726043701</v>
-      </c>
-      <c r="J30">
-        <v>6606.3179969787598</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>133063.60093367976</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>133.06360093367977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1000</v>
-      </c>
-      <c r="B31">
-        <v>1000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>121314.139604568</v>
-      </c>
-      <c r="F31">
-        <v>230.52048683166501</v>
-      </c>
-      <c r="G31">
-        <v>2455.6808471679601</v>
-      </c>
-      <c r="H31">
-        <v>53.431987762451101</v>
-      </c>
-      <c r="I31">
-        <v>4259.7012519836398</v>
-      </c>
-      <c r="J31">
-        <v>6768.8624858856201</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>133243.83512748164</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>133.24383512748165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10000</v>
-      </c>
-      <c r="B32">
-        <v>10000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>124229.099273681</v>
-      </c>
-      <c r="F32">
-        <v>232.526302337646</v>
-      </c>
-      <c r="G32">
-        <v>4825.5290985107404</v>
-      </c>
-      <c r="H32">
-        <v>49.842357635497997</v>
-      </c>
-      <c r="I32">
-        <v>4223.5853672027497</v>
-      </c>
-      <c r="J32">
-        <v>9099.0090370178204</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>135613.68337882441</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>135.61368337882442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>100000</v>
-      </c>
-      <c r="B33">
-        <v>100000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>120686.592340469</v>
-      </c>
-      <c r="F33">
-        <v>235.24951934814399</v>
-      </c>
-      <c r="G33">
-        <v>5119.5957660675003</v>
-      </c>
-      <c r="H33">
-        <v>59.581995010375898</v>
-      </c>
-      <c r="I33">
-        <v>4239.4371032714798</v>
-      </c>
-      <c r="J33">
-        <v>9418.6711311340296</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>135907.75004638117</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>135.90775004638118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <v>119245.91326713499</v>
-      </c>
-      <c r="F34">
-        <v>232.731819152832</v>
-      </c>
-      <c r="G34">
-        <v>942.68822669982899</v>
-      </c>
-      <c r="H34">
-        <v>52.079439163208001</v>
-      </c>
-      <c r="I34">
-        <v>36893.265962600701</v>
-      </c>
-      <c r="J34">
-        <v>37888.098955154397</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>131730.8425070135</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
-        <v>131.73084250701351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1000</v>
-      </c>
-      <c r="B35">
-        <v>1000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <v>120331.763982772</v>
-      </c>
-      <c r="F35">
-        <v>234.62271690368601</v>
-      </c>
-      <c r="G35">
-        <v>2413.5670661926201</v>
-      </c>
-      <c r="H35">
-        <v>58.295726776122997</v>
-      </c>
-      <c r="I35">
-        <v>35793.375253677303</v>
-      </c>
-      <c r="J35">
-        <v>38265.299320220904</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>133201.7213465063</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>133.2017213465063</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10000</v>
-      </c>
-      <c r="B36">
-        <v>10000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <v>119251.480102539</v>
-      </c>
-      <c r="F36">
-        <v>232.46669769287101</v>
-      </c>
-      <c r="G36">
-        <v>2397.9432582855202</v>
-      </c>
-      <c r="H36">
-        <v>51.844358444213803</v>
-      </c>
-      <c r="I36">
-        <v>37069.417715072603</v>
-      </c>
-      <c r="J36">
-        <v>39519.268989562901</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>133186.09753859919</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>133.1860975385992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>100000</v>
-      </c>
-      <c r="B37">
-        <v>100000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>120966.10116958601</v>
-      </c>
-      <c r="F37">
-        <v>232.035875320434</v>
-      </c>
-      <c r="G37">
-        <v>2553.5342693328798</v>
-      </c>
-      <c r="H37">
-        <v>56.195735931396399</v>
-      </c>
-      <c r="I37">
-        <v>72345.969200134205</v>
-      </c>
-      <c r="J37">
-        <v>74955.7657241821</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>133341.68854964655</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
-        <v>133.34168854964656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>121428.450107574</v>
-      </c>
-      <c r="F38">
-        <v>232.61070251464801</v>
-      </c>
-      <c r="G38">
-        <v>1325.0732421875</v>
-      </c>
-      <c r="H38">
-        <v>26.305675506591701</v>
-      </c>
-      <c r="I38">
-        <v>2277.18162536621</v>
-      </c>
-      <c r="J38">
-        <v>3628.6149024963302</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>132113.2275225012</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="1"/>
-        <v>132.11322752250121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1000</v>
-      </c>
-      <c r="B39">
-        <v>1000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>121093.51849555899</v>
-      </c>
-      <c r="F39">
-        <v>230.891227722167</v>
-      </c>
-      <c r="G39">
-        <v>2634.88793373107</v>
-      </c>
-      <c r="H39">
-        <v>26.101589202880799</v>
-      </c>
-      <c r="I39">
-        <v>2226.5601158141999</v>
-      </c>
-      <c r="J39">
-        <v>4887.6075744628897</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>133423.04221404475</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="1"/>
-        <v>133.42304221404476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10000</v>
-      </c>
-      <c r="B40">
-        <v>10000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>121186.444044113</v>
-      </c>
-      <c r="F40">
-        <v>233.53409767150799</v>
-      </c>
-      <c r="G40">
-        <v>2661.1673831939602</v>
-      </c>
-      <c r="H40">
-        <v>26.8058776855468</v>
-      </c>
-      <c r="I40">
-        <v>2225.2476215362499</v>
-      </c>
-      <c r="J40">
-        <v>4913.2792949676495</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>133449.32166350764</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="1"/>
-        <v>133.44932166350765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>100000</v>
-      </c>
-      <c r="B41">
-        <v>100000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <v>120546.568870544</v>
-      </c>
-      <c r="F41">
-        <v>230.67188262939399</v>
-      </c>
-      <c r="G41">
-        <v>823.08316230773903</v>
-      </c>
-      <c r="H41">
-        <v>26.293992996215799</v>
-      </c>
-      <c r="I41">
-        <v>2228.1916141510001</v>
-      </c>
-      <c r="J41">
-        <v>3077.6317119598302</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>131611.23744262141</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
-        <v>131.61123744262142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>100</v>
-      </c>
-      <c r="B42">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42">
-        <v>121026.496410369</v>
-      </c>
-      <c r="F42">
-        <v>235.41760444641099</v>
-      </c>
-      <c r="G42">
-        <v>17557.226896286</v>
-      </c>
-      <c r="H42">
-        <v>50.835847854614201</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>17609.930992126399</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>148345.38117659968</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
-        <v>148.34538117659969</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1000</v>
-      </c>
-      <c r="B43">
-        <v>1000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>119349.605321884</v>
-      </c>
-      <c r="F43">
-        <v>234.202623367309</v>
-      </c>
-      <c r="G43">
-        <v>4228.1780242919904</v>
-      </c>
-      <c r="H43">
-        <v>50.358772277832003</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4280.4381847381501</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>135016.33230460566</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
-        <v>135.01633230460567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>10000</v>
-      </c>
-      <c r="B44">
-        <v>10000</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>121214.19191360399</v>
-      </c>
-      <c r="F44">
-        <v>232.861518859863</v>
-      </c>
-      <c r="G44">
-        <v>3659.58571434021</v>
-      </c>
-      <c r="H44">
-        <v>50.240039825439403</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>3711.7452621459902</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>134447.73999465391</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="1"/>
-        <v>134.44773999465392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>100000</v>
-      </c>
-      <c r="B45">
-        <v>100000</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45">
-        <v>121630.16366958601</v>
-      </c>
-      <c r="F45">
-        <v>229.498624801635</v>
-      </c>
-      <c r="G45">
-        <v>3788.5684967041002</v>
-      </c>
-      <c r="H45">
-        <v>50.359010696411097</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>3840.8031463623001</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>134576.72277701777</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="1"/>
-        <v>134.57672277701778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>100</v>
-      </c>
-      <c r="B46">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>124303.484678268</v>
-      </c>
-      <c r="F46">
-        <v>666.56756401062</v>
-      </c>
-      <c r="G46">
-        <v>1969.45643424987</v>
-      </c>
-      <c r="H46">
-        <v>53.388118743896399</v>
-      </c>
-      <c r="I46">
-        <v>9866.8951988220197</v>
-      </c>
-      <c r="J46">
-        <v>11889.8129463195</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>132757.61071456355</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
-        <v>132.75761071456355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1000</v>
-      </c>
-      <c r="B47">
-        <v>1000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47">
-        <v>121029.745101928</v>
-      </c>
-      <c r="F47">
-        <v>606.44912719726506</v>
-      </c>
-      <c r="G47">
-        <v>487.49661445617602</v>
-      </c>
-      <c r="H47">
-        <v>51.774024963378899</v>
-      </c>
-      <c r="I47">
-        <v>10212.592124938899</v>
-      </c>
-      <c r="J47">
-        <v>10751.955270767199</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>131275.65089476985</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="1"/>
-        <v>131.27565089476985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>10000</v>
-      </c>
-      <c r="B48">
-        <v>10000</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>124004.352807998</v>
-      </c>
-      <c r="F48">
-        <v>601.900815963745</v>
-      </c>
-      <c r="G48">
-        <v>938.87257575988701</v>
-      </c>
-      <c r="H48">
-        <v>50.742864608764599</v>
-      </c>
-      <c r="I48">
-        <v>9940.5646324157697</v>
-      </c>
-      <c r="J48">
-        <v>10930.2639961242</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>131727.02685607356</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="1"/>
-        <v>131.72702685607356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>100000</v>
-      </c>
-      <c r="B49">
-        <v>100000</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>120579.77318763699</v>
-      </c>
-      <c r="F49">
-        <v>603.35969924926701</v>
-      </c>
-      <c r="G49">
-        <v>372.94769287109301</v>
-      </c>
-      <c r="H49">
-        <v>50.523281097412102</v>
-      </c>
-      <c r="I49">
-        <v>10143.434762954699</v>
-      </c>
-      <c r="J49">
-        <v>10566.9770240783</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>131161.10197318476</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="1"/>
-        <v>131.16110197318477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>100</v>
-      </c>
-      <c r="B50">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50">
-        <v>118575.96373557999</v>
-      </c>
-      <c r="F50">
-        <v>601.59611701965298</v>
-      </c>
-      <c r="G50">
-        <v>1884.21177864074</v>
-      </c>
-      <c r="H50">
-        <v>51.681756973266602</v>
-      </c>
-      <c r="I50">
-        <v>9959.6929550170898</v>
-      </c>
-      <c r="J50">
-        <v>11895.6477642059</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>132672.36605895442</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
-        <v>132.67236605895442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1000</v>
-      </c>
-      <c r="B51">
-        <v>1000</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <v>122502.41446494999</v>
-      </c>
-      <c r="F51">
-        <v>603.554248809814</v>
-      </c>
-      <c r="G51">
-        <v>1273.5013961791899</v>
-      </c>
-      <c r="H51">
-        <v>50.844192504882798</v>
-      </c>
-      <c r="I51">
-        <v>9729.8123836517298</v>
-      </c>
-      <c r="J51">
-        <v>11054.219245910601</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>132061.65567649287</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="1"/>
-        <v>132.06165567649288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>10000</v>
-      </c>
-      <c r="B52">
-        <v>10000</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>120141.45135879501</v>
-      </c>
-      <c r="F52">
-        <v>606.26292228698696</v>
-      </c>
-      <c r="G52">
-        <v>1370.1953887939401</v>
-      </c>
-      <c r="H52">
-        <v>51.363706588745103</v>
-      </c>
-      <c r="I52">
-        <v>10085.8550071716</v>
-      </c>
-      <c r="J52">
-        <v>11507.4768066406</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="0"/>
-        <v>132158.34966910761</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="1"/>
-        <v>132.15834966910762</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>100</v>
-      </c>
-      <c r="B54">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54">
-        <v>120787.290334701</v>
-      </c>
-      <c r="F54">
-        <v>601.94873809814396</v>
-      </c>
-      <c r="G54">
-        <v>3577.8365135192798</v>
-      </c>
-      <c r="H54">
-        <v>50.754308700561502</v>
-      </c>
-      <c r="I54">
-        <v>4680.4842948913501</v>
-      </c>
-      <c r="J54">
-        <v>8309.1204166412299</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="0"/>
-        <v>134365.99079383296</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="1"/>
-        <v>134.36599079383296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1000</v>
-      </c>
-      <c r="B55">
-        <v>1000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>122604.27212715099</v>
-      </c>
-      <c r="F55">
-        <v>610.89205741882301</v>
-      </c>
-      <c r="G55">
-        <v>2294.86155509948</v>
-      </c>
-      <c r="H55">
-        <v>63.071489334106403</v>
-      </c>
-      <c r="I55">
-        <v>4660.5243682861301</v>
-      </c>
-      <c r="J55">
-        <v>7018.5115337371799</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="0"/>
-        <v>133083.01583541316</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>133.08301583541316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>10000</v>
-      </c>
-      <c r="B56">
-        <v>10000</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56">
-        <v>120349.108695983</v>
-      </c>
-      <c r="F56">
-        <v>602.82158851623501</v>
-      </c>
-      <c r="G56">
-        <v>2642.2233581542901</v>
-      </c>
-      <c r="H56">
-        <v>53.801774978637603</v>
-      </c>
-      <c r="I56">
-        <v>4651.5877246856599</v>
-      </c>
-      <c r="J56">
-        <v>7347.6648330688404</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="0"/>
-        <v>133430.37763846797</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="1"/>
-        <v>133.43037763846797</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>100000</v>
-      </c>
-      <c r="B57">
-        <v>100000</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57">
-        <v>120721.39835357601</v>
-      </c>
-      <c r="F57">
-        <v>606.67657852172795</v>
-      </c>
-      <c r="G57">
-        <v>6278.9134979248001</v>
-      </c>
-      <c r="H57">
-        <v>49.386501312255803</v>
-      </c>
-      <c r="I57">
-        <v>4651.7012119293204</v>
-      </c>
-      <c r="J57">
-        <v>10980.0517559051</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="0"/>
-        <v>137067.06777823847</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="1"/>
-        <v>137.06706777823848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>100</v>
-      </c>
-      <c r="B58">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>119870.792627334</v>
-      </c>
-      <c r="F58">
-        <v>609.24005508422795</v>
-      </c>
-      <c r="G58">
-        <v>909.12771224975495</v>
-      </c>
-      <c r="H58">
-        <v>51.161289215087798</v>
-      </c>
-      <c r="I58">
-        <v>21553.892374038602</v>
-      </c>
-      <c r="J58">
-        <v>22514.237165450999</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="0"/>
-        <v>131697.28199256342</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="1"/>
-        <v>131.69728199256343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1000</v>
-      </c>
-      <c r="B59">
-        <v>1000</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59">
-        <v>123551.281690597</v>
-      </c>
-      <c r="F59">
-        <v>605.17621040344204</v>
-      </c>
-      <c r="G59">
-        <v>2421.5960502624498</v>
-      </c>
-      <c r="H59">
-        <v>52.036046981811502</v>
-      </c>
-      <c r="I59">
-        <v>20384.963274001999</v>
-      </c>
-      <c r="J59">
-        <v>22858.663558959899</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="0"/>
-        <v>133209.75033057612</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="1"/>
-        <v>133.20975033057613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>10000</v>
-      </c>
-      <c r="B60">
-        <v>10000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60">
-        <v>119071.75374031</v>
-      </c>
-      <c r="F60">
-        <v>607.64312744140602</v>
-      </c>
-      <c r="G60">
-        <v>2398.48732948303</v>
-      </c>
-      <c r="H60">
-        <v>52.567005157470703</v>
-      </c>
-      <c r="I60">
-        <v>22772.8776931762</v>
-      </c>
-      <c r="J60">
-        <v>25223.994016647299</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="0"/>
-        <v>133186.6416097967</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="1"/>
-        <v>133.18664160979671</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>100000</v>
-      </c>
-      <c r="B61">
-        <v>100000</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61">
-        <v>117698.43506813</v>
-      </c>
-      <c r="F61">
-        <v>611.23514175415005</v>
-      </c>
-      <c r="G61">
-        <v>685.37616729736305</v>
-      </c>
-      <c r="H61">
-        <v>51.726579666137603</v>
-      </c>
-      <c r="I61">
-        <v>57188.228607177698</v>
-      </c>
-      <c r="J61">
-        <v>57925.396442413301</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="0"/>
-        <v>131473.53044761103</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="1"/>
-        <v>131.47353044761104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>100</v>
-      </c>
-      <c r="B62">
-        <v>100</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>121878.87907028099</v>
-      </c>
-      <c r="F62">
-        <v>605.213403701782</v>
-      </c>
-      <c r="G62">
-        <v>1352.2675037383999</v>
-      </c>
-      <c r="H62">
-        <v>27.203321456909102</v>
-      </c>
-      <c r="I62">
-        <v>2298.1481552124001</v>
-      </c>
-      <c r="J62">
-        <v>3677.6862144470201</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="0"/>
-        <v>132140.42178405207</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="1"/>
-        <v>132.14042178405208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1000</v>
-      </c>
-      <c r="B63">
-        <v>1000</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>123707.184553146</v>
-      </c>
-      <c r="F63">
-        <v>604.51364517211903</v>
-      </c>
-      <c r="G63">
-        <v>993.17908287048294</v>
-      </c>
-      <c r="H63">
-        <v>27.0967483520507</v>
-      </c>
-      <c r="I63">
-        <v>2232.7246665954499</v>
-      </c>
-      <c r="J63">
-        <v>3253.0608177184999</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="0"/>
-        <v>131781.33336318415</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="1"/>
-        <v>131.78133336318416</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>10000</v>
-      </c>
-      <c r="B64">
-        <v>10000</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>119037.39023208601</v>
-      </c>
-      <c r="F64">
-        <v>603.33991050720203</v>
-      </c>
-      <c r="G64">
-        <v>1124.42111968994</v>
-      </c>
-      <c r="H64">
-        <v>27.090549468994102</v>
-      </c>
-      <c r="I64">
-        <v>2236.0076904296802</v>
-      </c>
-      <c r="J64">
-        <v>3387.5849246978701</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="0"/>
-        <v>131912.57540000361</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="1"/>
-        <v>131.91257540000362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>100000</v>
-      </c>
-      <c r="B65">
-        <v>100000</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65">
-        <v>118895.656585693</v>
-      </c>
-      <c r="F65">
-        <v>600.216627120971</v>
-      </c>
-      <c r="G65">
-        <v>2114.5598888397199</v>
-      </c>
-      <c r="H65">
-        <v>26.9830226898193</v>
-      </c>
-      <c r="I65">
-        <v>2235.2867126464798</v>
-      </c>
-      <c r="J65">
-        <v>4376.8932819366401</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="0"/>
-        <v>132902.71416915339</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="1"/>
-        <v>132.9027141691534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67">
-        <f xml:space="preserve"> ('10_trees'!E67)</f>
-        <v>130740.52495469309</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67">
-        <f>'10_trees'!H67</f>
-        <v>47.629325620589711</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="L2:L65">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E65">
+  <conditionalFormatting sqref="K2:K65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17015,7 +17039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
